--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="オープンデータ" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="216">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -1966,6 +1966,58 @@
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、中央市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チュウオウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市、富士川町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>フジカワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2366,13 +2418,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A182" sqref="A182"/>
+      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7094,6 +7146,58 @@
         <v>200</v>
       </c>
     </row>
+    <row r="182" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A182" s="5">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D182" s="11">
+        <v>44099</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A183" s="5">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D183" s="11">
+        <v>44101</v>
+      </c>
+      <c r="E183" s="11">
+        <v>44099</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="オープンデータ" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="217">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2018,6 +2018,13 @@
     <t>無症状</t>
     <rPh sb="0" eb="3">
       <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2418,13 +2425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
+      <selection pane="bottomRight" activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7198,6 +7205,26 @@
         <v>213</v>
       </c>
     </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A184" s="5">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D184" s="11">
+        <v>44102</v>
+      </c>
+      <c r="E184" s="11">
+        <v>44100</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="219">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2025,6 +2025,20 @@
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2425,13 +2439,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H185" sqref="H185"/>
+      <selection pane="bottomRight" activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7225,6 +7239,75 @@
         <v>216</v>
       </c>
     </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A185" s="5">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D185" s="11">
+        <v>44103</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A186" s="5">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D186" s="11">
+        <v>44103</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A187" s="5">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D187" s="11">
+        <v>44103</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="222">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2025,6 +2025,34 @@
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲州市、山梨市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウシュウシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヤマナシシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2439,13 +2467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H188" sqref="H188"/>
+      <selection pane="bottomRight" activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7252,6 +7280,9 @@
       <c r="D185" s="11">
         <v>44103</v>
       </c>
+      <c r="E185" s="11">
+        <v>44102</v>
+      </c>
       <c r="F185" s="5" t="s">
         <v>39</v>
       </c>
@@ -7262,7 +7293,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -7275,14 +7306,17 @@
       <c r="D186" s="11">
         <v>44103</v>
       </c>
+      <c r="E186" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="F186" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H186" s="6" t="s">
-        <v>218</v>
+      <c r="H186" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
@@ -7298,6 +7332,9 @@
       <c r="D187" s="11">
         <v>44103</v>
       </c>
+      <c r="E187" s="11">
+        <v>44103</v>
+      </c>
       <c r="F187" s="5" t="s">
         <v>39</v>
       </c>
@@ -7306,6 +7343,101 @@
       </c>
       <c r="H187" s="6" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A188" s="5">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D188" s="11">
+        <v>44104</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A189" s="5">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D189" s="11">
+        <v>44104</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A190" s="5">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D190" s="11">
+        <v>44104</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A191" s="5">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D191" s="11">
+        <v>44104</v>
+      </c>
+      <c r="E191" s="11">
+        <v>44103</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="223">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2064,9 +2064,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2467,13 +2474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E192" sqref="E192"/>
+      <selection pane="bottomRight" activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7358,6 +7365,9 @@
       <c r="D188" s="11">
         <v>44104</v>
       </c>
+      <c r="E188" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F188" s="5" t="s">
         <v>39</v>
       </c>
@@ -7381,6 +7391,9 @@
       <c r="D189" s="11">
         <v>44104</v>
       </c>
+      <c r="E189" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F189" s="5" t="s">
         <v>39</v>
       </c>
@@ -7404,6 +7417,9 @@
       <c r="D190" s="11">
         <v>44104</v>
       </c>
+      <c r="E190" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F190" s="5" t="s">
         <v>39</v>
       </c>
@@ -7414,7 +7430,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -7436,8 +7452,77 @@
       <c r="G191" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H191" s="6" t="s">
+      <c r="H191" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A192" s="5">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D192" s="11">
+        <v>44105</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A193" s="5">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D193" s="11">
+        <v>44105</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A194" s="5">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D194" s="11">
+        <v>44105</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G194" s="5" t="s">
         <v>221</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="225">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2074,6 +2074,27 @@
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2474,13 +2495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E186" sqref="E186"/>
+      <selection pane="bottomRight" activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7469,6 +7490,9 @@
       <c r="D192" s="11">
         <v>44105</v>
       </c>
+      <c r="E192" s="11">
+        <v>44104</v>
+      </c>
       <c r="F192" s="5" t="s">
         <v>39</v>
       </c>
@@ -7492,6 +7516,9 @@
       <c r="D193" s="11">
         <v>44105</v>
       </c>
+      <c r="E193" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F193" s="5" t="s">
         <v>39</v>
       </c>
@@ -7515,6 +7542,9 @@
       <c r="D194" s="11">
         <v>44105</v>
       </c>
+      <c r="E194" s="11">
+        <v>44104</v>
+      </c>
       <c r="F194" s="5" t="s">
         <v>39</v>
       </c>
@@ -7523,6 +7553,32 @@
       </c>
       <c r="H194" s="6" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A195" s="5">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D195" s="11">
+        <v>44107</v>
+      </c>
+      <c r="E195" s="11">
+        <v>44098</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="229">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2095,6 +2095,34 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2495,13 +2523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I195" sqref="I195"/>
+      <selection pane="bottomRight" activeCell="H196" sqref="H196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7581,6 +7609,29 @@
         <v>224</v>
       </c>
     </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A196" s="5">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196" s="11">
+        <v>44109</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H196" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="232">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2116,6 +2116,27 @@
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2523,13 +2544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H196" sqref="H196"/>
+      <selection pane="bottomRight" activeCell="I197" sqref="I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7622,6 +7643,9 @@
       <c r="D196" s="11">
         <v>44109</v>
       </c>
+      <c r="E196" s="11">
+        <v>44102</v>
+      </c>
       <c r="F196" s="5" t="s">
         <v>226</v>
       </c>
@@ -7630,6 +7654,32 @@
       </c>
       <c r="H196" s="6" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A197" s="5">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D197" s="11">
+        <v>44110</v>
+      </c>
+      <c r="E197" s="11">
+        <v>44098</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="234">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2144,6 +2144,20 @@
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2544,13 +2558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I197" sqref="I197"/>
+      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7682,6 +7696,32 @@
         <v>231</v>
       </c>
     </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A198" s="5">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D198" s="11">
+        <v>44115</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -2155,9 +2155,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
+    <t>山梨県(北杜市)</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ホクトシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2564,7 +2567,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomRight" activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="オープンデータ" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="238">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2161,6 +2161,34 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ホクトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2561,13 +2589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H199" sqref="H199"/>
+      <selection pane="bottomRight" activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7725,6 +7753,58 @@
         <v>233</v>
       </c>
     </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A199" s="5">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D199" s="11">
+        <v>44117</v>
+      </c>
+      <c r="E199" s="11">
+        <v>44109</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A200" s="5">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D200" s="11">
+        <v>44117</v>
+      </c>
+      <c r="E200" s="11">
+        <v>44113</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="245">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2189,6 +2189,55 @@
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2589,13 +2638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H200" sqref="H200"/>
+      <selection pane="bottomRight" activeCell="I203" sqref="I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7805,6 +7854,75 @@
         <v>85</v>
       </c>
     </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A201" s="5">
+        <v>200</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D201" s="11">
+        <v>44125</v>
+      </c>
+      <c r="E201" s="11">
+        <v>44123</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A202" s="5">
+        <v>201</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D202" s="11">
+        <v>44125</v>
+      </c>
+      <c r="E202" s="11">
+        <v>44125</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A203" s="5">
+        <v>202</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D203" s="11">
+        <v>44125</v>
+      </c>
+      <c r="E203" s="11">
+        <v>44122</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="243">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2155,16 +2155,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県(北杜市)</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ホクトシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>90代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2221,23 +2211,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>山梨県</t>
+    <t>山梨県
+（中北地域）</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>甲府市</t>
-    <rPh sb="0" eb="3">
-      <t>コウフシ</t>
+    <rPh sb="5" eb="7">
+      <t>チュウホク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（北杜市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホクトシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2638,13 +2632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I203" sqref="I203"/>
+      <selection pane="bottomRight" activeCell="H209" sqref="H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7776,7 +7770,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -7798,11 +7792,11 @@
       <c r="G198" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H198" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H198" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -7819,16 +7813,16 @@
         <v>44109</v>
       </c>
       <c r="F199" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G199" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G199" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H199" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H199" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -7845,19 +7839,22 @@
         <v>44113</v>
       </c>
       <c r="F200" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G200" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G200" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H200" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H200" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A201" s="5">
         <v>200</v>
       </c>
+      <c r="B201" s="5">
+        <v>190004</v>
+      </c>
       <c r="C201" s="5" t="s">
         <v>85</v>
       </c>
@@ -7868,42 +7865,48 @@
         <v>44123</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H201" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A202" s="5">
         <v>201</v>
       </c>
+      <c r="B202" s="5">
+        <v>190004</v>
+      </c>
       <c r="C202" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D202" s="11">
         <v>44125</v>
       </c>
-      <c r="E202" s="11">
-        <v>44125</v>
+      <c r="E202" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H202" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A203" s="5">
         <v>202</v>
       </c>
+      <c r="B203" s="5">
+        <v>190004</v>
+      </c>
       <c r="C203" s="5" t="s">
         <v>85</v>
       </c>
@@ -7914,13 +7917,65 @@
         <v>44122</v>
       </c>
       <c r="F203" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G203" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G203" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H203" s="6" t="s">
-        <v>243</v>
+      <c r="H203" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A204" s="5">
+        <v>202</v>
+      </c>
+      <c r="B204" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D204" s="11">
+        <v>44125</v>
+      </c>
+      <c r="E204" s="11">
+        <v>44122</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A205" s="5">
+        <v>203</v>
+      </c>
+      <c r="B205" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D205" s="11">
+        <v>44127</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="245">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2232,6 +2232,20 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>ホクトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2632,13 +2646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H209" sqref="H209"/>
+      <selection pane="bottomRight" activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7926,9 +7940,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="5">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="5">
         <v>190004</v>
@@ -7937,24 +7951,24 @@
         <v>85</v>
       </c>
       <c r="D204" s="11">
-        <v>44125</v>
-      </c>
-      <c r="E204" s="11">
-        <v>44122</v>
+        <v>44127</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" s="5">
         <v>190004</v>
@@ -7963,19 +7977,68 @@
         <v>85</v>
       </c>
       <c r="D205" s="11">
+        <v>44130</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A206" s="5">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D206" s="11">
+        <v>44130</v>
+      </c>
+      <c r="E206" s="11">
         <v>44127</v>
       </c>
-      <c r="E205" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G205" s="5" t="s">
+      <c r="F206" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G206" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H205" s="7" t="s">
-        <v>123</v>
+      <c r="H206" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A207" s="5">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D207" s="11">
+        <v>44130</v>
+      </c>
+      <c r="E207" s="11">
+        <v>44130</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\00612_健康増進課\00_新共有フォルダ\03_感染症担当\新型コロナウイルス関連\★報道対応_HP公表(日毎公表、随時更新)\投込み_感染状況（日毎）\◆オープンデータ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00319406\Desktop\コロナ\オープンデータ\1028\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="オープンデータ" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="252">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2243,9 +2243,75 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>山梨県</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(北杜市、南アルプス市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホクトシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(北杜市、韮崎市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホクトシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニラサキシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2646,29 +2712,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E207" sqref="E207"/>
+      <selection pane="bottomRight" activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="11" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="5" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="4"/>
+    <col min="9" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2720,7 +2786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2746,7 +2812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2772,7 +2838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2798,7 +2864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2824,7 +2890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2850,7 +2916,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2876,7 +2942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2902,7 +2968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2928,7 +2994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2954,7 +3020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2980,7 +3046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3006,7 +3072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3032,7 +3098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3058,7 +3124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3084,7 +3150,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3110,7 +3176,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3136,7 +3202,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3162,7 +3228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3188,7 +3254,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3214,7 +3280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3240,7 +3306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3266,7 +3332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3292,7 +3358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3318,7 +3384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3344,7 +3410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3370,7 +3436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3396,7 +3462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3422,7 +3488,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3448,7 +3514,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3474,7 +3540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3500,7 +3566,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3526,7 +3592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3552,7 +3618,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3578,7 +3644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3604,7 +3670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3630,7 +3696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3656,7 +3722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3682,7 +3748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3708,7 +3774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3734,7 +3800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3760,7 +3826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3786,7 +3852,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3812,7 +3878,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3838,7 +3904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3864,7 +3930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3890,7 +3956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3916,7 +3982,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3942,7 +4008,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3968,7 +4034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3994,7 +4060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4020,7 +4086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4046,7 +4112,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4072,7 +4138,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4098,7 +4164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4124,7 +4190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4150,7 +4216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4176,7 +4242,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4202,7 +4268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4228,7 +4294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4254,7 +4320,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4280,7 +4346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4306,7 +4372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4332,7 +4398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4358,7 +4424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4384,7 +4450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4410,7 +4476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4436,7 +4502,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4462,7 +4528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4488,7 +4554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4514,7 +4580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4540,7 +4606,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4566,7 +4632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4592,7 +4658,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4618,7 +4684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4644,7 +4710,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -4670,7 +4736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -4696,7 +4762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -4722,7 +4788,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -4748,7 +4814,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -4774,7 +4840,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4800,7 +4866,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -4826,7 +4892,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4852,7 +4918,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4878,7 +4944,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4904,7 +4970,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4930,7 +4996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -4956,7 +5022,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -4982,7 +5048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -5008,7 +5074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -5034,7 +5100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -5060,7 +5126,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -5086,7 +5152,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -5112,7 +5178,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -5138,7 +5204,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -5164,7 +5230,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -5190,7 +5256,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -5216,7 +5282,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -5242,7 +5308,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -5268,7 +5334,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -5294,7 +5360,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -5320,7 +5386,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -5346,7 +5412,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -5372,7 +5438,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -5398,7 +5464,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -5424,7 +5490,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -5450,7 +5516,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -5476,7 +5542,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -5502,7 +5568,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -5528,7 +5594,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -5554,7 +5620,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -5580,7 +5646,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -5606,7 +5672,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -5632,7 +5698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -5658,7 +5724,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -5684,7 +5750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -5710,7 +5776,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -5736,7 +5802,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -5762,7 +5828,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -5788,7 +5854,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -5814,7 +5880,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -5840,7 +5906,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -5866,7 +5932,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -5892,7 +5958,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -5918,7 +5984,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -5944,7 +6010,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -5970,7 +6036,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -5996,7 +6062,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -6022,7 +6088,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -6048,7 +6114,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -6074,7 +6140,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -6100,7 +6166,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -6126,7 +6192,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -6152,7 +6218,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -6178,7 +6244,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -6204,7 +6270,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -6230,7 +6296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -6256,7 +6322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -6282,7 +6348,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -6308,7 +6374,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -6334,7 +6400,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -6360,7 +6426,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -6386,7 +6452,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -6412,7 +6478,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -6438,7 +6504,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -6464,7 +6530,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -6490,7 +6556,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -6516,7 +6582,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -6542,7 +6608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -6568,7 +6634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -6594,7 +6660,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -6620,7 +6686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -6646,7 +6712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -6672,7 +6738,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -6698,7 +6764,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -6724,7 +6790,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -6750,7 +6816,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -6776,7 +6842,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -6802,7 +6868,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -6828,7 +6894,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -6854,7 +6920,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -6880,7 +6946,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -6906,7 +6972,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -6932,7 +6998,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -6958,7 +7024,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -6984,7 +7050,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -7010,7 +7076,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -7036,7 +7102,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -7062,7 +7128,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -7088,7 +7154,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -7114,7 +7180,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -7140,7 +7206,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -7166,7 +7232,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -7192,7 +7258,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -7218,7 +7284,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -7244,7 +7310,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -7270,7 +7336,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -7296,7 +7362,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -7322,7 +7388,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -7348,7 +7414,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -7374,7 +7440,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -7400,7 +7466,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -7426,7 +7492,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -7446,7 +7512,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -7472,7 +7538,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -7498,7 +7564,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -7524,7 +7590,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -7550,7 +7616,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -7576,7 +7642,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -7602,7 +7668,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -7628,7 +7694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -7654,7 +7720,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -7680,7 +7746,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -7706,7 +7772,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -7732,7 +7798,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -7758,7 +7824,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -7784,7 +7850,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -7810,7 +7876,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -7836,7 +7902,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -7862,7 +7928,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -7888,7 +7954,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -7914,7 +7980,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -7940,7 +8006,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -7966,7 +8032,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -7989,7 +8055,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -8011,11 +8077,11 @@
       <c r="G206" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H206" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H206" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -8037,8 +8103,86 @@
       <c r="G207" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H207" s="6" t="s">
+      <c r="H207" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A208" s="5">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D208" s="11">
+        <v>44131</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A209" s="5">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D209" s="11">
+        <v>44131</v>
+      </c>
+      <c r="E209" s="11">
+        <v>44128</v>
+      </c>
+      <c r="F209" s="5" t="s">
         <v>244</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A210" s="5">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D210" s="11">
+        <v>44131</v>
+      </c>
+      <c r="E210" s="11">
+        <v>44130</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H210" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00319406\Desktop\コロナ\オープンデータ\1028\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\00612_健康増進課\00_新共有フォルダ\03_感染症担当\新型コロナウイルス関連\★報道対応_HP公表(日毎公表、随時更新)\投込み_感染状況（日毎）\◆オープンデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="オープンデータ" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="261">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2312,6 +2312,76 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>ニラサキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2712,29 +2782,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H208" sqref="H208"/>
+      <selection pane="bottomRight" activeCell="A211" sqref="A211:XFD211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="4"/>
+    <col min="9" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2786,7 +2856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2812,7 +2882,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2838,7 +2908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2864,7 +2934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2890,7 +2960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2916,7 +2986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2942,7 +3012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2968,7 +3038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2994,7 +3064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3020,7 +3090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3046,7 +3116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3072,7 +3142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3098,7 +3168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3124,7 +3194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3150,7 +3220,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3176,7 +3246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3202,7 +3272,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3228,7 +3298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3254,7 +3324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3280,7 +3350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3306,7 +3376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3332,7 +3402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3358,7 +3428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3384,7 +3454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3410,7 +3480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3436,7 +3506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3462,7 +3532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3488,7 +3558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3514,7 +3584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3540,7 +3610,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3566,7 +3636,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3592,7 +3662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3618,7 +3688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3644,7 +3714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3670,7 +3740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3696,7 +3766,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3722,7 +3792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3748,7 +3818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3774,7 +3844,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3800,7 +3870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3826,7 +3896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3852,7 +3922,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3878,7 +3948,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3904,7 +3974,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3930,7 +4000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3956,7 +4026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3982,7 +4052,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4008,7 +4078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4034,7 +4104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4060,7 +4130,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4086,7 +4156,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4112,7 +4182,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4138,7 +4208,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4164,7 +4234,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4190,7 +4260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4216,7 +4286,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4242,7 +4312,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4268,7 +4338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4294,7 +4364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4320,7 +4390,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4346,7 +4416,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4372,7 +4442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4398,7 +4468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4424,7 +4494,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4450,7 +4520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4476,7 +4546,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4502,7 +4572,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4528,7 +4598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4554,7 +4624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4580,7 +4650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4606,7 +4676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4632,7 +4702,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4658,7 +4728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4684,7 +4754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4710,7 +4780,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -4736,7 +4806,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -4762,7 +4832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -4788,7 +4858,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -4814,7 +4884,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -4840,7 +4910,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4866,7 +4936,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -4892,7 +4962,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4918,7 +4988,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4944,7 +5014,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4970,7 +5040,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4996,7 +5066,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -5022,7 +5092,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -5048,7 +5118,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -5074,7 +5144,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -5100,7 +5170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -5126,7 +5196,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -5152,7 +5222,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -5178,7 +5248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -5204,7 +5274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -5230,7 +5300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -5256,7 +5326,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -5282,7 +5352,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -5308,7 +5378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -5334,7 +5404,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -5360,7 +5430,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -5386,7 +5456,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -5412,7 +5482,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -5438,7 +5508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -5464,7 +5534,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -5490,7 +5560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -5516,7 +5586,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -5542,7 +5612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -5568,7 +5638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -5594,7 +5664,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -5620,7 +5690,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -5646,7 +5716,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -5672,7 +5742,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -5698,7 +5768,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -5724,7 +5794,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -5750,7 +5820,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -5776,7 +5846,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -5802,7 +5872,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -5828,7 +5898,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -5854,7 +5924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -5880,7 +5950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -5906,7 +5976,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -5932,7 +6002,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -5958,7 +6028,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -5984,7 +6054,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -6010,7 +6080,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -6036,7 +6106,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -6062,7 +6132,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -6088,7 +6158,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -6114,7 +6184,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -6140,7 +6210,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -6166,7 +6236,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -6192,7 +6262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -6218,7 +6288,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -6244,7 +6314,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -6270,7 +6340,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -6296,7 +6366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -6322,7 +6392,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -6348,7 +6418,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -6374,7 +6444,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -6400,7 +6470,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -6426,7 +6496,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -6452,7 +6522,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -6478,7 +6548,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -6504,7 +6574,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -6530,7 +6600,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -6556,7 +6626,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -6582,7 +6652,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -6608,7 +6678,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -6634,7 +6704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -6660,7 +6730,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -6686,7 +6756,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -6712,7 +6782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -6738,7 +6808,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -6764,7 +6834,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -6790,7 +6860,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -6816,7 +6886,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -6842,7 +6912,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -6868,7 +6938,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -6894,7 +6964,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -6920,7 +6990,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -6946,7 +7016,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -6972,7 +7042,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -6998,7 +7068,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -7024,7 +7094,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -7050,7 +7120,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -7076,7 +7146,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -7102,7 +7172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -7128,7 +7198,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -7154,7 +7224,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -7180,7 +7250,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -7206,7 +7276,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -7232,7 +7302,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -7258,7 +7328,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -7284,7 +7354,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -7310,7 +7380,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -7336,7 +7406,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -7362,7 +7432,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -7388,7 +7458,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -7414,7 +7484,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -7440,7 +7510,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -7466,7 +7536,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -7492,7 +7562,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -7512,7 +7582,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -7538,7 +7608,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -7564,7 +7634,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -7590,7 +7660,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -7616,7 +7686,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -7642,7 +7712,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -7668,7 +7738,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -7694,7 +7764,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -7720,7 +7790,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -7746,7 +7816,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -7772,7 +7842,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -7798,7 +7868,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -7824,7 +7894,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -7850,7 +7920,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -7876,7 +7946,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -7902,7 +7972,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -7928,7 +7998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -7954,7 +8024,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -7980,7 +8050,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -8006,7 +8076,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -8032,7 +8102,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -8055,7 +8125,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -8081,7 +8151,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -8107,7 +8177,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -8133,7 +8203,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -8159,7 +8229,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -8183,6 +8253,84 @@
       </c>
       <c r="H210" s="6" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A211" s="5">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D211" s="11">
+        <v>44132</v>
+      </c>
+      <c r="E211" s="11">
+        <v>44131</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H211" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A212" s="5">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D212" s="11">
+        <v>44132</v>
+      </c>
+      <c r="E212" s="11">
+        <v>44129</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A213" s="5">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D213" s="11">
+        <v>44132</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="263">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2257,13 +2257,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2382,6 +2375,57 @@
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(韮崎市、北杜市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニラサキシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ホクトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(韮崎市、北杜市、昭和町)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニラサキシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ホクトシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市、甲斐市、中央市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>チュウオウシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2785,10 +2829,10 @@
   <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A211" sqref="A211:XFD211"/>
+      <selection pane="bottomRight" activeCell="I212" sqref="I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8148,7 +8192,7 @@
         <v>43</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -8174,7 +8218,7 @@
         <v>40</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.4">
@@ -8194,16 +8238,16 @@
         <v>38</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -8225,11 +8269,11 @@
       <c r="G209" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H209" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H209" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -8246,13 +8290,13 @@
         <v>44130</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H210" s="6" t="s">
-        <v>246</v>
+      <c r="H210" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.4">
@@ -8272,16 +8316,16 @@
         <v>44131</v>
       </c>
       <c r="F211" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G211" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G211" s="5" t="s">
+      <c r="H211" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="H211" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="212" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -8289,7 +8333,7 @@
         <v>190004</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D212" s="11">
         <v>44132</v>
@@ -8298,13 +8342,13 @@
         <v>44129</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -8321,16 +8365,16 @@
         <v>44132</v>
       </c>
       <c r="E213" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F213" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="G213" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G213" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="H213" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="265">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2426,6 +2426,30 @@
     </rPh>
     <rPh sb="16" eb="19">
       <t>チュウオウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2826,13 +2850,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I212" sqref="I212"/>
+      <selection pane="bottomRight" activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8377,6 +8401,110 @@
         <v>256</v>
       </c>
     </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A214" s="5">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D214" s="11">
+        <v>44134</v>
+      </c>
+      <c r="E214" s="11">
+        <v>44131</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A215" s="5">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D215" s="11">
+        <v>44135</v>
+      </c>
+      <c r="E215" s="11">
+        <v>44135</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A216" s="5">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D216" s="11">
+        <v>44135</v>
+      </c>
+      <c r="E216" s="11">
+        <v>44130</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="5">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D217" s="11">
+        <v>44135</v>
+      </c>
+      <c r="E217" s="11">
+        <v>44127</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H217" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="266">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2450,6 +2450,13 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2850,13 +2857,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A218" sqref="A218"/>
+      <selection pane="bottomRight" activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8505,6 +8512,58 @@
         <v>264</v>
       </c>
     </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A218" s="5">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D218" s="11">
+        <v>44137</v>
+      </c>
+      <c r="E218" s="11">
+        <v>44131</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A219" s="5">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D219" s="11">
+        <v>44137</v>
+      </c>
+      <c r="E219" s="11">
+        <v>44135</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H219" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="272">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2457,6 +2457,74 @@
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（峡東地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（甲府市外）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウフ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非公表（高齢者）</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウレイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウヒョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2542,7 +2610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2576,6 +2644,9 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2857,13 +2928,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H219"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B214" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H222" sqref="H222"/>
+      <selection pane="bottomRight" activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6464,7 +6538,7 @@
         <v>9</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
@@ -7215,7 +7289,7 @@
         <v>196</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>198</v>
@@ -7653,6 +7727,12 @@
       <c r="E184" s="11">
         <v>44100</v>
       </c>
+      <c r="F184" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>271</v>
+      </c>
       <c r="H184" s="6" t="s">
         <v>216</v>
       </c>
@@ -8190,6 +8270,9 @@
       <c r="D205" s="11">
         <v>44130</v>
       </c>
+      <c r="E205" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F205" s="5" t="s">
         <v>39</v>
       </c>
@@ -8344,7 +8427,7 @@
         <v>44132</v>
       </c>
       <c r="E211" s="11">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>251</v>
@@ -8564,9 +8647,87 @@
         <v>114</v>
       </c>
     </row>
+    <row r="220" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A220" s="5">
+        <v>219</v>
+      </c>
+      <c r="B220" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D220" s="11">
+        <v>44139</v>
+      </c>
+      <c r="E220" s="11">
+        <v>44136</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H220" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A221" s="5">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D221" s="11">
+        <v>44139</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A222" s="5">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D222" s="11">
+        <v>44139</v>
+      </c>
+      <c r="E222" s="11">
+        <v>44133</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="オープンデータ" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">オープンデータ!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="278">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2525,6 +2528,54 @@
     <t>非公表</t>
     <rPh sb="0" eb="3">
       <t>ヒコウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="2">
+      <t>コウフ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市外</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2931,13 +2982,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B218" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H223" sqref="H223"/>
+      <selection pane="bottomRight" activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8725,7 +8776,103 @@
         <v>268</v>
       </c>
     </row>
+    <row r="223" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A223" s="5">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D223" s="11">
+        <v>44140</v>
+      </c>
+      <c r="E223" s="11">
+        <v>44136</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H223" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A224" s="5">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D224" s="11">
+        <v>44140</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H224" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A225" s="5">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D225" s="11">
+        <v>44140</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H225" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A226" s="5">
+        <v>225</v>
+      </c>
+      <c r="B226" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D226" s="11">
+        <v>44140</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H226" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="285">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2576,6 +2576,92 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、峡東地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウトウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（中北地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウホク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、中央市、富士川町、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チュウオウシ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>フジカワチョウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2982,13 +3068,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F229" sqref="F229"/>
+      <selection pane="bottomRight" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8815,6 +8901,9 @@
       <c r="D224" s="11">
         <v>44140</v>
       </c>
+      <c r="E224" s="11">
+        <v>44135</v>
+      </c>
       <c r="F224" s="5" t="s">
         <v>272</v>
       </c>
@@ -8838,6 +8927,9 @@
       <c r="D225" s="11">
         <v>44140</v>
       </c>
+      <c r="E225" s="11">
+        <v>44137</v>
+      </c>
       <c r="F225" s="5" t="s">
         <v>275</v>
       </c>
@@ -8861,6 +8953,9 @@
       <c r="D226" s="11">
         <v>44140</v>
       </c>
+      <c r="E226" s="11">
+        <v>44137</v>
+      </c>
       <c r="F226" s="5" t="s">
         <v>272</v>
       </c>
@@ -8869,6 +8964,407 @@
       </c>
       <c r="H226" s="6" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A227" s="5">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D227" s="11">
+        <v>44141</v>
+      </c>
+      <c r="E227" s="11">
+        <v>44139</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A228" s="5">
+        <v>227</v>
+      </c>
+      <c r="B228" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D228" s="11">
+        <v>44141</v>
+      </c>
+      <c r="E228" s="11">
+        <v>44140</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A229" s="5">
+        <v>228</v>
+      </c>
+      <c r="B229" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D229" s="11">
+        <v>44141</v>
+      </c>
+      <c r="E229" s="11">
+        <v>44137</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A230" s="5">
+        <v>229</v>
+      </c>
+      <c r="B230" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D230" s="11">
+        <v>44141</v>
+      </c>
+      <c r="E230" s="11">
+        <v>44139</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H230" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A231" s="5">
+        <v>230</v>
+      </c>
+      <c r="B231" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D231" s="11">
+        <v>44142</v>
+      </c>
+      <c r="E231" s="11">
+        <v>44136</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A232" s="5">
+        <v>231</v>
+      </c>
+      <c r="B232" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D232" s="11">
+        <v>44142</v>
+      </c>
+      <c r="E232" s="11">
+        <v>44138</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H232" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A233" s="5">
+        <v>232</v>
+      </c>
+      <c r="B233" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D233" s="11">
+        <v>44142</v>
+      </c>
+      <c r="E233" s="11">
+        <v>44134</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H233" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A234" s="5">
+        <v>233</v>
+      </c>
+      <c r="B234" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D234" s="11">
+        <v>44142</v>
+      </c>
+      <c r="E234" s="11">
+        <v>44133</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H234" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A235" s="5">
+        <v>234</v>
+      </c>
+      <c r="B235" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D235" s="11">
+        <v>44143</v>
+      </c>
+      <c r="E235" s="11">
+        <v>44137</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A236" s="5">
+        <v>235</v>
+      </c>
+      <c r="B236" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D236" s="11">
+        <v>44143</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H236" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A237" s="5">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D237" s="11">
+        <v>44143</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H237" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A238" s="5">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D238" s="11">
+        <v>44143</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A239" s="5">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D239" s="11">
+        <v>44143</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H239" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A240" s="5">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D240" s="11">
+        <v>44143</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A241" s="5">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D241" s="11">
+        <v>44143</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H241" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A242" s="5">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D242" s="11">
+        <v>44143</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H242" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="288">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2659,9 +2659,40 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
+    <t>山梨県
+（甲府市、中央市、昭和町）</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チュウオウシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3068,13 +3099,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B229" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D230" sqref="D230"/>
+      <selection pane="bottomRight" activeCell="H251" sqref="H250:H251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9239,6 +9270,9 @@
       <c r="D237" s="11">
         <v>44143</v>
       </c>
+      <c r="E237" s="11">
+        <v>44134</v>
+      </c>
       <c r="F237" s="5" t="s">
         <v>53</v>
       </c>
@@ -9249,7 +9283,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -9271,11 +9305,11 @@
       <c r="G238" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H238" s="6" t="s">
+      <c r="H238" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -9288,17 +9322,20 @@
       <c r="D239" s="11">
         <v>44143</v>
       </c>
+      <c r="E239" s="11">
+        <v>44138</v>
+      </c>
       <c r="F239" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H239" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H239" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -9311,17 +9348,20 @@
       <c r="D240" s="11">
         <v>44143</v>
       </c>
+      <c r="E240" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F240" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H240" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H240" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -9334,17 +9374,20 @@
       <c r="D241" s="11">
         <v>44143</v>
       </c>
+      <c r="E241" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F241" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H241" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H241" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -9357,14 +9400,69 @@
       <c r="D242" s="11">
         <v>44143</v>
       </c>
+      <c r="E242" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F242" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H242" s="6" t="s">
-        <v>284</v>
+      <c r="H242" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A243" s="5">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D243" s="11">
+        <v>44144</v>
+      </c>
+      <c r="E243" s="11">
+        <v>44143</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H243" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A244" s="5">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D244" s="11">
+        <v>44144</v>
+      </c>
+      <c r="E244" s="11">
+        <v>44143</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H244" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="296">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2693,6 +2693,61 @@
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市外</t>
+    <rPh sb="0" eb="2">
+      <t>コウフ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シガイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3099,13 +3154,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H251" sqref="H250:H251"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9465,6 +9520,370 @@
         <v>202</v>
       </c>
     </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A245" s="5">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D245" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E245" s="11">
+        <v>44141</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H245" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A246" s="5">
+        <v>245</v>
+      </c>
+      <c r="B246" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D246" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H246" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A247" s="5">
+        <v>246</v>
+      </c>
+      <c r="B247" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D247" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H247" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A248" s="5">
+        <v>247</v>
+      </c>
+      <c r="B248" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D248" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E248" s="11">
+        <v>44145</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H248" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A249" s="5">
+        <v>248</v>
+      </c>
+      <c r="B249" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D249" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E249" s="11">
+        <v>44145</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H249" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A250" s="5">
+        <v>249</v>
+      </c>
+      <c r="B250" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D250" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E250" s="11">
+        <v>44142</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H250" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A251" s="5">
+        <v>250</v>
+      </c>
+      <c r="B251" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D251" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E251" s="11">
+        <v>44140</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A252" s="5">
+        <v>251</v>
+      </c>
+      <c r="B252" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D252" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E252" s="11">
+        <v>44138</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H252" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A253" s="5">
+        <v>252</v>
+      </c>
+      <c r="B253" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D253" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H253" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A254" s="5">
+        <v>253</v>
+      </c>
+      <c r="B254" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D254" s="11">
+        <v>44145</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H254" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A255" s="5">
+        <v>254</v>
+      </c>
+      <c r="B255" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D255" s="11">
+        <v>44146</v>
+      </c>
+      <c r="E255" s="11">
+        <v>44144</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H255" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A256" s="5">
+        <v>255</v>
+      </c>
+      <c r="B256" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D256" s="11">
+        <v>44146</v>
+      </c>
+      <c r="E256" s="11">
+        <v>44145</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H256" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A257" s="5">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D257" s="11">
+        <v>44146</v>
+      </c>
+      <c r="E257" s="11">
+        <v>44144</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H257" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A258" s="5">
+        <v>257</v>
+      </c>
+      <c r="B258" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D258" s="11">
+        <v>44146</v>
+      </c>
+      <c r="E258" s="11">
+        <v>44140</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H258" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <phoneticPr fontId="2"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="310">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2742,12 +2742,124 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>甲府市外</t>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市外
+（中北地域）</t>
     <rPh sb="0" eb="2">
       <t>コウフ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>シガイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3154,13 +3266,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B241" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9403,8 +9515,8 @@
       <c r="D240" s="11">
         <v>44143</v>
       </c>
-      <c r="E240" s="11" t="s">
-        <v>38</v>
+      <c r="E240" s="11">
+        <v>44143</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>41</v>
@@ -9517,7 +9629,7 @@
         <v>43</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.4">
@@ -9569,10 +9681,10 @@
         <v>40</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -9594,11 +9706,11 @@
       <c r="G247" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H247" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H247" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -9620,8 +9732,8 @@
       <c r="G248" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H248" s="6" t="s">
-        <v>290</v>
+      <c r="H248" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.4">
@@ -9650,7 +9762,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -9672,11 +9784,11 @@
       <c r="G250" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H250" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H250" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -9698,11 +9810,11 @@
       <c r="G251" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H251" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H251" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -9724,11 +9836,11 @@
       <c r="G252" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H252" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H252" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -9750,11 +9862,11 @@
       <c r="G253" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H253" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H253" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -9776,8 +9888,8 @@
       <c r="G254" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H254" s="6" t="s">
-        <v>290</v>
+      <c r="H254" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
@@ -9832,7 +9944,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -9854,8 +9966,8 @@
       <c r="G257" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H257" s="6" t="s">
-        <v>295</v>
+      <c r="H257" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.4">
@@ -9882,6 +9994,236 @@
       </c>
       <c r="H258" s="6" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A259" s="5">
+        <v>258</v>
+      </c>
+      <c r="B259" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D259" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H259" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A260" s="5">
+        <v>259</v>
+      </c>
+      <c r="B260" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D260" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H260" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A261" s="5">
+        <v>260</v>
+      </c>
+      <c r="B261" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D261" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H261" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A262" s="5">
+        <v>261</v>
+      </c>
+      <c r="B262" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D262" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A263" s="5">
+        <v>262</v>
+      </c>
+      <c r="B263" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D263" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A264" s="5">
+        <v>263</v>
+      </c>
+      <c r="B264" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D264" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A265" s="5">
+        <v>264</v>
+      </c>
+      <c r="B265" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D265" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H265" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A266" s="5">
+        <v>265</v>
+      </c>
+      <c r="B266" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D266" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H266" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A267" s="5">
+        <v>266</v>
+      </c>
+      <c r="B267" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D267" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A268" s="5">
+        <v>267</v>
+      </c>
+      <c r="B268" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D268" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H268" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="312">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2711,13 +2711,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
@@ -2766,13 +2759,6 @@
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2860,6 +2846,38 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3266,13 +3284,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B255" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E259" sqref="E259"/>
+      <selection pane="bottomRight" activeCell="A252" sqref="A252:XFD252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9629,10 +9647,10 @@
         <v>43</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -9654,11 +9672,11 @@
       <c r="G245" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H245" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H245" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -9680,8 +9698,8 @@
       <c r="G246" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H246" s="6" t="s">
-        <v>85</v>
+      <c r="H246" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -9759,7 +9777,7 @@
         <v>6</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -9805,13 +9823,13 @@
         <v>44140</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -9831,7 +9849,7 @@
         <v>44138</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>6</v>
@@ -9857,13 +9875,13 @@
         <v>38</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -9883,13 +9901,13 @@
         <v>38</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
@@ -9915,7 +9933,7 @@
         <v>6</v>
       </c>
       <c r="H255" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -9941,7 +9959,7 @@
         <v>6</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -9967,7 +9985,7 @@
         <v>6</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.4">
@@ -9993,10 +10011,10 @@
         <v>6</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -10009,17 +10027,20 @@
       <c r="D259" s="11">
         <v>44146</v>
       </c>
+      <c r="E259" s="11">
+        <v>44145</v>
+      </c>
       <c r="F259" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G259" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G259" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H259" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H259" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -10032,17 +10053,20 @@
       <c r="D260" s="11">
         <v>44146</v>
       </c>
+      <c r="E260" s="11">
+        <v>44144</v>
+      </c>
       <c r="F260" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H260" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H260" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -10055,17 +10079,20 @@
       <c r="D261" s="11">
         <v>44146</v>
       </c>
+      <c r="E261" s="11">
+        <v>44146</v>
+      </c>
       <c r="F261" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H261" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+      <c r="H261" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -10078,17 +10105,20 @@
       <c r="D262" s="11">
         <v>44146</v>
       </c>
+      <c r="E262" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F262" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H262" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -10101,14 +10131,17 @@
       <c r="D263" s="11">
         <v>44146</v>
       </c>
+      <c r="E263" s="11">
+        <v>44144</v>
+      </c>
       <c r="F263" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H263" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="H263" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -10124,17 +10157,20 @@
       <c r="D264" s="11">
         <v>44146</v>
       </c>
+      <c r="E264" s="11">
+        <v>44144</v>
+      </c>
       <c r="F264" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -10147,17 +10183,20 @@
       <c r="D265" s="11">
         <v>44146</v>
       </c>
+      <c r="E265" s="11">
+        <v>44142</v>
+      </c>
       <c r="F265" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H265" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+      <c r="H265" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -10170,17 +10209,20 @@
       <c r="D266" s="11">
         <v>44146</v>
       </c>
+      <c r="E266" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F266" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H266" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+      <c r="H266" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -10193,17 +10235,20 @@
       <c r="D267" s="11">
         <v>44146</v>
       </c>
+      <c r="E267" s="11">
+        <v>44145</v>
+      </c>
       <c r="F267" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H267" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+      <c r="H267" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -10216,14 +10261,225 @@
       <c r="D268" s="11">
         <v>44146</v>
       </c>
+      <c r="E268" s="11">
+        <v>44146</v>
+      </c>
       <c r="F268" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G268" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G268" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H268" s="6" t="s">
-        <v>299</v>
+      <c r="H268" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A269" s="5">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D269" s="11">
+        <v>44147</v>
+      </c>
+      <c r="E269" s="11">
+        <v>44141</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A270" s="5">
+        <v>269</v>
+      </c>
+      <c r="B270" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D270" s="11">
+        <v>44147</v>
+      </c>
+      <c r="E270" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H270" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A271" s="5">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D271" s="11">
+        <v>44147</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H271" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A272" s="5">
+        <v>271</v>
+      </c>
+      <c r="B272" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D272" s="11">
+        <v>44147</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H272" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A273" s="5">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D273" s="11">
+        <v>44147</v>
+      </c>
+      <c r="E273" s="11">
+        <v>44140</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H273" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A274" s="5">
+        <v>273</v>
+      </c>
+      <c r="B274" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D274" s="11">
+        <v>44147</v>
+      </c>
+      <c r="E274" s="11">
+        <v>44146</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H274" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A275" s="5">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D275" s="11">
+        <v>44147</v>
+      </c>
+      <c r="E275" s="11">
+        <v>44144</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H275" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A276" s="5">
+        <v>275</v>
+      </c>
+      <c r="B276" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D276" s="11">
+        <v>44147</v>
+      </c>
+      <c r="E276" s="11">
+        <v>44147</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H276" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="322">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2868,16 +2868,120 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>40代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市、山梨市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヤマナシシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市、甲府市、南アルプス市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲府市・笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フエフ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3284,13 +3388,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H276"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B246" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B277" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A252" sqref="A252:XFD252"/>
+      <selection pane="bottomRight" activeCell="F289" sqref="F289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10274,7 +10378,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -10296,11 +10400,11 @@
       <c r="G269" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H269" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H269" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -10322,11 +10426,11 @@
       <c r="G270" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H270" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H270" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -10348,11 +10452,11 @@
       <c r="G271" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H271" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H271" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -10374,11 +10478,11 @@
       <c r="G272" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H272" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H272" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -10400,11 +10504,11 @@
       <c r="G273" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H273" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H273" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -10426,11 +10530,11 @@
       <c r="G274" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H274" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H274" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -10447,16 +10551,16 @@
         <v>44144</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H275" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H275" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -10478,8 +10582,213 @@
       <c r="G276" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H276" s="6" t="s">
-        <v>310</v>
+      <c r="H276" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A277" s="5">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D277" s="11">
+        <v>44148</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H277" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A278" s="5">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D278" s="11">
+        <v>44148</v>
+      </c>
+      <c r="E278" s="11">
+        <v>44145</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A279" s="5">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D279" s="11">
+        <v>44148</v>
+      </c>
+      <c r="E279" s="11">
+        <v>44147</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H279" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D280" s="11">
+        <v>44148</v>
+      </c>
+      <c r="E280" s="11">
+        <v>44148</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H280" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A281" s="5">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D281" s="11">
+        <v>44148</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H281" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A282" s="5">
+        <v>281</v>
+      </c>
+      <c r="B282" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D282" s="11">
+        <v>44148</v>
+      </c>
+      <c r="E282" s="11">
+        <v>44147</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H282" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A283" s="5">
+        <v>282</v>
+      </c>
+      <c r="B283" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D283" s="11">
+        <v>44150</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G283" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H283" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A284" s="5">
+        <v>283</v>
+      </c>
+      <c r="B284" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D284" s="11">
+        <v>44150</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H284" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="325">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2982,6 +2982,27 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3388,13 +3409,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H284"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B277" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F289" sqref="F289"/>
+      <selection pane="bottomRight" activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10781,6 +10802,9 @@
       <c r="D284" s="11">
         <v>44150</v>
       </c>
+      <c r="E284" s="11">
+        <v>44144</v>
+      </c>
       <c r="F284" s="5" t="s">
         <v>53</v>
       </c>
@@ -10789,6 +10813,136 @@
       </c>
       <c r="H284" s="6" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A285" s="5">
+        <v>284</v>
+      </c>
+      <c r="B285" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D285" s="11">
+        <v>44151</v>
+      </c>
+      <c r="E285" s="11">
+        <v>44149</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H285" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A286" s="5">
+        <v>285</v>
+      </c>
+      <c r="B286" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D286" s="11">
+        <v>44151</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H286" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A287" s="5">
+        <v>286</v>
+      </c>
+      <c r="B287" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D287" s="11">
+        <v>44151</v>
+      </c>
+      <c r="E287" s="11">
+        <v>44149</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G287" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H287" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A288" s="5">
+        <v>287</v>
+      </c>
+      <c r="B288" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D288" s="11">
+        <v>44151</v>
+      </c>
+      <c r="E288" s="11">
+        <v>44150</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H288" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A289" s="5">
+        <v>288</v>
+      </c>
+      <c r="B289" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D289" s="11">
+        <v>44151</v>
+      </c>
+      <c r="E289" s="11">
+        <v>44149</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G289" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H289" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="328">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -3000,9 +3000,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
+    <t>山梨県
+(笛吹市)</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(峡東地域)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(笛吹市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3409,13 +3445,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B277" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B286" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H290" sqref="H290"/>
+      <selection pane="bottomRight" activeCell="H294" sqref="H294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10760,7 +10796,7 @@
         <v>312</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.4">
@@ -10815,7 +10851,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -10837,11 +10873,11 @@
       <c r="G285" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H285" s="6" t="s">
+      <c r="H285" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -10863,7 +10899,7 @@
       <c r="G286" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H286" s="6" t="s">
+      <c r="H286" s="7" t="s">
         <v>324</v>
       </c>
     </row>
@@ -10919,7 +10955,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -10941,8 +10977,80 @@
       <c r="G289" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H289" s="6" t="s">
-        <v>324</v>
+      <c r="H289" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A290" s="5">
+        <v>289</v>
+      </c>
+      <c r="B290" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D290" s="11">
+        <v>44152</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H290" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A291" s="5">
+        <v>290</v>
+      </c>
+      <c r="B291" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D291" s="11">
+        <v>44152</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G291" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H291" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A292" s="5">
+        <v>291</v>
+      </c>
+      <c r="B292" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D292" s="11">
+        <v>44152</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H292" s="6" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="256">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -1558,6 +1558,37 @@
   <si>
     <t>山梨県
 （甲府市・笛吹市）</t>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市、笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1962,13 +1993,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B290" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="H278" sqref="H278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9576,7 +9607,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -9598,8 +9629,164 @@
       <c r="G293" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H293" s="6" t="s">
-        <v>12</v>
+      <c r="H293" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A294" s="5">
+        <v>293</v>
+      </c>
+      <c r="B294" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D294" s="11">
+        <v>44154</v>
+      </c>
+      <c r="E294" s="11">
+        <v>44153</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H294" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A295" s="5">
+        <v>294</v>
+      </c>
+      <c r="B295" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D295" s="11">
+        <v>44154</v>
+      </c>
+      <c r="E295" s="11">
+        <v>44152</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G295" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H295" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A296" s="5">
+        <v>295</v>
+      </c>
+      <c r="B296" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D296" s="11">
+        <v>44154</v>
+      </c>
+      <c r="E296" s="11">
+        <v>44150</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H296" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A297" s="5">
+        <v>296</v>
+      </c>
+      <c r="B297" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D297" s="11">
+        <v>44154</v>
+      </c>
+      <c r="E297" s="11">
+        <v>44153</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H297" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A298" s="5">
+        <v>297</v>
+      </c>
+      <c r="B298" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D298" s="11">
+        <v>44154</v>
+      </c>
+      <c r="E298" s="11">
+        <v>44148</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H298" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A299" s="5">
+        <v>298</v>
+      </c>
+      <c r="B299" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D299" s="11">
+        <v>44154</v>
+      </c>
+      <c r="E299" s="11">
+        <v>44149</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G299" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H299" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="273">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -1560,13 +1560,6 @@
 （甲府市・笛吹市）</t>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
@@ -1587,6 +1580,237 @@
     </rPh>
     <rPh sb="12" eb="15">
       <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、南アルプス市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（山梨市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヤマナシシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（中央市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>チュウオウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市、甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、韮崎市、中央市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニラサキシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>チュウオウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（山梨市、笛吹市、甲州市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヤマナシシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウシュウシ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（峡南地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウナン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市、甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（韮崎市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニラサキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、北杜市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ホクトシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1993,13 +2217,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H299"/>
+  <dimension ref="A1:H328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H278" sqref="H278"/>
+      <selection pane="bottomRight" activeCell="H324" sqref="H324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9630,7 +9854,7 @@
         <v>31</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.4">
@@ -9656,10 +9880,10 @@
         <v>28</v>
       </c>
       <c r="H294" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -9681,11 +9905,11 @@
       <c r="G295" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H295" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H295" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -9707,11 +9931,11 @@
       <c r="G296" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H296" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H296" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -9733,11 +9957,11 @@
       <c r="G297" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H297" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H297" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -9759,11 +9983,11 @@
       <c r="G298" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H298" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H298" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -9785,8 +10009,762 @@
       <c r="G299" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H299" s="6" t="s">
+      <c r="H299" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A300" s="5">
+        <v>299</v>
+      </c>
+      <c r="B300" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D300" s="11">
+        <v>44155</v>
+      </c>
+      <c r="E300" s="11">
+        <v>44148</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H300" s="6" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A301" s="5">
+        <v>300</v>
+      </c>
+      <c r="B301" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D301" s="11">
+        <v>44155</v>
+      </c>
+      <c r="E301" s="11">
+        <v>44155</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G301" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H301" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A302" s="5">
+        <v>301</v>
+      </c>
+      <c r="B302" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D302" s="11">
+        <v>44155</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H302" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A303" s="5">
+        <v>302</v>
+      </c>
+      <c r="B303" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D303" s="11">
+        <v>44155</v>
+      </c>
+      <c r="E303" s="11">
+        <v>44149</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G303" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H303" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A304" s="5">
+        <v>303</v>
+      </c>
+      <c r="B304" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D304" s="11">
+        <v>44155</v>
+      </c>
+      <c r="E304" s="11">
+        <v>44151</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H304" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A305" s="5">
+        <v>304</v>
+      </c>
+      <c r="B305" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D305" s="11">
+        <v>44155</v>
+      </c>
+      <c r="E305" s="11">
+        <v>44153</v>
+      </c>
+      <c r="F305" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G305" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H305" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A306" s="5">
+        <v>305</v>
+      </c>
+      <c r="B306" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D306" s="11">
+        <v>44155</v>
+      </c>
+      <c r="E306" s="11">
+        <v>44155</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H306" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A307" s="5">
+        <v>306</v>
+      </c>
+      <c r="B307" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D307" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E307" s="11">
+        <v>44151</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G307" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H307" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A308" s="5">
+        <v>307</v>
+      </c>
+      <c r="B308" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D308" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E308" s="11">
+        <v>44154</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H308" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A309" s="5">
+        <v>308</v>
+      </c>
+      <c r="B309" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D309" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E309" s="11">
+        <v>44153</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G309" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H309" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A310" s="5">
+        <v>309</v>
+      </c>
+      <c r="B310" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D310" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E310" s="11">
+        <v>44153</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H310" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A311" s="5">
+        <v>310</v>
+      </c>
+      <c r="B311" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D311" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E311" s="11">
+        <v>44147</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H311" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A312" s="5">
+        <v>311</v>
+      </c>
+      <c r="B312" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D312" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E312" s="11">
+        <v>44151</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G312" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H312" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A313" s="5">
+        <v>312</v>
+      </c>
+      <c r="B313" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D313" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E313" s="11">
+        <v>44152</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G313" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H313" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A314" s="5">
+        <v>313</v>
+      </c>
+      <c r="B314" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D314" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E314" s="11">
+        <v>44154</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H314" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A315" s="5">
+        <v>314</v>
+      </c>
+      <c r="B315" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D315" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E315" s="11">
+        <v>44153</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H315" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A316" s="5">
+        <v>315</v>
+      </c>
+      <c r="B316" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D316" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E316" s="11">
+        <v>44155</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H316" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A317" s="5">
+        <v>316</v>
+      </c>
+      <c r="B317" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D317" s="11">
+        <v>44156</v>
+      </c>
+      <c r="E317" s="11">
+        <v>44152</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H317" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A318" s="5">
+        <v>317</v>
+      </c>
+      <c r="B318" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D318" s="11">
+        <v>44157</v>
+      </c>
+      <c r="E318" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H318" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A319" s="5">
+        <v>318</v>
+      </c>
+      <c r="B319" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D319" s="11">
+        <v>44157</v>
+      </c>
+      <c r="E319" s="11">
+        <v>44145</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H319" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A320" s="5">
+        <v>319</v>
+      </c>
+      <c r="B320" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D320" s="11">
+        <v>44157</v>
+      </c>
+      <c r="E320" s="11">
+        <v>44154</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H320" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A321" s="5">
+        <v>320</v>
+      </c>
+      <c r="B321" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D321" s="11">
+        <v>44157</v>
+      </c>
+      <c r="E321" s="11">
+        <v>44155</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H321" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A322" s="5">
+        <v>321</v>
+      </c>
+      <c r="B322" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D322" s="11">
+        <v>44158</v>
+      </c>
+      <c r="E322" s="11">
+        <v>44157</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H322" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A323" s="5">
+        <v>322</v>
+      </c>
+      <c r="B323" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D323" s="11">
+        <v>44158</v>
+      </c>
+      <c r="E323" s="11">
+        <v>44157</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H323" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A324" s="5">
+        <v>323</v>
+      </c>
+      <c r="B324" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D324" s="11">
+        <v>44158</v>
+      </c>
+      <c r="E324" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H324" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A325" s="5">
+        <v>324</v>
+      </c>
+      <c r="B325" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D325" s="11">
+        <v>44158</v>
+      </c>
+      <c r="E325" s="11">
+        <v>44155</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H325" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A326" s="5">
+        <v>325</v>
+      </c>
+      <c r="B326" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D326" s="11">
+        <v>44158</v>
+      </c>
+      <c r="E326" s="11">
+        <v>44154</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H326" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A327" s="5">
+        <v>326</v>
+      </c>
+      <c r="B327" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D327" s="11">
+        <v>44158</v>
+      </c>
+      <c r="E327" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H327" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A328" s="5">
+        <v>327</v>
+      </c>
+      <c r="B328" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D328" s="11">
+        <v>44158</v>
+      </c>
+      <c r="E328" s="11">
+        <v>44158</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H328" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="283">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -1591,13 +1591,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山梨県
 （甲府市、南アルプス市）</t>
     <rPh sb="0" eb="3">
@@ -1801,16 +1794,111 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県
-（甲府市、北杜市）</t>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（韮崎市）</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
     </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニラサキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（韮崎市）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（韮崎市）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、北杜市、甲斐市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
     <rPh sb="5" eb="8">
       <t>コウフシ</t>
     </rPh>
     <rPh sb="9" eb="12">
       <t>ホクトシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（韮崎市、南アルプス市、甲斐市、富士川町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニラサキシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>フジカワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（韮崎市、甲斐市）</t>
+    <rPh sb="8" eb="11">
+      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2217,13 +2305,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H328"/>
+  <dimension ref="A1:H335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B319" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H324" sqref="H324"/>
+      <selection pane="bottomRight" activeCell="H336" sqref="H336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9906,7 +9994,7 @@
         <v>31</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -9932,7 +10020,7 @@
         <v>28</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -9958,7 +10046,7 @@
         <v>31</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -9984,7 +10072,7 @@
         <v>31</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -10010,7 +10098,7 @@
         <v>28</v>
       </c>
       <c r="H299" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.4">
@@ -10088,7 +10176,7 @@
         <v>28</v>
       </c>
       <c r="H302" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -10114,7 +10202,7 @@
         <v>28</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -10140,7 +10228,7 @@
         <v>31</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -10166,7 +10254,7 @@
         <v>28</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -10192,7 +10280,7 @@
         <v>31</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.4">
@@ -10296,7 +10384,7 @@
         <v>31</v>
       </c>
       <c r="H310" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -10322,7 +10410,7 @@
         <v>31</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -10348,7 +10436,7 @@
         <v>28</v>
       </c>
       <c r="H312" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -10374,7 +10462,7 @@
         <v>28</v>
       </c>
       <c r="H313" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -10400,7 +10488,7 @@
         <v>28</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -10426,7 +10514,7 @@
         <v>28</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -10452,7 +10540,7 @@
         <v>31</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -10478,7 +10566,7 @@
         <v>28</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -10504,7 +10592,7 @@
         <v>31</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -10530,7 +10618,7 @@
         <v>28</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.4">
@@ -10556,10 +10644,10 @@
         <v>31</v>
       </c>
       <c r="H320" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -10582,7 +10670,7 @@
         <v>31</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -10608,7 +10696,7 @@
         <v>31</v>
       </c>
       <c r="H322" s="6" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -10634,7 +10722,7 @@
         <v>28</v>
       </c>
       <c r="H323" s="6" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -10660,7 +10748,7 @@
         <v>28</v>
       </c>
       <c r="H324" s="6" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.4">
@@ -10686,10 +10774,10 @@
         <v>31</v>
       </c>
       <c r="H325" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A326" s="5">
         <v>325</v>
       </c>
@@ -10711,8 +10799,8 @@
       <c r="G326" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H326" s="6" t="s">
-        <v>256</v>
+      <c r="H326" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.4">
@@ -10738,10 +10826,10 @@
         <v>28</v>
       </c>
       <c r="H327" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A328" s="5">
         <v>327</v>
       </c>
@@ -10763,8 +10851,190 @@
       <c r="G328" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H328" s="6" t="s">
-        <v>256</v>
+      <c r="H328" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A329" s="5">
+        <v>328</v>
+      </c>
+      <c r="B329" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D329" s="11">
+        <v>44159</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H329" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A330" s="5">
+        <v>329</v>
+      </c>
+      <c r="B330" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D330" s="11">
+        <v>44159</v>
+      </c>
+      <c r="E330" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H330" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A331" s="5">
+        <v>330</v>
+      </c>
+      <c r="B331" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D331" s="11">
+        <v>44159</v>
+      </c>
+      <c r="E331" s="11">
+        <v>44159</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G331" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H331" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A332" s="5">
+        <v>331</v>
+      </c>
+      <c r="B332" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D332" s="11">
+        <v>44159</v>
+      </c>
+      <c r="E332" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H332" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A333" s="5">
+        <v>332</v>
+      </c>
+      <c r="B333" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D333" s="11">
+        <v>44159</v>
+      </c>
+      <c r="E333" s="11">
+        <v>44155</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H333" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A334" s="5">
+        <v>333</v>
+      </c>
+      <c r="B334" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D334" s="11">
+        <v>44159</v>
+      </c>
+      <c r="E334" s="11">
+        <v>44157</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H334" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A335" s="5">
+        <v>334</v>
+      </c>
+      <c r="B335" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D335" s="11">
+        <v>44159</v>
+      </c>
+      <c r="E335" s="11">
+        <v>44143</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H335" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="285">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -1899,6 +1899,26 @@
     <t>山梨県（韮崎市、甲斐市）</t>
     <rPh sb="8" eb="11">
       <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（峡南地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウナン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2305,13 +2325,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H335"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H336" sqref="H336"/>
+      <selection pane="bottomRight" activeCell="E340" sqref="E340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10878,7 +10898,7 @@
         <v>274</v>
       </c>
       <c r="H329" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -10904,7 +10924,7 @@
         <v>275</v>
       </c>
       <c r="H330" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -10956,7 +10976,7 @@
         <v>31</v>
       </c>
       <c r="H332" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.4">
@@ -10982,7 +11002,7 @@
         <v>9</v>
       </c>
       <c r="H333" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.4">
@@ -11035,6 +11055,110 @@
       </c>
       <c r="H335" s="6" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A336" s="5">
+        <v>335</v>
+      </c>
+      <c r="B336" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D336" s="11">
+        <v>44160</v>
+      </c>
+      <c r="E336" s="11">
+        <v>44148</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H336" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A337" s="5">
+        <v>336</v>
+      </c>
+      <c r="B337" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D337" s="11">
+        <v>44160</v>
+      </c>
+      <c r="E337" s="11">
+        <v>44153</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H337" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A338" s="5">
+        <v>337</v>
+      </c>
+      <c r="B338" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D338" s="11">
+        <v>44160</v>
+      </c>
+      <c r="E338" s="11">
+        <v>44157</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H338" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A339" s="5">
+        <v>338</v>
+      </c>
+      <c r="B339" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D339" s="11">
+        <v>44160</v>
+      </c>
+      <c r="E339" s="11">
+        <v>44160</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H339" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="290">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -1919,6 +1919,65 @@
     <t>山梨県</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（中北地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（富士東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（甲府市、甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2325,13 +2384,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E340" sqref="E340"/>
+      <selection pane="bottomRight" activeCell="F342" sqref="F342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11028,7 +11087,7 @@
         <v>9</v>
       </c>
       <c r="H334" s="6" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.4">
@@ -11045,7 +11104,7 @@
         <v>44159</v>
       </c>
       <c r="E335" s="11">
-        <v>44143</v>
+        <v>44155</v>
       </c>
       <c r="F335" s="5" t="s">
         <v>271</v>
@@ -11054,7 +11113,7 @@
         <v>31</v>
       </c>
       <c r="H335" s="6" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.4">
@@ -11132,10 +11191,10 @@
         <v>31</v>
       </c>
       <c r="H338" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A339" s="5">
         <v>338</v>
       </c>
@@ -11157,8 +11216,60 @@
       <c r="G339" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H339" s="6" t="s">
-        <v>284</v>
+      <c r="H339" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A340" s="5">
+        <v>339</v>
+      </c>
+      <c r="B340" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D340" s="11">
+        <v>44162</v>
+      </c>
+      <c r="E340" s="11">
+        <v>44161</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H340" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A341" s="5">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D341" s="11">
+        <v>44162</v>
+      </c>
+      <c r="E341" s="11">
+        <v>44160</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G341" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H341" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="293">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -1916,6 +1916,72 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>山梨県（中北地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（富士東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（甲府市、甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>山梨県</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
@@ -1923,61 +1989,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県（中北地域）</t>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（山梨市）</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ホク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チイキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>山梨県（富士東部地域）</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>フジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウブ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チイキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>山梨県（甲府市、甲斐市）</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
     <rPh sb="4" eb="7">
-      <t>コウフシ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>カイシ</t>
+      <t>ヤマナシシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2384,13 +2408,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:H347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B328" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B337" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F342" sqref="F342"/>
+      <selection pane="bottomRight" activeCell="H331" sqref="H331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11165,7 +11189,7 @@
         <v>9</v>
       </c>
       <c r="H337" s="6" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.4">
@@ -11191,7 +11215,7 @@
         <v>31</v>
       </c>
       <c r="H338" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -11217,7 +11241,7 @@
         <v>31</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
@@ -11237,10 +11261,10 @@
         <v>44161</v>
       </c>
       <c r="F340" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G340" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="G340" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="H340" s="6" t="s">
         <v>253</v>
@@ -11266,10 +11290,166 @@
         <v>27</v>
       </c>
       <c r="G341" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H341" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H341" s="7" t="s">
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A342" s="5">
+        <v>341</v>
+      </c>
+      <c r="B342" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D342" s="11">
+        <v>44165</v>
+      </c>
+      <c r="E342" s="11">
+        <v>44162</v>
+      </c>
+      <c r="F342" s="5" t="s">
         <v>289</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H342" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A343" s="5">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D343" s="11">
+        <v>44165</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H343" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A344" s="5">
+        <v>343</v>
+      </c>
+      <c r="B344" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D344" s="11">
+        <v>44165</v>
+      </c>
+      <c r="E344" s="11">
+        <v>44162</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H344" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A345" s="5">
+        <v>344</v>
+      </c>
+      <c r="B345" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D345" s="11">
+        <v>44165</v>
+      </c>
+      <c r="E345" s="11">
+        <v>44162</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G345" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H345" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A346" s="5">
+        <v>345</v>
+      </c>
+      <c r="B346" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D346" s="11">
+        <v>44165</v>
+      </c>
+      <c r="E346" s="11">
+        <v>44164</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H346" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A347" s="5">
+        <v>346</v>
+      </c>
+      <c r="B347" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D347" s="11">
+        <v>44165</v>
+      </c>
+      <c r="E347" s="11">
+        <v>44162</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G347" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H347" s="6" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="296">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2002,6 +2002,54 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ヤマナシシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（中央市、笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>チュウオウシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士吉田市、都留市、富士河口湖町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ツルシ</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>フジカワグチコ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2013,7 +2061,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2066,6 +2114,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2087,7 +2144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2124,6 +2181,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2408,13 +2474,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H347"/>
+  <dimension ref="A1:H356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B337" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H331" sqref="H331"/>
+      <selection pane="bottomRight" activeCell="E359" sqref="E359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10231,28 +10297,28 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A301" s="5">
+      <c r="A301" s="13">
         <v>300</v>
       </c>
-      <c r="B301" s="5">
-        <v>190004</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D301" s="11">
+      <c r="B301" s="13">
+        <v>190004</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D301" s="14">
         <v>44155</v>
       </c>
-      <c r="E301" s="11">
+      <c r="E301" s="14">
         <v>44155</v>
       </c>
-      <c r="F301" s="5" t="s">
+      <c r="F301" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G301" s="5" t="s">
+      <c r="G301" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H301" s="6" t="s">
+      <c r="H301" s="15" t="s">
         <v>253</v>
       </c>
     </row>
@@ -10439,28 +10505,28 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A309" s="5">
+      <c r="A309" s="13">
         <v>308</v>
       </c>
-      <c r="B309" s="5">
-        <v>190004</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D309" s="11">
+      <c r="B309" s="13">
+        <v>190004</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D309" s="14">
         <v>44156</v>
       </c>
-      <c r="E309" s="11">
+      <c r="E309" s="14">
         <v>44153</v>
       </c>
-      <c r="F309" s="5" t="s">
+      <c r="F309" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G309" s="5" t="s">
+      <c r="G309" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H309" s="6" t="s">
+      <c r="H309" s="15" t="s">
         <v>253</v>
       </c>
     </row>
@@ -11322,7 +11388,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A343" s="5">
         <v>342</v>
       </c>
@@ -11344,8 +11410,8 @@
       <c r="G343" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H343" s="6" t="s">
-        <v>290</v>
+      <c r="H343" s="7" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.4">
@@ -11400,7 +11466,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A346" s="5">
         <v>345</v>
       </c>
@@ -11422,11 +11488,11 @@
       <c r="G346" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H346" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H346" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A347" s="5">
         <v>346</v>
       </c>
@@ -11448,8 +11514,221 @@
       <c r="G347" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H347" s="6" t="s">
-        <v>290</v>
+      <c r="H347" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A348" s="5">
+        <v>347</v>
+      </c>
+      <c r="B348" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D348" s="11">
+        <v>44166</v>
+      </c>
+      <c r="E348" s="11">
+        <v>44164</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H348" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A349" s="5">
+        <v>348</v>
+      </c>
+      <c r="B349" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D349" s="11">
+        <v>44166</v>
+      </c>
+      <c r="E349" s="11">
+        <v>44162</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G349" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H349" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A350" s="5">
+        <v>349</v>
+      </c>
+      <c r="B350" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D350" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H350" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A351" s="5">
+        <v>350</v>
+      </c>
+      <c r="B351" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D351" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G351" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H351" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A352" s="5">
+        <v>351</v>
+      </c>
+      <c r="B352" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D352" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H352" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A353" s="5">
+        <v>352</v>
+      </c>
+      <c r="B353" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D353" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G353" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H353" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A354" s="5">
+        <v>353</v>
+      </c>
+      <c r="B354" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D354" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H354" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A355" s="5">
+        <v>354</v>
+      </c>
+      <c r="B355" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D355" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H355" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A356" s="5">
+        <v>355</v>
+      </c>
+      <c r="B356" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D356" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H356" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="302">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2050,6 +2050,61 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>群馬県</t>
+    <rPh sb="0" eb="3">
+      <t>グンマケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2474,13 +2529,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H356"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B354" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E359" sqref="E359"/>
+      <selection pane="bottomRight" activeCell="E366" sqref="E366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11570,7 +11625,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A350" s="5">
         <v>349</v>
       </c>
@@ -11583,17 +11638,20 @@
       <c r="D350" s="11">
         <v>44166</v>
       </c>
+      <c r="E350" s="11">
+        <v>44158</v>
+      </c>
       <c r="F350" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G350" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H350" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H350" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A351" s="5">
         <v>350</v>
       </c>
@@ -11606,17 +11664,20 @@
       <c r="D351" s="11">
         <v>44166</v>
       </c>
+      <c r="E351" s="11">
+        <v>44162</v>
+      </c>
       <c r="F351" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G351" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H351" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H351" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A352" s="5">
         <v>351</v>
       </c>
@@ -11629,14 +11690,17 @@
       <c r="D352" s="11">
         <v>44166</v>
       </c>
+      <c r="E352" s="11">
+        <v>44164</v>
+      </c>
       <c r="F352" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G352" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H352" s="6" t="s">
-        <v>51</v>
+      <c r="H352" s="7" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -11652,6 +11716,9 @@
       <c r="D353" s="11">
         <v>44166</v>
       </c>
+      <c r="E353" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F353" s="5" t="s">
         <v>27</v>
       </c>
@@ -11659,10 +11726,10 @@
         <v>6</v>
       </c>
       <c r="H353" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A354" s="5">
         <v>353</v>
       </c>
@@ -11675,17 +11742,20 @@
       <c r="D354" s="11">
         <v>44166</v>
       </c>
+      <c r="E354" s="11">
+        <v>44161</v>
+      </c>
       <c r="F354" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G354" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H354" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H354" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A355" s="5">
         <v>354</v>
       </c>
@@ -11698,17 +11768,20 @@
       <c r="D355" s="11">
         <v>44166</v>
       </c>
+      <c r="E355" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F355" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G355" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H355" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H355" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A356" s="5">
         <v>355</v>
       </c>
@@ -11721,14 +11794,251 @@
       <c r="D356" s="11">
         <v>44166</v>
       </c>
+      <c r="E356" s="11">
+        <v>44161</v>
+      </c>
       <c r="F356" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G356" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H356" s="6" t="s">
-        <v>51</v>
+      <c r="H356" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A357" s="5">
+        <v>356</v>
+      </c>
+      <c r="B357" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D357" s="11">
+        <v>44167</v>
+      </c>
+      <c r="E357" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G357" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H357" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A358" s="5">
+        <v>357</v>
+      </c>
+      <c r="B358" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D358" s="11">
+        <v>44167</v>
+      </c>
+      <c r="E358" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H358" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A359" s="5">
+        <v>358</v>
+      </c>
+      <c r="B359" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" s="11">
+        <v>44167</v>
+      </c>
+      <c r="E359" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G359" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H359" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A360" s="5">
+        <v>359</v>
+      </c>
+      <c r="B360" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" s="11">
+        <v>44167</v>
+      </c>
+      <c r="E360" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H360" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A361" s="5">
+        <v>360</v>
+      </c>
+      <c r="B361" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D361" s="11">
+        <v>44167</v>
+      </c>
+      <c r="E361" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G361" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H361" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A362" s="5">
+        <v>361</v>
+      </c>
+      <c r="B362" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362" s="11">
+        <v>44167</v>
+      </c>
+      <c r="E362" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H362" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A363" s="5">
+        <v>362</v>
+      </c>
+      <c r="B363" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363" s="11">
+        <v>44167</v>
+      </c>
+      <c r="E363" s="11">
+        <v>44167</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G363" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H363" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A364" s="5">
+        <v>363</v>
+      </c>
+      <c r="B364" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D364" s="11">
+        <v>44167</v>
+      </c>
+      <c r="E364" s="11">
+        <v>44157</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H364" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A365" s="5">
+        <v>364</v>
+      </c>
+      <c r="B365" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365" s="11">
+        <v>44167</v>
+      </c>
+      <c r="E365" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G365" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H365" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="309">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2105,6 +2105,84 @@
     <t>群馬県</t>
     <rPh sb="0" eb="3">
       <t>グンマケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、峡東地域、富士東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウトウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2529,13 +2607,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H365"/>
+  <dimension ref="A1:H384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B354" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B376" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E366" sqref="E366"/>
+      <selection pane="bottomRight" activeCell="H385" sqref="H385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12041,6 +12119,500 @@
         <v>300</v>
       </c>
     </row>
+    <row r="366" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A366" s="5">
+        <v>365</v>
+      </c>
+      <c r="B366" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D366" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E366" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H366" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A367" s="5">
+        <v>366</v>
+      </c>
+      <c r="B367" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D367" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E367" s="11">
+        <v>44160</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H367" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A368" s="5">
+        <v>367</v>
+      </c>
+      <c r="B368" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D368" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E368" s="11">
+        <v>44167</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H368" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A369" s="5">
+        <v>368</v>
+      </c>
+      <c r="B369" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E369" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H369" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A370" s="5">
+        <v>369</v>
+      </c>
+      <c r="B370" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D370" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E370" s="11">
+        <v>44165</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H370" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A371" s="5">
+        <v>370</v>
+      </c>
+      <c r="B371" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D371" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H371" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A372" s="5">
+        <v>371</v>
+      </c>
+      <c r="B372" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H372" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A373" s="5">
+        <v>372</v>
+      </c>
+      <c r="B373" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E373" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H373" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A374" s="5">
+        <v>373</v>
+      </c>
+      <c r="B374" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D374" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E374" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H374" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A375" s="5">
+        <v>374</v>
+      </c>
+      <c r="B375" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D375" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H375" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A376" s="5">
+        <v>375</v>
+      </c>
+      <c r="B376" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D376" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E376" s="11">
+        <v>44167</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H376" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A377" s="5">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E377" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H377" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A378" s="5">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D378" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E378" s="11">
+        <v>44167</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H378" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A379" s="5">
+        <v>378</v>
+      </c>
+      <c r="B379" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D379" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E379" s="11">
+        <v>44167</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H379" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A380" s="5">
+        <v>379</v>
+      </c>
+      <c r="B380" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D380" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E380" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H380" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A381" s="5">
+        <v>380</v>
+      </c>
+      <c r="B381" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D381" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E381" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H381" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A382" s="5">
+        <v>381</v>
+      </c>
+      <c r="B382" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D382" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E382" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H382" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A383" s="5">
+        <v>382</v>
+      </c>
+      <c r="B383" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E383" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G383" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H383" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A384" s="5">
+        <v>383</v>
+      </c>
+      <c r="B384" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384" s="11">
+        <v>44168</v>
+      </c>
+      <c r="E384" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H384" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H293"/>
   <phoneticPr fontId="2"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="332">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -1847,13 +1847,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山梨県
 （甲府市、北杜市、甲斐市、昭和町）</t>
     <rPh sb="0" eb="3">
@@ -1982,13 +1975,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>70代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2173,18 +2159,300 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲州市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウシュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市、山梨市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヤマナシシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域、東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、昭和町、中央市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>チュウオウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市、甲府市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域、東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>トウブチイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市、富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60台</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2607,13 +2875,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H384"/>
+  <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B376" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B416" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H385" sqref="H385"/>
+      <selection pane="bottomRight" activeCell="H418" sqref="H418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10972,7 +11240,7 @@
         <v>31</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -11102,7 +11370,7 @@
         <v>28</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.4">
@@ -11154,7 +11422,7 @@
         <v>28</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -11180,7 +11448,7 @@
         <v>274</v>
       </c>
       <c r="H329" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -11206,7 +11474,7 @@
         <v>275</v>
       </c>
       <c r="H330" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -11232,7 +11500,7 @@
         <v>9</v>
       </c>
       <c r="H331" s="6" t="s">
-        <v>279</v>
+        <v>112</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -11388,7 +11656,7 @@
         <v>9</v>
       </c>
       <c r="H337" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.4">
@@ -11414,7 +11682,7 @@
         <v>31</v>
       </c>
       <c r="H338" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -11440,7 +11708,7 @@
         <v>31</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
@@ -11460,10 +11728,10 @@
         <v>44161</v>
       </c>
       <c r="F340" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G340" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="G340" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="H340" s="6" t="s">
         <v>253</v>
@@ -11489,10 +11757,10 @@
         <v>27</v>
       </c>
       <c r="G341" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H341" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="H341" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.4">
@@ -11512,7 +11780,7 @@
         <v>44162</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G342" s="5" t="s">
         <v>6</v>
@@ -11544,10 +11812,10 @@
         <v>6</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A344" s="5">
         <v>343</v>
       </c>
@@ -11564,16 +11832,16 @@
         <v>44162</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G344" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H344" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H344" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A345" s="5">
         <v>344</v>
       </c>
@@ -11595,8 +11863,8 @@
       <c r="G345" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H345" s="6" t="s">
-        <v>290</v>
+      <c r="H345" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -11622,7 +11890,7 @@
         <v>28</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -11648,7 +11916,7 @@
         <v>28</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.4">
@@ -11726,7 +11994,7 @@
         <v>28</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -11752,7 +12020,7 @@
         <v>28</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -11778,7 +12046,7 @@
         <v>28</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -11804,7 +12072,7 @@
         <v>6</v>
       </c>
       <c r="H353" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -11830,7 +12098,7 @@
         <v>6</v>
       </c>
       <c r="H354" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -11856,7 +12124,7 @@
         <v>6</v>
       </c>
       <c r="H355" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -11882,7 +12150,7 @@
         <v>6</v>
       </c>
       <c r="H356" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.4">
@@ -11908,7 +12176,7 @@
         <v>31</v>
       </c>
       <c r="H357" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.4">
@@ -11934,7 +12202,7 @@
         <v>31</v>
       </c>
       <c r="H358" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.4">
@@ -11954,16 +12222,16 @@
         <v>26</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G359" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H359" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A360" s="5">
         <v>359</v>
       </c>
@@ -11985,8 +12253,8 @@
       <c r="G360" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H360" s="6" t="s">
-        <v>300</v>
+      <c r="H360" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.4">
@@ -12006,16 +12274,16 @@
         <v>26</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G361" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H361" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A362" s="5">
         <v>361</v>
       </c>
@@ -12037,8 +12305,8 @@
       <c r="G362" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H362" s="6" t="s">
-        <v>300</v>
+      <c r="H362" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.4">
@@ -12064,10 +12332,10 @@
         <v>31</v>
       </c>
       <c r="H363" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A364" s="5">
         <v>363</v>
       </c>
@@ -12089,11 +12357,11 @@
       <c r="G364" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H364" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H364" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A365" s="5">
         <v>364</v>
       </c>
@@ -12115,8 +12383,8 @@
       <c r="G365" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H365" s="6" t="s">
-        <v>300</v>
+      <c r="H365" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -12142,7 +12410,7 @@
         <v>31</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -12168,7 +12436,7 @@
         <v>31</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -12194,7 +12462,7 @@
         <v>31</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -12220,7 +12488,7 @@
         <v>28</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -12246,10 +12514,10 @@
         <v>28</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A371" s="5">
         <v>370</v>
       </c>
@@ -12271,11 +12539,11 @@
       <c r="G371" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H371" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H371" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A372" s="5">
         <v>371</v>
       </c>
@@ -12292,16 +12560,16 @@
         <v>26</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H372" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H372" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A373" s="5">
         <v>372</v>
       </c>
@@ -12323,11 +12591,11 @@
       <c r="G373" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H373" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H373" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A374" s="5">
         <v>373</v>
       </c>
@@ -12349,11 +12617,11 @@
       <c r="G374" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H374" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H374" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A375" s="5">
         <v>374</v>
       </c>
@@ -12375,11 +12643,11 @@
       <c r="G375" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H375" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H375" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A376" s="5">
         <v>375</v>
       </c>
@@ -12401,8 +12669,8 @@
       <c r="G376" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H376" s="6" t="s">
-        <v>304</v>
+      <c r="H376" s="7" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -12428,10 +12696,10 @@
         <v>31</v>
       </c>
       <c r="H377" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A378" s="5">
         <v>377</v>
       </c>
@@ -12453,8 +12721,8 @@
       <c r="G378" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H378" s="6" t="s">
-        <v>304</v>
+      <c r="H378" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.4">
@@ -12474,16 +12742,16 @@
         <v>44167</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H379" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A380" s="5">
         <v>379</v>
       </c>
@@ -12505,11 +12773,11 @@
       <c r="G380" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H380" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H380" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A381" s="5">
         <v>380</v>
       </c>
@@ -12531,8 +12799,8 @@
       <c r="G381" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H381" s="6" t="s">
-        <v>304</v>
+      <c r="H381" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.4">
@@ -12558,10 +12826,10 @@
         <v>31</v>
       </c>
       <c r="H382" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -12578,16 +12846,16 @@
         <v>44168</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H383" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H383" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -12604,13 +12872,1052 @@
         <v>44168</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H384" s="6" t="s">
+      <c r="H384" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A385" s="5">
+        <v>384</v>
+      </c>
+      <c r="B385" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E385" s="11">
+        <v>44164</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G385" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H385" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A386" s="5">
+        <v>385</v>
+      </c>
+      <c r="B386" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D386" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E386" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G386" s="5" t="s">
         <v>307</v>
+      </c>
+      <c r="H386" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A387" s="5">
+        <v>386</v>
+      </c>
+      <c r="B387" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D387" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E387" s="11">
+        <v>44167</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G387" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H387" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A388" s="5">
+        <v>387</v>
+      </c>
+      <c r="B388" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E388" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H388" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A389" s="5">
+        <v>388</v>
+      </c>
+      <c r="B389" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E389" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G389" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H389" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A390" s="5">
+        <v>389</v>
+      </c>
+      <c r="B390" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E390" s="11">
+        <v>44163</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H390" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A391" s="5">
+        <v>390</v>
+      </c>
+      <c r="B391" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D391" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E391" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G391" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H391" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A392" s="5">
+        <v>391</v>
+      </c>
+      <c r="B392" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D392" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E392" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H392" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A393" s="5">
+        <v>392</v>
+      </c>
+      <c r="B393" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E393" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G393" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H393" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A394" s="5">
+        <v>393</v>
+      </c>
+      <c r="B394" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D394" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E394" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H394" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A395" s="5">
+        <v>394</v>
+      </c>
+      <c r="B395" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D395" s="11">
+        <v>44169</v>
+      </c>
+      <c r="E395" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G395" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H395" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A396" s="5">
+        <v>395</v>
+      </c>
+      <c r="B396" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D396" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E396" s="11">
+        <v>44167</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H396" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A397" s="5">
+        <v>396</v>
+      </c>
+      <c r="B397" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D397" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E397" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G397" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H397" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A398" s="5">
+        <v>397</v>
+      </c>
+      <c r="B398" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D398" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E398" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H398" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A399" s="5">
+        <v>398</v>
+      </c>
+      <c r="B399" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D399" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E399" s="11">
+        <v>44170</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G399" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H399" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A400" s="5">
+        <v>399</v>
+      </c>
+      <c r="B400" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D400" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E400" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H400" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A401" s="5">
+        <v>400</v>
+      </c>
+      <c r="B401" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D401" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E401" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G401" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H401" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A402" s="5">
+        <v>401</v>
+      </c>
+      <c r="B402" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D402" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E402" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G402" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H402" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A403" s="5">
+        <v>402</v>
+      </c>
+      <c r="B403" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D403" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E403" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G403" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H403" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A404" s="5">
+        <v>403</v>
+      </c>
+      <c r="B404" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E404" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H404" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A405" s="5">
+        <v>404</v>
+      </c>
+      <c r="B405" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D405" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E405" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G405" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H405" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A406" s="5">
+        <v>405</v>
+      </c>
+      <c r="B406" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D406" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E406" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G406" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H406" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A407" s="5">
+        <v>406</v>
+      </c>
+      <c r="B407" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D407" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E407" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G407" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H407" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A408" s="5">
+        <v>407</v>
+      </c>
+      <c r="B408" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D408" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E408" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G408" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H408" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A409" s="5">
+        <v>408</v>
+      </c>
+      <c r="B409" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E409" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G409" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H409" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A410" s="5">
+        <v>409</v>
+      </c>
+      <c r="B410" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E410" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G410" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H410" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A411" s="5">
+        <v>410</v>
+      </c>
+      <c r="B411" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D411" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E411" s="11">
+        <v>44168</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G411" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H411" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A412" s="5">
+        <v>411</v>
+      </c>
+      <c r="B412" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D412" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E412" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G412" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H412" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A413" s="5">
+        <v>412</v>
+      </c>
+      <c r="B413" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D413" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E413" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G413" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H413" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A414" s="5">
+        <v>413</v>
+      </c>
+      <c r="B414" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E414" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H414" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A415" s="5">
+        <v>414</v>
+      </c>
+      <c r="B415" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D415" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E415" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G415" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A416" s="5">
+        <v>415</v>
+      </c>
+      <c r="B416" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416" s="11">
+        <v>44170</v>
+      </c>
+      <c r="E416" s="11">
+        <v>44167</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G416" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H416" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A417" s="5">
+        <v>416</v>
+      </c>
+      <c r="B417" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D417" s="11">
+        <v>44171</v>
+      </c>
+      <c r="E417" s="11">
+        <v>44170</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G417" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H417" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A418" s="5">
+        <v>417</v>
+      </c>
+      <c r="B418" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D418" s="11">
+        <v>44171</v>
+      </c>
+      <c r="E418" s="11">
+        <v>44163</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A419" s="5">
+        <v>418</v>
+      </c>
+      <c r="B419" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419" s="11">
+        <v>44171</v>
+      </c>
+      <c r="E419" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G419" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A420" s="5">
+        <v>419</v>
+      </c>
+      <c r="B420" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D420" s="11">
+        <v>44171</v>
+      </c>
+      <c r="E420" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A421" s="5">
+        <v>420</v>
+      </c>
+      <c r="B421" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D421" s="11">
+        <v>44171</v>
+      </c>
+      <c r="E421" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G421" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A422" s="5">
+        <v>421</v>
+      </c>
+      <c r="B422" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D422" s="11">
+        <v>44171</v>
+      </c>
+      <c r="E422" s="11">
+        <v>44170</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A423" s="5">
+        <v>422</v>
+      </c>
+      <c r="B423" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423" s="11">
+        <v>44171</v>
+      </c>
+      <c r="E423" s="11">
+        <v>44170</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G423" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A424" s="5">
+        <v>423</v>
+      </c>
+      <c r="B424" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D424" s="11">
+        <v>44171</v>
+      </c>
+      <c r="E424" s="11">
+        <v>44163</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A425" s="5">
+        <v>424</v>
+      </c>
+      <c r="B425" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D425" s="11">
+        <v>44171</v>
+      </c>
+      <c r="E425" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G425" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="337">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2453,6 +2453,82 @@
       <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、中央市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市、富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2875,13 +2951,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H425"/>
+  <dimension ref="A1:H432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B416" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B418" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H418" sqref="H418"/>
+      <selection pane="bottomRight" activeCell="F429" sqref="F429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13661,7 +13737,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A415" s="5">
         <v>414</v>
       </c>
@@ -13682,6 +13758,9 @@
       </c>
       <c r="G415" s="5" t="s">
         <v>309</v>
+      </c>
+      <c r="H415" s="7" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -13736,7 +13815,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -13758,8 +13837,11 @@
       <c r="G418" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H418" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A419" s="5">
         <v>418</v>
       </c>
@@ -13781,8 +13863,11 @@
       <c r="G419" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H419" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A420" s="5">
         <v>419</v>
       </c>
@@ -13804,8 +13889,11 @@
       <c r="G420" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H420" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A421" s="5">
         <v>420</v>
       </c>
@@ -13827,8 +13915,11 @@
       <c r="G421" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H421" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A422" s="5">
         <v>421</v>
       </c>
@@ -13850,8 +13941,11 @@
       <c r="G422" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H422" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A423" s="5">
         <v>422</v>
       </c>
@@ -13872,6 +13966,9 @@
       </c>
       <c r="G423" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H423" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.4">
@@ -13896,8 +13993,11 @@
       <c r="G424" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H424" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A425" s="5">
         <v>424</v>
       </c>
@@ -13917,6 +14017,149 @@
         <v>25</v>
       </c>
       <c r="G425" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H425" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A426" s="5">
+        <v>425</v>
+      </c>
+      <c r="B426" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D426" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G426" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A427" s="5">
+        <v>426</v>
+      </c>
+      <c r="B427" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D427" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G427" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A428" s="5">
+        <v>427</v>
+      </c>
+      <c r="B428" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A429" s="5">
+        <v>428</v>
+      </c>
+      <c r="B429" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D429" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G429" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A430" s="5">
+        <v>429</v>
+      </c>
+      <c r="B430" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A431" s="5">
+        <v>430</v>
+      </c>
+      <c r="B431" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G431" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A432" s="5">
+        <v>431</v>
+      </c>
+      <c r="B432" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G432" s="5" t="s">
         <v>31</v>
       </c>
     </row>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="346">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2527,6 +2527,105 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1歳未満</t>
+    <rPh sb="1" eb="4">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（山梨市、笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヤマナシシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北海道</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(富士北麓地域、東部地域)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市外</t>
+    <rPh sb="0" eb="2">
+      <t>コウフ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2951,13 +3050,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H432"/>
+  <dimension ref="A1:H440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B418" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B430" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F429" sqref="F429"/>
+      <selection pane="bottomRight" activeCell="H441" sqref="H441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14023,7 +14122,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A426" s="5">
         <v>425</v>
       </c>
@@ -14036,14 +14135,20 @@
       <c r="D426" s="11">
         <v>44172</v>
       </c>
+      <c r="E426" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F426" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G426" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H426" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A427" s="5">
         <v>426</v>
       </c>
@@ -14056,14 +14161,20 @@
       <c r="D427" s="11">
         <v>44172</v>
       </c>
+      <c r="E427" s="11">
+        <v>44172</v>
+      </c>
       <c r="F427" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G427" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H427" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A428" s="5">
         <v>427</v>
       </c>
@@ -14076,11 +14187,17 @@
       <c r="D428" s="11">
         <v>44172</v>
       </c>
+      <c r="E428" s="11">
+        <v>44167</v>
+      </c>
       <c r="F428" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G428" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H428" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.4">
@@ -14096,11 +14213,17 @@
       <c r="D429" s="11">
         <v>44172</v>
       </c>
+      <c r="E429" s="11">
+        <v>44168</v>
+      </c>
       <c r="F429" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G429" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H429" s="6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.4">
@@ -14116,11 +14239,17 @@
       <c r="D430" s="11">
         <v>44172</v>
       </c>
+      <c r="E430" s="11">
+        <v>44169</v>
+      </c>
       <c r="F430" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G430" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H430" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.4">
@@ -14136,11 +14265,17 @@
       <c r="D431" s="11">
         <v>44172</v>
       </c>
+      <c r="E431" s="11">
+        <v>44166</v>
+      </c>
       <c r="F431" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G431" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="H431" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.4">
@@ -14156,11 +14291,210 @@
       <c r="D432" s="11">
         <v>44172</v>
       </c>
+      <c r="E432" s="11">
+        <v>44170</v>
+      </c>
       <c r="F432" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G432" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H432" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A433" s="5">
+        <v>432</v>
+      </c>
+      <c r="B433" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D433" s="11">
+        <v>44173</v>
+      </c>
+      <c r="E433" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G433" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H433" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A434" s="5">
+        <v>433</v>
+      </c>
+      <c r="B434" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D434" s="11">
+        <v>44173</v>
+      </c>
+      <c r="E434" s="11">
+        <v>44169</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H434" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A435" s="5">
+        <v>434</v>
+      </c>
+      <c r="B435" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D435" s="11">
+        <v>44174</v>
+      </c>
+      <c r="E435" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G435" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A436" s="5">
+        <v>435</v>
+      </c>
+      <c r="B436" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436" s="11">
+        <v>44174</v>
+      </c>
+      <c r="E436" s="11">
+        <v>44170</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H436" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A437" s="5">
+        <v>436</v>
+      </c>
+      <c r="B437" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D437" s="11">
+        <v>44174</v>
+      </c>
+      <c r="E437" s="11">
+        <v>44171</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G437" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H437" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A438" s="5">
+        <v>437</v>
+      </c>
+      <c r="B438" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D438" s="11">
+        <v>44174</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A439" s="5">
+        <v>438</v>
+      </c>
+      <c r="B439" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" s="11">
+        <v>44174</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A440" s="5">
+        <v>439</v>
+      </c>
+      <c r="B440" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D440" s="11">
+        <v>44174</v>
+      </c>
+      <c r="E440" s="11">
+        <v>44174</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H440" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="354">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2626,6 +2626,68 @@
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（甲州市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウシュウシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3050,13 +3112,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H440"/>
+  <dimension ref="A1:H443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B430" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B436" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H441" sqref="H441"/>
+      <selection pane="bottomRight" activeCell="F445" sqref="F445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14444,11 +14506,17 @@
       <c r="D438" s="11">
         <v>44174</v>
       </c>
+      <c r="E438" s="11">
+        <v>44170</v>
+      </c>
       <c r="F438" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G438" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H438" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.4">
@@ -14464,11 +14532,17 @@
       <c r="D439" s="11">
         <v>44174</v>
       </c>
+      <c r="E439" s="11">
+        <v>44169</v>
+      </c>
       <c r="F439" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G439" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="H439" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.4">
@@ -14495,6 +14569,72 @@
       </c>
       <c r="H440" s="6" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A441" s="5">
+        <v>440</v>
+      </c>
+      <c r="B441" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" s="11">
+        <v>44175</v>
+      </c>
+      <c r="E441" s="11">
+        <v>44170</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G441" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H441" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A442" s="5">
+        <v>441</v>
+      </c>
+      <c r="B442" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D442" s="11">
+        <v>44175</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A443" s="5">
+        <v>442</v>
+      </c>
+      <c r="B443" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D443" s="11">
+        <v>44175</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G443" s="5" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="359">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2688,6 +2688,79 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>コウシュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（中北地域、富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="2">
+      <t>コウフ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県（甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（峡東地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2699,7 +2772,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2761,6 +2834,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2779,10 +2860,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2829,8 +2911,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3112,13 +3198,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H443"/>
+  <dimension ref="A1:J454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B436" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B441" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F445" sqref="F445"/>
+      <selection pane="bottomRight" activeCell="I448" sqref="I448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12978,15 +13064,6 @@
       <c r="E379" s="11">
         <v>44167</v>
       </c>
-      <c r="F379" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G379" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H379" s="6" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="380" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A380" s="5">
@@ -14418,7 +14495,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A435" s="5">
         <v>434</v>
       </c>
@@ -14439,6 +14516,9 @@
       </c>
       <c r="G435" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H435" s="7" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.4">
@@ -14597,7 +14677,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A442" s="5">
         <v>441</v>
       </c>
@@ -14610,14 +14690,20 @@
       <c r="D442" s="11">
         <v>44175</v>
       </c>
+      <c r="E442" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F442" s="5" t="s">
         <v>347</v>
       </c>
       <c r="G442" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H442" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A443" s="5">
         <v>442</v>
       </c>
@@ -14630,17 +14716,310 @@
       <c r="D443" s="11">
         <v>44175</v>
       </c>
+      <c r="E443" s="11">
+        <v>44173</v>
+      </c>
       <c r="F443" s="5" t="s">
         <v>348</v>
       </c>
       <c r="G443" s="5" t="s">
         <v>350</v>
+      </c>
+      <c r="H443" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A444" s="5">
+        <v>443</v>
+      </c>
+      <c r="B444" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" s="11">
+        <v>44176</v>
+      </c>
+      <c r="E444" s="11">
+        <v>44173</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G444" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H444" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A445" s="5">
+        <v>444</v>
+      </c>
+      <c r="B445" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" s="11">
+        <v>44176</v>
+      </c>
+      <c r="E445" s="11">
+        <v>44174</v>
+      </c>
+      <c r="F445" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G445" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H445" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A446" s="5">
+        <v>445</v>
+      </c>
+      <c r="B446" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446" s="11">
+        <v>44176</v>
+      </c>
+      <c r="E446" s="11">
+        <v>44175</v>
+      </c>
+      <c r="F446" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G446" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H446" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A447" s="5">
+        <v>446</v>
+      </c>
+      <c r="B447" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" s="11">
+        <v>44176</v>
+      </c>
+      <c r="E447" s="11">
+        <v>44175</v>
+      </c>
+      <c r="F447" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G447" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H447" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A448" s="5">
+        <v>447</v>
+      </c>
+      <c r="B448" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" s="11">
+        <v>44176</v>
+      </c>
+      <c r="E448" s="11">
+        <v>44173</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G448" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H448" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A449" s="5">
+        <v>448</v>
+      </c>
+      <c r="B449" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D449" s="11">
+        <v>44176</v>
+      </c>
+      <c r="E449" s="11">
+        <v>44173</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G449" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H449" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A450" s="5">
+        <v>449</v>
+      </c>
+      <c r="B450" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D450" s="11">
+        <v>44177</v>
+      </c>
+      <c r="E450" s="11">
+        <v>44173</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G450" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H450" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="J450" s="16"/>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A451" s="5">
+        <v>450</v>
+      </c>
+      <c r="B451" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D451" s="11">
+        <v>44177</v>
+      </c>
+      <c r="E451" s="11">
+        <v>44176</v>
+      </c>
+      <c r="F451" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G451" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H451" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A452" s="5">
+        <v>451</v>
+      </c>
+      <c r="B452" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D452" s="11">
+        <v>44177</v>
+      </c>
+      <c r="E452" s="11">
+        <v>44175</v>
+      </c>
+      <c r="F452" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G452" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H452" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A453" s="5">
+        <v>452</v>
+      </c>
+      <c r="B453" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D453" s="11">
+        <v>44177</v>
+      </c>
+      <c r="E453" s="11">
+        <v>44175</v>
+      </c>
+      <c r="F453" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G453" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H453" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A454" s="5">
+        <v>453</v>
+      </c>
+      <c r="B454" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D454" s="11">
+        <v>44177</v>
+      </c>
+      <c r="E454" s="11">
+        <v>44166</v>
+      </c>
+      <c r="F454" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G454" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H454" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H293"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="364">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2761,6 +2761,74 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(富士吉田市、都留市、富士河口湖町)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ツルシ</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>フジカワグチコ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲府市、南アルプス市、甲斐市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲府市、笛吹市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フエフキシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3198,13 +3266,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J454"/>
+  <dimension ref="A1:J462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B441" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B456" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I448" sqref="I448"/>
+      <selection pane="bottomRight" activeCell="H463" sqref="H463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15016,6 +15084,202 @@
         <v>253</v>
       </c>
     </row>
+    <row r="455" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A455" s="5">
+        <v>454</v>
+      </c>
+      <c r="B455" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D455" s="11">
+        <v>44179</v>
+      </c>
+      <c r="E455" s="11">
+        <v>44178</v>
+      </c>
+      <c r="F455" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G455" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H455" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A456" s="5">
+        <v>455</v>
+      </c>
+      <c r="B456" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D456" s="11">
+        <v>44179</v>
+      </c>
+      <c r="E456" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G456" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H456" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A457" s="5">
+        <v>456</v>
+      </c>
+      <c r="B457" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D457" s="11">
+        <v>44179</v>
+      </c>
+      <c r="E457" s="11">
+        <v>44176</v>
+      </c>
+      <c r="F457" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G457" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H457" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A458" s="5">
+        <v>457</v>
+      </c>
+      <c r="B458" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D458" s="11">
+        <v>44180</v>
+      </c>
+      <c r="E458" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F458" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G458" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H458" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A459" s="5">
+        <v>458</v>
+      </c>
+      <c r="B459" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D459" s="11">
+        <v>44180</v>
+      </c>
+      <c r="F459" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G459" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H459" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A460" s="5">
+        <v>459</v>
+      </c>
+      <c r="B460" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D460" s="11">
+        <v>44180</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G460" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H460" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A461" s="5">
+        <v>460</v>
+      </c>
+      <c r="B461" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D461" s="11">
+        <v>44180</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G461" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H461" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A462" s="5">
+        <v>461</v>
+      </c>
+      <c r="B462" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D462" s="11">
+        <v>44180</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G462" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H462" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H293"/>
   <phoneticPr fontId="2"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="370">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2792,13 +2792,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山梨県
 (甲府市、南アルプス市、甲斐市)</t>
     <rPh sb="0" eb="3">
@@ -2829,6 +2822,72 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(東部地域)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲府市、東部地域)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チイキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3266,13 +3325,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J462"/>
+  <dimension ref="A1:J466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B456" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H463" sqref="H463"/>
+      <selection pane="bottomRight" activeCell="E465" sqref="E465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15133,7 +15192,7 @@
         <v>6</v>
       </c>
       <c r="H456" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="457" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
@@ -15159,7 +15218,7 @@
         <v>28</v>
       </c>
       <c r="H457" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.4">
@@ -15188,7 +15247,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A459" s="5">
         <v>458</v>
       </c>
@@ -15201,17 +15260,20 @@
       <c r="D459" s="11">
         <v>44180</v>
       </c>
+      <c r="E459" s="11">
+        <v>44176</v>
+      </c>
       <c r="F459" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G459" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H459" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H459" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A460" s="5">
         <v>459</v>
       </c>
@@ -15224,17 +15286,20 @@
       <c r="D460" s="11">
         <v>44180</v>
       </c>
+      <c r="E460" s="11">
+        <v>44179</v>
+      </c>
       <c r="F460" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G460" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H460" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H460" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A461" s="5">
         <v>460</v>
       </c>
@@ -15247,17 +15312,20 @@
       <c r="D461" s="11">
         <v>44180</v>
       </c>
+      <c r="E461" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F461" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G461" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H461" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H461" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A462" s="5">
         <v>461</v>
       </c>
@@ -15270,14 +15338,121 @@
       <c r="D462" s="11">
         <v>44180</v>
       </c>
+      <c r="E462" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F462" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G462" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H462" s="6" t="s">
-        <v>361</v>
+      <c r="H462" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A463" s="5">
+        <v>462</v>
+      </c>
+      <c r="B463" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D463" s="11">
+        <v>44181</v>
+      </c>
+      <c r="E463" s="11">
+        <v>44179</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G463" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H463" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A464" s="5">
+        <v>463</v>
+      </c>
+      <c r="B464" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D464" s="11">
+        <v>44181</v>
+      </c>
+      <c r="E464" s="11">
+        <v>44178</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G464" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H464" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A465" s="5">
+        <v>464</v>
+      </c>
+      <c r="B465" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D465" s="11">
+        <v>44181</v>
+      </c>
+      <c r="E465" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G465" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H465" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A466" s="5">
+        <v>465</v>
+      </c>
+      <c r="B466" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D466" s="11">
+        <v>44191</v>
+      </c>
+      <c r="E466" s="11">
+        <v>44180</v>
+      </c>
+      <c r="F466" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G466" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H466" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="373">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2833,13 +2833,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2850,13 +2843,6 @@
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2887,6 +2873,64 @@
       <t>トウブ</t>
     </rPh>
     <rPh sb="11" eb="13">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲府市、甲斐市、南アルプス市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(富士北麓地域)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>チイキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3325,13 +3369,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J466"/>
+  <dimension ref="A1:J470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B456" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B462" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E465" sqref="E465"/>
+      <selection pane="bottomRight" activeCell="E470" sqref="E470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15270,7 +15314,7 @@
         <v>31</v>
       </c>
       <c r="H459" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="460" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
@@ -15296,7 +15340,7 @@
         <v>28</v>
       </c>
       <c r="H460" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="461" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
@@ -15322,7 +15366,7 @@
         <v>28</v>
       </c>
       <c r="H461" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="462" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
@@ -15348,7 +15392,7 @@
         <v>31</v>
       </c>
       <c r="H462" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.4">
@@ -15377,7 +15421,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A464" s="5">
         <v>463</v>
       </c>
@@ -15399,8 +15443,8 @@
       <c r="G464" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H464" s="6" t="s">
-        <v>364</v>
+      <c r="H464" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.4">
@@ -15420,16 +15464,16 @@
         <v>26</v>
       </c>
       <c r="F465" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G465" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H465" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A466" s="5">
         <v>465</v>
       </c>
@@ -15440,7 +15484,7 @@
         <v>51</v>
       </c>
       <c r="D466" s="11">
-        <v>44191</v>
+        <v>44181</v>
       </c>
       <c r="E466" s="11">
         <v>44180</v>
@@ -15451,8 +15495,112 @@
       <c r="G466" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H466" s="6" t="s">
-        <v>367</v>
+      <c r="H466" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A467" s="5">
+        <v>466</v>
+      </c>
+      <c r="B467" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D467" s="11">
+        <v>44182</v>
+      </c>
+      <c r="E467" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G467" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H467" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A468" s="5">
+        <v>467</v>
+      </c>
+      <c r="B468" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D468" s="11">
+        <v>44182</v>
+      </c>
+      <c r="E468" s="11">
+        <v>44181</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G468" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H468" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A469" s="5">
+        <v>468</v>
+      </c>
+      <c r="B469" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D469" s="11">
+        <v>44182</v>
+      </c>
+      <c r="E469" s="11">
+        <v>44181</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G469" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H469" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A470" s="5">
+        <v>469</v>
+      </c>
+      <c r="B470" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D470" s="11">
+        <v>44182</v>
+      </c>
+      <c r="E470" s="11">
+        <v>44175</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G470" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H470" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="386">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -2892,13 +2892,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山梨県
 (甲府市、甲斐市、南アルプス市)</t>
     <rPh sb="0" eb="3">
@@ -2932,6 +2925,126 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士・東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(富士北麓地域)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(東部地域)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3369,13 +3482,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J470"/>
+  <dimension ref="A1:J491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B462" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E470" sqref="E470"/>
+      <selection pane="bottomRight" activeCell="E487" sqref="E487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15444,7 +15557,7 @@
         <v>31</v>
       </c>
       <c r="H464" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.4">
@@ -15496,10 +15609,10 @@
         <v>31</v>
       </c>
       <c r="H466" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A467" s="5">
         <v>466</v>
       </c>
@@ -15521,11 +15634,11 @@
       <c r="G467" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H467" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H467" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A468" s="5">
         <v>467</v>
       </c>
@@ -15547,11 +15660,11 @@
       <c r="G468" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H468" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H468" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A469" s="5">
         <v>468</v>
       </c>
@@ -15573,8 +15686,8 @@
       <c r="G469" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H469" s="6" t="s">
-        <v>370</v>
+      <c r="H469" s="7" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.4">
@@ -15601,6 +15714,540 @@
       </c>
       <c r="H470" s="6" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A471" s="5">
+        <v>470</v>
+      </c>
+      <c r="B471" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D471" s="11">
+        <v>44183</v>
+      </c>
+      <c r="E471" s="11">
+        <v>44178</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G471" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H471" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A472" s="5">
+        <v>471</v>
+      </c>
+      <c r="B472" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D472" s="11">
+        <v>44183</v>
+      </c>
+      <c r="E472" s="11">
+        <v>44178</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H472" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A473" s="5">
+        <v>472</v>
+      </c>
+      <c r="B473" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D473" s="11">
+        <v>44183</v>
+      </c>
+      <c r="E473" s="11">
+        <v>44182</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G473" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H473" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A474" s="5">
+        <v>473</v>
+      </c>
+      <c r="B474" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D474" s="11">
+        <v>44183</v>
+      </c>
+      <c r="E474" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G474" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H474" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A475" s="5">
+        <v>474</v>
+      </c>
+      <c r="B475" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D475" s="11">
+        <v>44183</v>
+      </c>
+      <c r="E475" s="11">
+        <v>44182</v>
+      </c>
+      <c r="F475" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G475" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H475" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A476" s="5">
+        <v>475</v>
+      </c>
+      <c r="B476" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D476" s="11">
+        <v>44183</v>
+      </c>
+      <c r="E476" s="11">
+        <v>44180</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G476" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H476" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A477" s="5">
+        <v>476</v>
+      </c>
+      <c r="B477" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D477" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E477" s="11">
+        <v>44180</v>
+      </c>
+      <c r="F477" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G477" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H477" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A478" s="5">
+        <v>477</v>
+      </c>
+      <c r="B478" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D478" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E478" s="11">
+        <v>44183</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G478" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H478" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A479" s="5">
+        <v>478</v>
+      </c>
+      <c r="B479" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D479" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E479" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F479" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G479" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H479" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A480" s="5">
+        <v>479</v>
+      </c>
+      <c r="B480" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D480" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E480" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G480" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H480" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A481" s="5">
+        <v>480</v>
+      </c>
+      <c r="B481" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D481" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E481" s="11">
+        <v>44183</v>
+      </c>
+      <c r="F481" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G481" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H481" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A482" s="5">
+        <v>481</v>
+      </c>
+      <c r="B482" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D482" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E482" s="11">
+        <v>44182</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G482" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H482" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A483" s="5">
+        <v>482</v>
+      </c>
+      <c r="B483" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D483" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E483" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G483" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H483" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A484" s="5">
+        <v>483</v>
+      </c>
+      <c r="B484" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D484" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E484" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G484" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H484" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A485" s="5">
+        <v>484</v>
+      </c>
+      <c r="B485" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D485" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E485" s="11">
+        <v>44177</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G485" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H485" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A486" s="5">
+        <v>485</v>
+      </c>
+      <c r="B486" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D486" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E486" s="11">
+        <v>44179</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G486" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H486" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A487" s="5">
+        <v>486</v>
+      </c>
+      <c r="B487" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D487" s="11">
+        <v>44184</v>
+      </c>
+      <c r="E487" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G487" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H487" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A488" s="5">
+        <v>487</v>
+      </c>
+      <c r="B488" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D488" s="11">
+        <v>44185</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G488" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H488" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A489" s="5">
+        <v>488</v>
+      </c>
+      <c r="B489" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D489" s="11">
+        <v>44185</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G489" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H489" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A490" s="5">
+        <v>489</v>
+      </c>
+      <c r="B490" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D490" s="11">
+        <v>44185</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H490" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A491" s="5">
+        <v>490</v>
+      </c>
+      <c r="B491" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D491" s="11">
+        <v>44185</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G491" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H491" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="385">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -3038,13 +3038,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>チイキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3485,10 +3478,10 @@
   <dimension ref="A1:J491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B484" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B475" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E487" sqref="E487"/>
+      <selection pane="bottomRight" activeCell="I491" sqref="I491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16158,7 +16151,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A488" s="5">
         <v>487</v>
       </c>
@@ -16171,17 +16164,20 @@
       <c r="D488" s="11">
         <v>44185</v>
       </c>
+      <c r="E488" s="11">
+        <v>44184</v>
+      </c>
       <c r="F488" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G488" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H488" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H488" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A489" s="5">
         <v>488</v>
       </c>
@@ -16194,17 +16190,20 @@
       <c r="D489" s="11">
         <v>44185</v>
       </c>
+      <c r="E489" s="11">
+        <v>44183</v>
+      </c>
       <c r="F489" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G489" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H489" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H489" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A490" s="5">
         <v>489</v>
       </c>
@@ -16217,17 +16216,20 @@
       <c r="D490" s="11">
         <v>44185</v>
       </c>
+      <c r="E490" s="11">
+        <v>44184</v>
+      </c>
       <c r="F490" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G490" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H490" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H490" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A491" s="5">
         <v>490</v>
       </c>
@@ -16240,14 +16242,17 @@
       <c r="D491" s="11">
         <v>44185</v>
       </c>
+      <c r="E491" s="11">
+        <v>44183</v>
+      </c>
       <c r="F491" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G491" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H491" s="6" t="s">
-        <v>385</v>
+      <c r="H491" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="387">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -3038,6 +3038,20 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3475,13 +3489,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J491"/>
+  <dimension ref="A1:J495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B475" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B487" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I491" sqref="I491"/>
+      <selection pane="bottomRight" activeCell="I495" sqref="I495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16255,6 +16269,107 @@
         <v>371</v>
       </c>
     </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A492" s="5">
+        <v>491</v>
+      </c>
+      <c r="B492" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D492" s="11">
+        <v>44187</v>
+      </c>
+      <c r="E492" s="11">
+        <v>44186</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H492" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A493" s="5">
+        <v>492</v>
+      </c>
+      <c r="B493" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D493" s="11">
+        <v>44187</v>
+      </c>
+      <c r="E493" s="11">
+        <v>44187</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G493" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H493" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A494" s="5">
+        <v>493</v>
+      </c>
+      <c r="B494" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D494" s="11">
+        <v>44187</v>
+      </c>
+      <c r="E494" s="11">
+        <v>44184</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H494" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A495" s="5">
+        <v>494</v>
+      </c>
+      <c r="B495" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D495" s="11">
+        <v>44187</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G495" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H495" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H293"/>
   <phoneticPr fontId="2"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="389">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -3042,6 +3042,24 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(韮崎市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニラサキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>山梨県</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
@@ -3049,9 +3067,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>甲府市</t>
-    <rPh sb="0" eb="3">
-      <t>コウフシ</t>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3489,13 +3507,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J495"/>
+  <dimension ref="A1:J505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B487" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I495" sqref="I495"/>
+      <selection pane="bottomRight" activeCell="E499" sqref="E499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16269,7 +16287,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A492" s="5">
         <v>491</v>
       </c>
@@ -16291,11 +16309,11 @@
       <c r="G492" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H492" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H492" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A493" s="5">
         <v>492</v>
       </c>
@@ -16317,8 +16335,8 @@
       <c r="G493" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H493" s="6" t="s">
-        <v>385</v>
+      <c r="H493" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.4">
@@ -16344,10 +16362,10 @@
         <v>31</v>
       </c>
       <c r="H494" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A495" s="5">
         <v>494</v>
       </c>
@@ -16360,14 +16378,247 @@
       <c r="D495" s="11">
         <v>44187</v>
       </c>
+      <c r="E495" s="11">
+        <v>44180</v>
+      </c>
       <c r="F495" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G495" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H495" s="6" t="s">
-        <v>385</v>
+      <c r="H495" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A496" s="5">
+        <v>495</v>
+      </c>
+      <c r="B496" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D496" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G496" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H496" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A497" s="5">
+        <v>496</v>
+      </c>
+      <c r="B497" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D497" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G497" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H497" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A498" s="5">
+        <v>497</v>
+      </c>
+      <c r="B498" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D498" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G498" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H498" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D499" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G499" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H499" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D500" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G500" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H500" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D501" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G501" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H501" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D502" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G502" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H502" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D503" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G503" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H503" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D504" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G504" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H504" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D505" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G505" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H505" s="6" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="401">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -3060,6 +3060,101 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲府市、富士北麓地域)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲斐市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲府市、甲斐市、南アルプス市、昭和町)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウワ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲州市、富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウシュウシ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>フジホクロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>山梨県</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
@@ -3067,9 +3162,52 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
+    <t>山梨県
+（昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウブチイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（東部地域）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>フジホクロクチイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3507,13 +3645,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J505"/>
+  <dimension ref="A1:J528"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B516" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E499" sqref="E499"/>
+      <selection pane="bottomRight" activeCell="B529" sqref="B529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16391,7 +16529,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A496" s="5">
         <v>495</v>
       </c>
@@ -16404,17 +16542,20 @@
       <c r="D496" s="11">
         <v>44188</v>
       </c>
+      <c r="E496" s="11">
+        <v>44182</v>
+      </c>
       <c r="F496" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G496" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H496" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H496" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A497" s="5">
         <v>496</v>
       </c>
@@ -16427,17 +16568,20 @@
       <c r="D497" s="11">
         <v>44188</v>
       </c>
+      <c r="E497" s="11">
+        <v>44178</v>
+      </c>
       <c r="F497" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G497" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H497" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H497" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A498" s="5">
         <v>497</v>
       </c>
@@ -16450,17 +16594,20 @@
       <c r="D498" s="11">
         <v>44188</v>
       </c>
+      <c r="E498" s="11">
+        <v>44185</v>
+      </c>
       <c r="F498" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G498" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H498" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H498" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A499" s="5">
         <v>498</v>
       </c>
@@ -16473,17 +16620,20 @@
       <c r="D499" s="11">
         <v>44188</v>
       </c>
+      <c r="E499" s="11">
+        <v>44188</v>
+      </c>
       <c r="F499" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G499" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H499" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H499" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A500" s="5">
         <v>499</v>
       </c>
@@ -16496,17 +16646,20 @@
       <c r="D500" s="11">
         <v>44188</v>
       </c>
+      <c r="E500" s="11">
+        <v>44187</v>
+      </c>
       <c r="F500" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G500" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H500" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H500" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A501" s="5">
         <v>500</v>
       </c>
@@ -16519,17 +16672,20 @@
       <c r="D501" s="11">
         <v>44188</v>
       </c>
+      <c r="E501" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="F501" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G501" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H501" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H501" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A502" s="5">
         <v>501</v>
       </c>
@@ -16542,17 +16698,20 @@
       <c r="D502" s="11">
         <v>44188</v>
       </c>
+      <c r="E502" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="F502" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G502" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H502" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H502" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A503" s="5">
         <v>502</v>
       </c>
@@ -16565,17 +16724,20 @@
       <c r="D503" s="11">
         <v>44188</v>
       </c>
+      <c r="E503" s="11">
+        <v>44186</v>
+      </c>
       <c r="F503" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G503" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H503" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H503" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A504" s="5">
         <v>503</v>
       </c>
@@ -16588,17 +16750,20 @@
       <c r="D504" s="11">
         <v>44188</v>
       </c>
+      <c r="E504" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F504" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G504" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H504" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H504" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A505" s="5">
         <v>504</v>
       </c>
@@ -16611,14 +16776,594 @@
       <c r="D505" s="11">
         <v>44188</v>
       </c>
+      <c r="E505" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="F505" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G505" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H505" s="6" t="s">
-        <v>387</v>
+      <c r="H505" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D506" s="11">
+        <v>44189</v>
+      </c>
+      <c r="E506" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G506" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H506" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D507" s="11">
+        <v>44189</v>
+      </c>
+      <c r="E507" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G507" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H507" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D508" s="11">
+        <v>44189</v>
+      </c>
+      <c r="E508" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G508" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H508" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A509" s="5">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D509" s="11">
+        <v>44189</v>
+      </c>
+      <c r="E509" s="11">
+        <v>44182</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H509" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A510" s="5">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D510" s="11">
+        <v>44189</v>
+      </c>
+      <c r="E510" s="11">
+        <v>44182</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H510" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A511" s="5">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D511" s="11">
+        <v>44189</v>
+      </c>
+      <c r="E511" s="11">
+        <v>44189</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H511" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A512" s="5">
+        <v>511</v>
+      </c>
+      <c r="B512" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D512" s="11">
+        <v>44189</v>
+      </c>
+      <c r="E512" s="11">
+        <v>44189</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G512" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H512" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A513" s="5">
+        <v>512</v>
+      </c>
+      <c r="B513" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D513" s="11">
+        <v>44190</v>
+      </c>
+      <c r="E513" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G513" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H513" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A514" s="5">
+        <v>513</v>
+      </c>
+      <c r="B514" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D514" s="11">
+        <v>44190</v>
+      </c>
+      <c r="E514" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G514" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H514" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A515" s="5">
+        <v>514</v>
+      </c>
+      <c r="B515" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D515" s="11">
+        <v>44190</v>
+      </c>
+      <c r="E515" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G515" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H515" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A516" s="5">
+        <v>515</v>
+      </c>
+      <c r="B516" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D516" s="11">
+        <v>44190</v>
+      </c>
+      <c r="E516" s="11">
+        <v>44186</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G516" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H516" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A517" s="5">
+        <v>516</v>
+      </c>
+      <c r="B517" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D517" s="11">
+        <v>44190</v>
+      </c>
+      <c r="E517" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G517" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H517" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A518" s="5">
+        <v>517</v>
+      </c>
+      <c r="B518" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D518" s="11">
+        <v>44190</v>
+      </c>
+      <c r="E518" s="11">
+        <v>44187</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G518" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H518" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A519" s="5">
+        <v>518</v>
+      </c>
+      <c r="B519" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D519" s="11">
+        <v>44191</v>
+      </c>
+      <c r="E519" s="11">
+        <v>44191</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G519" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H519" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D520" s="11">
+        <v>44191</v>
+      </c>
+      <c r="E520" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H520" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A521" s="5">
+        <v>520</v>
+      </c>
+      <c r="B521" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C521" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D521" s="11">
+        <v>44191</v>
+      </c>
+      <c r="E521" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G521" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H521" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A522" s="5">
+        <v>521</v>
+      </c>
+      <c r="B522" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D522" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H522" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A523" s="5">
+        <v>522</v>
+      </c>
+      <c r="B523" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D523" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G523" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H523" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A524" s="5">
+        <v>523</v>
+      </c>
+      <c r="B524" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D524" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G524" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H524" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A525" s="5">
+        <v>524</v>
+      </c>
+      <c r="B525" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C525" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D525" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F525" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G525" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H525" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A526" s="5">
+        <v>525</v>
+      </c>
+      <c r="B526" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D526" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F526" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G526" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H526" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A527" s="5">
+        <v>526</v>
+      </c>
+      <c r="B527" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C527" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D527" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F527" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G527" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H527" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A528" s="5">
+        <v>527</v>
+      </c>
+      <c r="B528" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D528" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G528" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H528" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\00612_健康増進課\00_新共有フォルダ\03_感染症担当\新型コロナウイルス関連\★報道対応_HP公表(日毎公表、随時更新)\投込み_感染状況（日毎）\◆オープンデータ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00319406\Desktop\コロナ\オープンデータ\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="オープンデータ" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="449">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -3155,13 +3155,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山梨県
 （昭和町）</t>
     <rPh sb="0" eb="3">
@@ -3201,6 +3194,468 @@
     </rPh>
     <rPh sb="5" eb="11">
       <t>フジホクロクチイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市、峡南地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウナン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、韮崎市、南アルプス市、甲斐市）</t>
+    <rPh sb="20" eb="22">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市、笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域、笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>フジホクロクチイキ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>フジホクロクチイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲州市、中央市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウシュウシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チュウオウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲州市、山梨市、甲府市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウシュウシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士吉田市、笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、富士北麓地域）</t>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市、笛吹市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(笛吹市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(笛吹市、富士吉田市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(富士北麓地域)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(北杜市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホクトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(富士北麓地域)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲府市、甲州市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウシュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(山梨市、笛吹市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヤマナシシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3311,7 +3766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3360,6 +3815,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3645,29 +4103,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J528"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B516" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B602" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B529" sqref="B529"/>
+      <selection pane="bottomRight" activeCell="F619" sqref="F619"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="11" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="5" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="4"/>
+    <col min="9" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3693,7 +4151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3719,7 +4177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3745,7 +4203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3771,7 +4229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3797,7 +4255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3823,7 +4281,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3849,7 +4307,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3875,7 +4333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3901,7 +4359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3927,7 +4385,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3953,7 +4411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3979,7 +4437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4005,7 +4463,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4031,7 +4489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4057,7 +4515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4083,7 +4541,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4109,7 +4567,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4135,7 +4593,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4161,7 +4619,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4187,7 +4645,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4213,7 +4671,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4239,7 +4697,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4265,7 +4723,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4291,7 +4749,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4317,7 +4775,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4343,7 +4801,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4369,7 +4827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4395,7 +4853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4421,7 +4879,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4447,7 +4905,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4473,7 +4931,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4499,7 +4957,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4525,7 +4983,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4551,7 +5009,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4577,7 +5035,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4603,7 +5061,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4629,7 +5087,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4655,7 +5113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4681,7 +5139,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4707,7 +5165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4733,7 +5191,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4759,7 +5217,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4785,7 +5243,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4811,7 +5269,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4837,7 +5295,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4863,7 +5321,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4889,7 +5347,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4915,7 +5373,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4941,7 +5399,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4967,7 +5425,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4993,7 +5451,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5019,7 +5477,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5045,7 +5503,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5071,7 +5529,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5097,7 +5555,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5123,7 +5581,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5149,7 +5607,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5175,7 +5633,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5201,7 +5659,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5227,7 +5685,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5253,7 +5711,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5279,7 +5737,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5305,7 +5763,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5331,7 +5789,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5357,7 +5815,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -5383,7 +5841,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -5409,7 +5867,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5435,7 +5893,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -5461,7 +5919,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5487,7 +5945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -5513,7 +5971,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -5539,7 +5997,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -5565,7 +6023,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -5591,7 +6049,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -5617,7 +6075,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -5643,7 +6101,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -5669,7 +6127,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -5695,7 +6153,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -5721,7 +6179,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -5747,7 +6205,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -5773,7 +6231,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -5799,7 +6257,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -5825,7 +6283,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -5851,7 +6309,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -5877,7 +6335,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -5903,7 +6361,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -5929,7 +6387,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -5955,7 +6413,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -5981,7 +6439,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -6007,7 +6465,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -6033,7 +6491,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -6059,7 +6517,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -6085,7 +6543,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -6111,7 +6569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -6137,7 +6595,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -6163,7 +6621,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -6189,7 +6647,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -6215,7 +6673,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -6241,7 +6699,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -6267,7 +6725,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -6293,7 +6751,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -6319,7 +6777,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -6345,7 +6803,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -6371,7 +6829,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -6397,7 +6855,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -6423,7 +6881,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -6449,7 +6907,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -6475,7 +6933,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -6501,7 +6959,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -6527,7 +6985,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -6553,7 +7011,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -6579,7 +7037,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -6605,7 +7063,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -6631,7 +7089,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -6657,7 +7115,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -6683,7 +7141,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -6709,7 +7167,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -6735,7 +7193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -6761,7 +7219,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -6787,7 +7245,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -6813,7 +7271,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -6839,7 +7297,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -6865,7 +7323,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -6891,7 +7349,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -6917,7 +7375,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -6943,7 +7401,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -6969,7 +7427,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -6995,7 +7453,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -7021,7 +7479,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -7047,7 +7505,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -7073,7 +7531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -7099,7 +7557,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -7125,7 +7583,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -7151,7 +7609,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -7177,7 +7635,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -7203,7 +7661,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -7229,7 +7687,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -7255,7 +7713,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -7281,7 +7739,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -7307,7 +7765,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -7333,7 +7791,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -7359,7 +7817,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -7385,7 +7843,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -7411,7 +7869,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -7437,7 +7895,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -7463,7 +7921,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -7489,7 +7947,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -7515,7 +7973,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -7541,7 +7999,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -7567,7 +8025,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -7593,7 +8051,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -7619,7 +8077,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -7645,7 +8103,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -7671,7 +8129,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -7697,7 +8155,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -7723,7 +8181,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -7749,7 +8207,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -7775,7 +8233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -7801,7 +8259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -7827,7 +8285,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -7853,7 +8311,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -7879,7 +8337,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -7905,7 +8363,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -7931,7 +8389,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -7957,7 +8415,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -7983,7 +8441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -8009,7 +8467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -8035,7 +8493,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -8061,7 +8519,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -8087,7 +8545,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -8113,7 +8571,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -8139,7 +8597,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -8165,7 +8623,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -8191,7 +8649,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -8217,7 +8675,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -8243,7 +8701,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -8269,7 +8727,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -8295,7 +8753,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -8321,7 +8779,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -8347,7 +8805,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -8373,7 +8831,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -8399,7 +8857,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -8425,7 +8883,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -8451,7 +8909,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -8477,7 +8935,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -8503,7 +8961,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -8529,7 +8987,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -8555,7 +9013,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -8581,7 +9039,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -8607,7 +9065,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -8633,7 +9091,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -8659,7 +9117,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -8685,7 +9143,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -8711,7 +9169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -8737,7 +9195,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -8763,7 +9221,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -8789,7 +9247,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -8815,7 +9273,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -8841,7 +9299,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -8867,7 +9325,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -8893,7 +9351,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -8919,7 +9377,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -8945,7 +9403,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -8971,7 +9429,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -8997,7 +9455,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -9023,7 +9481,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -9049,7 +9507,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -9075,7 +9533,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -9101,7 +9559,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -9127,7 +9585,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -9153,7 +9611,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -9179,7 +9637,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -9205,7 +9663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -9231,7 +9689,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -9257,7 +9715,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -9283,7 +9741,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -9309,7 +9767,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -9335,7 +9793,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -9361,7 +9819,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -9387,7 +9845,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -9413,7 +9871,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -9439,7 +9897,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -9465,7 +9923,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -9491,7 +9949,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -9517,7 +9975,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -9543,7 +10001,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -9569,7 +10027,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -9595,7 +10053,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -9621,7 +10079,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -9647,7 +10105,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -9673,7 +10131,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -9699,7 +10157,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -9725,7 +10183,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -9751,7 +10209,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -9777,7 +10235,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -9803,7 +10261,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -9829,7 +10287,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -9855,7 +10313,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -9881,7 +10339,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -9907,7 +10365,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -9933,7 +10391,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -9959,7 +10417,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -9985,7 +10443,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -10011,7 +10469,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -10037,7 +10495,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -10063,7 +10521,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -10089,7 +10547,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -10115,7 +10573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -10141,7 +10599,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -10167,7 +10625,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -10193,7 +10651,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -10219,7 +10677,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -10245,7 +10703,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -10271,7 +10729,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -10297,7 +10755,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -10323,7 +10781,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -10349,7 +10807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -10375,7 +10833,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -10401,7 +10859,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -10427,7 +10885,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -10453,7 +10911,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -10479,7 +10937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -10505,7 +10963,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -10531,7 +10989,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -10557,7 +11015,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -10583,7 +11041,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -10609,7 +11067,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -10635,7 +11093,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -10661,7 +11119,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -10687,7 +11145,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -10713,7 +11171,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -10739,7 +11197,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -10765,7 +11223,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -10791,7 +11249,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -10817,7 +11275,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -10843,7 +11301,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -10869,7 +11327,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -10895,7 +11353,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -10921,7 +11379,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -10947,7 +11405,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -10973,7 +11431,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -10999,7 +11457,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -11025,7 +11483,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -11051,7 +11509,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -11077,7 +11535,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -11103,7 +11561,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -11129,7 +11587,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -11155,7 +11613,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -11181,7 +11639,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -11207,7 +11665,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -11233,7 +11691,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -11259,7 +11717,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -11285,7 +11743,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -11311,7 +11769,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -11337,7 +11795,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -11363,7 +11821,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -11389,7 +11847,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -11415,7 +11873,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -11441,7 +11899,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -11467,7 +11925,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -11493,7 +11951,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -11519,7 +11977,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -11545,7 +12003,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -11571,7 +12029,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -11597,7 +12055,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -11623,7 +12081,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -11649,7 +12107,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -11675,7 +12133,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -11701,7 +12159,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -11727,7 +12185,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -11753,7 +12211,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -11779,7 +12237,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -11805,7 +12263,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -11831,7 +12289,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -11857,7 +12315,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -11883,7 +12341,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -11909,7 +12367,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -11935,7 +12393,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -11961,7 +12419,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -11987,7 +12445,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -12013,7 +12471,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -12039,7 +12497,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323" s="5">
         <v>322</v>
       </c>
@@ -12065,7 +12523,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A324" s="5">
         <v>323</v>
       </c>
@@ -12091,7 +12549,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A325" s="5">
         <v>324</v>
       </c>
@@ -12117,7 +12575,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A326" s="5">
         <v>325</v>
       </c>
@@ -12143,7 +12601,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A327" s="5">
         <v>326</v>
       </c>
@@ -12169,7 +12627,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A328" s="5">
         <v>327</v>
       </c>
@@ -12195,7 +12653,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A329" s="5">
         <v>328</v>
       </c>
@@ -12221,7 +12679,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A330" s="5">
         <v>329</v>
       </c>
@@ -12247,7 +12705,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A331" s="5">
         <v>330</v>
       </c>
@@ -12273,7 +12731,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A332" s="5">
         <v>331</v>
       </c>
@@ -12299,7 +12757,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A333" s="5">
         <v>332</v>
       </c>
@@ -12325,7 +12783,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A334" s="5">
         <v>333</v>
       </c>
@@ -12351,7 +12809,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A335" s="5">
         <v>334</v>
       </c>
@@ -12377,7 +12835,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" s="5">
         <v>335</v>
       </c>
@@ -12403,7 +12861,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A337" s="5">
         <v>336</v>
       </c>
@@ -12429,7 +12887,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A338" s="5">
         <v>337</v>
       </c>
@@ -12455,7 +12913,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A339" s="5">
         <v>338</v>
       </c>
@@ -12481,7 +12939,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -12507,7 +12965,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A341" s="5">
         <v>340</v>
       </c>
@@ -12533,7 +12991,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A342" s="5">
         <v>341</v>
       </c>
@@ -12559,7 +13017,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A343" s="5">
         <v>342</v>
       </c>
@@ -12585,7 +13043,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A344" s="5">
         <v>343</v>
       </c>
@@ -12611,7 +13069,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A345" s="5">
         <v>344</v>
       </c>
@@ -12637,7 +13095,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A346" s="5">
         <v>345</v>
       </c>
@@ -12663,7 +13121,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A347" s="5">
         <v>346</v>
       </c>
@@ -12689,7 +13147,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A348" s="5">
         <v>347</v>
       </c>
@@ -12715,7 +13173,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A349" s="5">
         <v>348</v>
       </c>
@@ -12741,7 +13199,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A350" s="5">
         <v>349</v>
       </c>
@@ -12767,7 +13225,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A351" s="5">
         <v>350</v>
       </c>
@@ -12793,7 +13251,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A352" s="5">
         <v>351</v>
       </c>
@@ -12819,7 +13277,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A353" s="5">
         <v>352</v>
       </c>
@@ -12845,7 +13303,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A354" s="5">
         <v>353</v>
       </c>
@@ -12871,7 +13329,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A355" s="5">
         <v>354</v>
       </c>
@@ -12897,7 +13355,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A356" s="5">
         <v>355</v>
       </c>
@@ -12923,7 +13381,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A357" s="5">
         <v>356</v>
       </c>
@@ -12949,7 +13407,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A358" s="5">
         <v>357</v>
       </c>
@@ -12975,7 +13433,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A359" s="5">
         <v>358</v>
       </c>
@@ -13001,7 +13459,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A360" s="5">
         <v>359</v>
       </c>
@@ -13027,7 +13485,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A361" s="5">
         <v>360</v>
       </c>
@@ -13053,7 +13511,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A362" s="5">
         <v>361</v>
       </c>
@@ -13079,7 +13537,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A363" s="5">
         <v>362</v>
       </c>
@@ -13105,7 +13563,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A364" s="5">
         <v>363</v>
       </c>
@@ -13131,7 +13589,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A365" s="5">
         <v>364</v>
       </c>
@@ -13157,7 +13615,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A366" s="5">
         <v>365</v>
       </c>
@@ -13183,7 +13641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A367" s="5">
         <v>366</v>
       </c>
@@ -13209,7 +13667,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A368" s="5">
         <v>367</v>
       </c>
@@ -13235,7 +13693,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A369" s="5">
         <v>368</v>
       </c>
@@ -13261,7 +13719,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A370" s="5">
         <v>369</v>
       </c>
@@ -13287,7 +13745,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A371" s="5">
         <v>370</v>
       </c>
@@ -13313,7 +13771,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A372" s="5">
         <v>371</v>
       </c>
@@ -13339,7 +13797,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A373" s="5">
         <v>372</v>
       </c>
@@ -13365,7 +13823,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A374" s="5">
         <v>373</v>
       </c>
@@ -13391,7 +13849,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A375" s="5">
         <v>374</v>
       </c>
@@ -13417,7 +13875,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A376" s="5">
         <v>375</v>
       </c>
@@ -13443,7 +13901,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A377" s="5">
         <v>376</v>
       </c>
@@ -13469,7 +13927,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A378" s="5">
         <v>377</v>
       </c>
@@ -13495,7 +13953,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A379" s="5">
         <v>378</v>
       </c>
@@ -13512,7 +13970,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A380" s="5">
         <v>379</v>
       </c>
@@ -13538,7 +13996,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A381" s="5">
         <v>380</v>
       </c>
@@ -13564,7 +14022,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A382" s="5">
         <v>381</v>
       </c>
@@ -13590,7 +14048,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -13616,7 +14074,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -13642,7 +14100,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -13668,7 +14126,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A386" s="5">
         <v>385</v>
       </c>
@@ -13694,7 +14152,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A387" s="5">
         <v>386</v>
       </c>
@@ -13720,7 +14178,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A388" s="5">
         <v>387</v>
       </c>
@@ -13746,7 +14204,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A389" s="5">
         <v>388</v>
       </c>
@@ -13772,7 +14230,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A390" s="5">
         <v>389</v>
       </c>
@@ -13798,7 +14256,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A391" s="5">
         <v>390</v>
       </c>
@@ -13824,7 +14282,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A392" s="5">
         <v>391</v>
       </c>
@@ -13850,7 +14308,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A393" s="5">
         <v>392</v>
       </c>
@@ -13876,7 +14334,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A394" s="5">
         <v>393</v>
       </c>
@@ -13902,7 +14360,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -13928,7 +14386,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -13954,7 +14412,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -13980,7 +14438,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -14006,7 +14464,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -14032,7 +14490,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -14058,7 +14516,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -14084,7 +14542,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -14110,7 +14568,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -14136,7 +14594,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -14162,7 +14620,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -14188,7 +14646,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -14214,7 +14672,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -14240,7 +14698,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A408" s="5">
         <v>407</v>
       </c>
@@ -14266,7 +14724,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A409" s="5">
         <v>408</v>
       </c>
@@ -14292,7 +14750,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A410" s="5">
         <v>409</v>
       </c>
@@ -14318,7 +14776,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A411" s="5">
         <v>410</v>
       </c>
@@ -14344,7 +14802,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A412" s="5">
         <v>411</v>
       </c>
@@ -14370,7 +14828,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A413" s="5">
         <v>412</v>
       </c>
@@ -14396,7 +14854,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -14422,7 +14880,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A415" s="5">
         <v>414</v>
       </c>
@@ -14448,7 +14906,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A416" s="5">
         <v>415</v>
       </c>
@@ -14474,7 +14932,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -14500,7 +14958,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -14526,7 +14984,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A419" s="5">
         <v>418</v>
       </c>
@@ -14552,7 +15010,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A420" s="5">
         <v>419</v>
       </c>
@@ -14578,7 +15036,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A421" s="5">
         <v>420</v>
       </c>
@@ -14604,7 +15062,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A422" s="5">
         <v>421</v>
       </c>
@@ -14630,7 +15088,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A423" s="5">
         <v>422</v>
       </c>
@@ -14656,7 +15114,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A424" s="5">
         <v>423</v>
       </c>
@@ -14682,7 +15140,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A425" s="5">
         <v>424</v>
       </c>
@@ -14708,7 +15166,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A426" s="5">
         <v>425</v>
       </c>
@@ -14734,7 +15192,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A427" s="5">
         <v>426</v>
       </c>
@@ -14760,7 +15218,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A428" s="5">
         <v>427</v>
       </c>
@@ -14786,7 +15244,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A429" s="5">
         <v>428</v>
       </c>
@@ -14812,7 +15270,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A430" s="5">
         <v>429</v>
       </c>
@@ -14838,7 +15296,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A431" s="5">
         <v>430</v>
       </c>
@@ -14864,7 +15322,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A432" s="5">
         <v>431</v>
       </c>
@@ -14890,7 +15348,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A433" s="5">
         <v>432</v>
       </c>
@@ -14916,7 +15374,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A434" s="5">
         <v>433</v>
       </c>
@@ -14942,7 +15400,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A435" s="5">
         <v>434</v>
       </c>
@@ -14968,7 +15426,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A436" s="5">
         <v>435</v>
       </c>
@@ -14994,7 +15452,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A437" s="5">
         <v>436</v>
       </c>
@@ -15020,7 +15478,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A438" s="5">
         <v>437</v>
       </c>
@@ -15046,7 +15504,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A439" s="5">
         <v>438</v>
       </c>
@@ -15072,7 +15530,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A440" s="5">
         <v>439</v>
       </c>
@@ -15098,7 +15556,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A441" s="5">
         <v>440</v>
       </c>
@@ -15124,7 +15582,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A442" s="5">
         <v>441</v>
       </c>
@@ -15150,7 +15608,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A443" s="5">
         <v>442</v>
       </c>
@@ -15176,7 +15634,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A444" s="5">
         <v>443</v>
       </c>
@@ -15202,7 +15660,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A445" s="5">
         <v>444</v>
       </c>
@@ -15228,7 +15686,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A446" s="5">
         <v>445</v>
       </c>
@@ -15254,7 +15712,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A447" s="5">
         <v>446</v>
       </c>
@@ -15280,7 +15738,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A448" s="5">
         <v>447</v>
       </c>
@@ -15306,7 +15764,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A449" s="5">
         <v>448</v>
       </c>
@@ -15332,7 +15790,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A450" s="5">
         <v>449</v>
       </c>
@@ -15359,7 +15817,7 @@
       </c>
       <c r="J450" s="16"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A451" s="5">
         <v>450</v>
       </c>
@@ -15385,7 +15843,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A452" s="5">
         <v>451</v>
       </c>
@@ -15411,7 +15869,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A453" s="5">
         <v>452</v>
       </c>
@@ -15437,7 +15895,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A454" s="5">
         <v>453</v>
       </c>
@@ -15463,7 +15921,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A455" s="5">
         <v>454</v>
       </c>
@@ -15489,7 +15947,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A456" s="5">
         <v>455</v>
       </c>
@@ -15515,7 +15973,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A457" s="5">
         <v>456</v>
       </c>
@@ -15541,7 +15999,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A458" s="5">
         <v>457</v>
       </c>
@@ -15567,7 +16025,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A459" s="5">
         <v>458</v>
       </c>
@@ -15593,7 +16051,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A460" s="5">
         <v>459</v>
       </c>
@@ -15619,7 +16077,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A461" s="5">
         <v>460</v>
       </c>
@@ -15645,7 +16103,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A462" s="5">
         <v>461</v>
       </c>
@@ -15671,7 +16129,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A463" s="5">
         <v>462</v>
       </c>
@@ -15697,7 +16155,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A464" s="5">
         <v>463</v>
       </c>
@@ -15723,7 +16181,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A465" s="5">
         <v>464</v>
       </c>
@@ -15749,7 +16207,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A466" s="5">
         <v>465</v>
       </c>
@@ -15775,7 +16233,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A467" s="5">
         <v>466</v>
       </c>
@@ -15801,7 +16259,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A468" s="5">
         <v>467</v>
       </c>
@@ -15827,7 +16285,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A469" s="5">
         <v>468</v>
       </c>
@@ -15853,7 +16311,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A470" s="5">
         <v>469</v>
       </c>
@@ -15879,7 +16337,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A471" s="5">
         <v>470</v>
       </c>
@@ -15905,7 +16363,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A472" s="5">
         <v>471</v>
       </c>
@@ -15931,7 +16389,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A473" s="5">
         <v>472</v>
       </c>
@@ -15957,7 +16415,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A474" s="5">
         <v>473</v>
       </c>
@@ -15983,7 +16441,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A475" s="5">
         <v>474</v>
       </c>
@@ -16009,7 +16467,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A476" s="5">
         <v>475</v>
       </c>
@@ -16035,7 +16493,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A477" s="5">
         <v>476</v>
       </c>
@@ -16061,7 +16519,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A478" s="5">
         <v>477</v>
       </c>
@@ -16087,7 +16545,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A479" s="5">
         <v>478</v>
       </c>
@@ -16113,7 +16571,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A480" s="5">
         <v>479</v>
       </c>
@@ -16139,7 +16597,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A481" s="5">
         <v>480</v>
       </c>
@@ -16165,7 +16623,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A482" s="5">
         <v>481</v>
       </c>
@@ -16191,7 +16649,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A483" s="5">
         <v>482</v>
       </c>
@@ -16217,7 +16675,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A484" s="5">
         <v>483</v>
       </c>
@@ -16243,7 +16701,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A485" s="5">
         <v>484</v>
       </c>
@@ -16269,7 +16727,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A486" s="5">
         <v>485</v>
       </c>
@@ -16295,7 +16753,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A487" s="5">
         <v>486</v>
       </c>
@@ -16321,7 +16779,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A488" s="5">
         <v>487</v>
       </c>
@@ -16347,7 +16805,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A489" s="5">
         <v>488</v>
       </c>
@@ -16373,7 +16831,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A490" s="5">
         <v>489</v>
       </c>
@@ -16399,7 +16857,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A491" s="5">
         <v>490</v>
       </c>
@@ -16425,7 +16883,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A492" s="5">
         <v>491</v>
       </c>
@@ -16451,7 +16909,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A493" s="5">
         <v>492</v>
       </c>
@@ -16477,7 +16935,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A494" s="5">
         <v>493</v>
       </c>
@@ -16503,7 +16961,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A495" s="5">
         <v>494</v>
       </c>
@@ -16529,7 +16987,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A496" s="5">
         <v>495</v>
       </c>
@@ -16555,7 +17013,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A497" s="5">
         <v>496</v>
       </c>
@@ -16581,7 +17039,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A498" s="5">
         <v>497</v>
       </c>
@@ -16607,7 +17065,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A499" s="5">
         <v>498</v>
       </c>
@@ -16633,7 +17091,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A500" s="5">
         <v>499</v>
       </c>
@@ -16659,7 +17117,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A501" s="5">
         <v>500</v>
       </c>
@@ -16685,7 +17143,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A502" s="5">
         <v>501</v>
       </c>
@@ -16711,7 +17169,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A503" s="5">
         <v>502</v>
       </c>
@@ -16737,7 +17195,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A504" s="5">
         <v>503</v>
       </c>
@@ -16760,10 +17218,10 @@
         <v>28</v>
       </c>
       <c r="H504" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A505" s="5">
         <v>504</v>
       </c>
@@ -16789,7 +17247,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A506" s="5">
         <v>505</v>
       </c>
@@ -16815,7 +17273,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A507" s="5">
         <v>506</v>
       </c>
@@ -16841,7 +17299,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A508" s="5">
         <v>507</v>
       </c>
@@ -16864,10 +17322,10 @@
         <v>28</v>
       </c>
       <c r="H508" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A509" s="5">
         <v>508</v>
       </c>
@@ -16893,7 +17351,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A510" s="5">
         <v>509</v>
       </c>
@@ -16916,10 +17374,10 @@
         <v>28</v>
       </c>
       <c r="H510" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A511" s="5">
         <v>510</v>
       </c>
@@ -16942,10 +17400,10 @@
         <v>31</v>
       </c>
       <c r="H511" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A512" s="5">
         <v>511</v>
       </c>
@@ -16968,10 +17426,10 @@
         <v>31</v>
       </c>
       <c r="H512" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A513" s="5">
         <v>512</v>
       </c>
@@ -16997,7 +17455,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A514" s="5">
         <v>513</v>
       </c>
@@ -17023,7 +17481,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A515" s="5">
         <v>514</v>
       </c>
@@ -17049,7 +17507,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A516" s="5">
         <v>515</v>
       </c>
@@ -17075,7 +17533,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A517" s="5">
         <v>516</v>
       </c>
@@ -17098,10 +17556,10 @@
         <v>31</v>
       </c>
       <c r="H517" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A518" s="5">
         <v>517</v>
       </c>
@@ -17124,10 +17582,10 @@
         <v>31</v>
       </c>
       <c r="H518" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A519" s="5">
         <v>518</v>
       </c>
@@ -17150,10 +17608,10 @@
         <v>9</v>
       </c>
       <c r="H519" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A520" s="5">
         <v>519</v>
       </c>
@@ -17176,10 +17634,10 @@
         <v>31</v>
       </c>
       <c r="H520" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A521" s="5">
         <v>520</v>
       </c>
@@ -17202,10 +17660,10 @@
         <v>9</v>
       </c>
       <c r="H521" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A522" s="5">
         <v>521</v>
       </c>
@@ -17218,17 +17676,20 @@
       <c r="D522" s="11">
         <v>44192</v>
       </c>
+      <c r="E522" s="11">
+        <v>44191</v>
+      </c>
       <c r="F522" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G522" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H522" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H522" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A523" s="5">
         <v>522</v>
       </c>
@@ -17241,17 +17702,20 @@
       <c r="D523" s="11">
         <v>44192</v>
       </c>
+      <c r="E523" s="11">
+        <v>44191</v>
+      </c>
       <c r="F523" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G523" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H523" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H523" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A524" s="5">
         <v>523</v>
       </c>
@@ -17264,17 +17728,20 @@
       <c r="D524" s="11">
         <v>44192</v>
       </c>
+      <c r="E524" s="11">
+        <v>44191</v>
+      </c>
       <c r="F524" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G524" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H524" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H524" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A525" s="5">
         <v>524</v>
       </c>
@@ -17287,17 +17754,20 @@
       <c r="D525" s="11">
         <v>44192</v>
       </c>
+      <c r="E525" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F525" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G525" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H525" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H525" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A526" s="5">
         <v>525</v>
       </c>
@@ -17310,17 +17780,20 @@
       <c r="D526" s="11">
         <v>44192</v>
       </c>
+      <c r="E526" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F526" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G526" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H526" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H526" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A527" s="5">
         <v>526</v>
       </c>
@@ -17333,17 +17806,20 @@
       <c r="D527" s="11">
         <v>44192</v>
       </c>
+      <c r="E527" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F527" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G527" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H527" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H527" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A528" s="5">
         <v>527</v>
       </c>
@@ -17356,14 +17832,2496 @@
       <c r="D528" s="11">
         <v>44192</v>
       </c>
+      <c r="E528" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F528" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G528" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H528" s="6" t="s">
-        <v>394</v>
+      <c r="H528" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A529" s="5">
+        <v>528</v>
+      </c>
+      <c r="B529" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C529" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D529" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E529" s="11">
+        <v>44182</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G529" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H529" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A530" s="5">
+        <v>529</v>
+      </c>
+      <c r="B530" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D530" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E530" s="11">
+        <v>44191</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H530" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A531" s="5">
+        <v>530</v>
+      </c>
+      <c r="B531" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C531" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D531" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E531" s="11">
+        <v>44191</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G531" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H531" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A532" s="5">
+        <v>531</v>
+      </c>
+      <c r="B532" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D532" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E532" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G532" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H532" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A533" s="5">
+        <v>532</v>
+      </c>
+      <c r="B533" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C533" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D533" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E533" s="11">
+        <v>44189</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G533" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H533" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A534" s="5">
+        <v>533</v>
+      </c>
+      <c r="B534" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D534" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E534" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G534" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H534" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A535" s="5">
+        <v>534</v>
+      </c>
+      <c r="B535" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C535" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D535" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E535" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G535" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H535" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A536" s="5">
+        <v>535</v>
+      </c>
+      <c r="B536" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D536" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E536" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G536" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H536" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A537" s="5">
+        <v>536</v>
+      </c>
+      <c r="B537" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C537" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D537" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E537" s="11">
+        <v>44190</v>
+      </c>
+      <c r="F537" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G537" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H537" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A538" s="5">
+        <v>537</v>
+      </c>
+      <c r="B538" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D538" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E538" s="11">
+        <v>44193</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G538" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H538" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A539" s="5">
+        <v>538</v>
+      </c>
+      <c r="B539" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C539" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D539" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E539" s="11">
+        <v>44188</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G539" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H539" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A540" s="5">
+        <v>539</v>
+      </c>
+      <c r="B540" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D540" s="11">
+        <v>44193</v>
+      </c>
+      <c r="E540" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G540" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H540" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A541" s="5">
+        <v>540</v>
+      </c>
+      <c r="B541" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D541" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E541" s="11">
+        <v>44187</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G541" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H541" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A542" s="5">
+        <v>541</v>
+      </c>
+      <c r="B542" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D542" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E542" s="11">
+        <v>44186</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G542" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H542" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A543" s="5">
+        <v>542</v>
+      </c>
+      <c r="B543" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C543" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D543" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E543" s="11">
+        <v>44193</v>
+      </c>
+      <c r="F543" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G543" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H543" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A544" s="5">
+        <v>543</v>
+      </c>
+      <c r="B544" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D544" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E544" s="11">
+        <v>44190</v>
+      </c>
+      <c r="F544" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G544" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H544" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A545" s="5">
+        <v>544</v>
+      </c>
+      <c r="B545" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C545" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D545" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E545" s="11">
+        <v>44180</v>
+      </c>
+      <c r="F545" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G545" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H545" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A546" s="5">
+        <v>545</v>
+      </c>
+      <c r="B546" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D546" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E546" s="11">
+        <v>44191</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G546" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H546" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A547" s="5">
+        <v>546</v>
+      </c>
+      <c r="B547" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C547" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D547" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E547" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G547" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H547" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A548" s="5">
+        <v>547</v>
+      </c>
+      <c r="B548" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C548" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D548" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E548" s="11">
+        <v>44193</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G548" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H548" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+      <c r="A549" s="5">
+        <v>548</v>
+      </c>
+      <c r="B549" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C549" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D549" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E549" s="11">
+        <v>44191</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G549" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H549" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A550" s="5">
+        <v>549</v>
+      </c>
+      <c r="B550" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D550" s="11">
+        <v>44194</v>
+      </c>
+      <c r="E550" s="11">
+        <v>44189</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G550" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H550" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A551" s="5">
+        <v>550</v>
+      </c>
+      <c r="B551" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C551" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D551" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E551" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F551" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G551" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H551" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A552" s="5">
+        <v>551</v>
+      </c>
+      <c r="B552" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C552" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D552" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E552" s="11">
+        <v>44190</v>
+      </c>
+      <c r="F552" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G552" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H552" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A553" s="5">
+        <v>552</v>
+      </c>
+      <c r="B553" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C553" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D553" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E553" s="11">
+        <v>44193</v>
+      </c>
+      <c r="F553" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G553" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H553" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A554" s="5">
+        <v>553</v>
+      </c>
+      <c r="B554" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D554" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E554" s="11">
+        <v>44193</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G554" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H554" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A555" s="5">
+        <v>554</v>
+      </c>
+      <c r="B555" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C555" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D555" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E555" s="11">
+        <v>44192</v>
+      </c>
+      <c r="F555" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G555" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H555" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A556" s="5">
+        <v>555</v>
+      </c>
+      <c r="B556" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D556" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E556" s="11">
+        <v>44193</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G556" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H556" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A557" s="5">
+        <v>556</v>
+      </c>
+      <c r="B557" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D557" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E557" s="11">
+        <v>44194</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H557" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A558" s="5">
+        <v>557</v>
+      </c>
+      <c r="B558" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D558" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E558" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H558" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A559" s="5">
+        <v>558</v>
+      </c>
+      <c r="B559" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D559" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E559" s="11">
+        <v>44194</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H559" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A560" s="5">
+        <v>559</v>
+      </c>
+      <c r="B560" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D560" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E560" s="11">
+        <v>44189</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H560" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A561" s="5">
+        <v>560</v>
+      </c>
+      <c r="B561" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C561" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D561" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E561" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F561" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H561" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A562" s="5">
+        <v>561</v>
+      </c>
+      <c r="B562" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D562" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E562" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H562" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A563" s="5">
+        <v>562</v>
+      </c>
+      <c r="B563" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C563" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D563" s="11">
+        <v>44195</v>
+      </c>
+      <c r="E563" s="11">
+        <v>44194</v>
+      </c>
+      <c r="F563" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H563" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A564" s="5">
+        <v>563</v>
+      </c>
+      <c r="B564" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D564" s="11">
+        <v>44196</v>
+      </c>
+      <c r="E564" s="11">
+        <v>44555</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H564" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A565" s="5">
+        <v>564</v>
+      </c>
+      <c r="B565" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C565" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D565" s="11">
+        <v>44196</v>
+      </c>
+      <c r="E565" s="11">
+        <v>44560</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H565" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A566" s="5">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D566" s="11">
+        <v>44196</v>
+      </c>
+      <c r="E566" s="11">
+        <v>44560</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H566" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A567" s="5">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D567" s="11">
+        <v>44196</v>
+      </c>
+      <c r="E567" s="11">
+        <v>44555</v>
+      </c>
+      <c r="F567" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G567" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H567" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A568" s="5">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D568" s="11">
+        <v>44196</v>
+      </c>
+      <c r="E568" s="11">
+        <v>44559</v>
+      </c>
+      <c r="F568" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G568" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H568" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A569" s="5">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D569" s="11">
+        <v>44196</v>
+      </c>
+      <c r="E569" s="11">
+        <v>44558</v>
+      </c>
+      <c r="F569" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G569" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H569" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A570" s="5">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D570" s="11">
+        <v>44196</v>
+      </c>
+      <c r="E570" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G570" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H570" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A571" s="5">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D571" s="11">
+        <v>44196</v>
+      </c>
+      <c r="E571" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F571" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G571" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H571" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A572" s="5">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D572" s="11">
+        <v>44197</v>
+      </c>
+      <c r="E572" s="11">
+        <v>44561</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G572" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H572" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A573" s="5">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D573" s="11">
+        <v>44197</v>
+      </c>
+      <c r="E573" s="11">
+        <v>44555</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G573" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H573" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A574" s="5">
+        <v>573</v>
+      </c>
+      <c r="B574" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D574" s="11">
+        <v>44197</v>
+      </c>
+      <c r="E574" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F574" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G574" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H574" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A575" s="5">
+        <v>574</v>
+      </c>
+      <c r="B575" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D575" s="11">
+        <v>44197</v>
+      </c>
+      <c r="E575" s="11">
+        <v>44561</v>
+      </c>
+      <c r="F575" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G575" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H575" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A576" s="5">
+        <v>575</v>
+      </c>
+      <c r="B576" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D576" s="11">
+        <v>44197</v>
+      </c>
+      <c r="E576" s="11">
+        <v>44561</v>
+      </c>
+      <c r="F576" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H576" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A577" s="5">
+        <v>576</v>
+      </c>
+      <c r="B577" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D577" s="11">
+        <v>44197</v>
+      </c>
+      <c r="E577" s="11">
+        <v>44561</v>
+      </c>
+      <c r="F577" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G577" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H577" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A578" s="5">
+        <v>577</v>
+      </c>
+      <c r="B578" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D578" s="11">
+        <v>44197</v>
+      </c>
+      <c r="E578" s="11">
+        <v>44557</v>
+      </c>
+      <c r="F578" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H578" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A579" s="5">
+        <v>578</v>
+      </c>
+      <c r="B579" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D579" s="11">
+        <v>44197</v>
+      </c>
+      <c r="E579" s="11">
+        <v>44561</v>
+      </c>
+      <c r="F579" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G579" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H579" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A580" s="5">
+        <v>579</v>
+      </c>
+      <c r="B580" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D580" s="11">
+        <v>44198</v>
+      </c>
+      <c r="E580" s="11">
+        <v>44560</v>
+      </c>
+      <c r="F580" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="G580" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="H580" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A581" s="5">
+        <v>580</v>
+      </c>
+      <c r="B581" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D581" s="11">
+        <v>44198</v>
+      </c>
+      <c r="E581" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F581" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G581" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H581" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A582" s="5">
+        <v>581</v>
+      </c>
+      <c r="B582" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D582" s="11">
+        <v>44198</v>
+      </c>
+      <c r="E582" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F582" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H582" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A583" s="5">
+        <v>582</v>
+      </c>
+      <c r="B583" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C583" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D583" s="11">
+        <v>44198</v>
+      </c>
+      <c r="E583" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F583" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G583" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H583" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A584" s="5">
+        <v>583</v>
+      </c>
+      <c r="B584" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D584" s="11">
+        <v>44198</v>
+      </c>
+      <c r="E584" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F584" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G584" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H584" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A585" s="5">
+        <v>584</v>
+      </c>
+      <c r="B585" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D585" s="11">
+        <v>44199</v>
+      </c>
+      <c r="E585" s="11">
+        <v>44556</v>
+      </c>
+      <c r="F585" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G585" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H585" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A586" s="5">
+        <v>585</v>
+      </c>
+      <c r="B586" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C586" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D586" s="11">
+        <v>44199</v>
+      </c>
+      <c r="E586" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F586" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G586" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H586" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A587" s="5">
+        <v>586</v>
+      </c>
+      <c r="B587" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D587" s="11">
+        <v>44199</v>
+      </c>
+      <c r="E587" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F587" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G587" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H587" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A588" s="5">
+        <v>587</v>
+      </c>
+      <c r="B588" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D588" s="11">
+        <v>44199</v>
+      </c>
+      <c r="E588" s="11">
+        <v>44561</v>
+      </c>
+      <c r="F588" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G588" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H588" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A589" s="5">
+        <v>588</v>
+      </c>
+      <c r="B589" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D589" s="11">
+        <v>44199</v>
+      </c>
+      <c r="E589" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F589" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G589" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H589" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A590" s="5">
+        <v>589</v>
+      </c>
+      <c r="B590" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D590" s="11">
+        <v>44199</v>
+      </c>
+      <c r="E590" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F590" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G590" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H590" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A591" s="5">
+        <v>590</v>
+      </c>
+      <c r="B591" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C591" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D591" s="11">
+        <v>44199</v>
+      </c>
+      <c r="E591" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F591" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G591" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H591" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A592" s="5">
+        <v>591</v>
+      </c>
+      <c r="B592" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D592" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E592" s="17">
+        <v>44199</v>
+      </c>
+      <c r="F592" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G592" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H592" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A593" s="5">
+        <v>592</v>
+      </c>
+      <c r="B593" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D593" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E593" s="17">
+        <v>44198</v>
+      </c>
+      <c r="F593" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G593" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H593" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A594" s="5">
+        <v>593</v>
+      </c>
+      <c r="B594" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D594" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E594" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F594" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G594" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H594" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A595" s="5">
+        <v>594</v>
+      </c>
+      <c r="B595" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C595" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D595" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E595" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F595" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G595" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H595" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A596" s="5">
+        <v>595</v>
+      </c>
+      <c r="B596" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D596" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E596" s="17">
+        <v>44559</v>
+      </c>
+      <c r="F596" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G596" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H596" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A597" s="5">
+        <v>596</v>
+      </c>
+      <c r="B597" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C597" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D597" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E597" s="17">
+        <v>44199</v>
+      </c>
+      <c r="F597" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G597" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H597" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A598" s="5">
+        <v>597</v>
+      </c>
+      <c r="B598" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D598" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E598" s="17">
+        <v>44199</v>
+      </c>
+      <c r="F598" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G598" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H598" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A599" s="5">
+        <v>598</v>
+      </c>
+      <c r="B599" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C599" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D599" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E599" s="17">
+        <v>44199</v>
+      </c>
+      <c r="F599" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G599" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H599" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A600" s="5">
+        <v>599</v>
+      </c>
+      <c r="B600" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D600" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E600" s="17">
+        <v>44555</v>
+      </c>
+      <c r="F600" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G600" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H600" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A601" s="5">
+        <v>600</v>
+      </c>
+      <c r="B601" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C601" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D601" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E601" s="17">
+        <v>44198</v>
+      </c>
+      <c r="F601" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G601" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H601" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A602" s="5">
+        <v>601</v>
+      </c>
+      <c r="B602" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D602" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E602" s="17">
+        <v>44560</v>
+      </c>
+      <c r="F602" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G602" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H602" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A603" s="5">
+        <v>602</v>
+      </c>
+      <c r="B603" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C603" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D603" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E603" s="17">
+        <v>44197</v>
+      </c>
+      <c r="F603" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G603" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H603" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A604" s="5">
+        <v>603</v>
+      </c>
+      <c r="B604" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C604" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D604" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E604" s="17">
+        <v>44561</v>
+      </c>
+      <c r="F604" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G604" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H604" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A605" s="5">
+        <v>604</v>
+      </c>
+      <c r="B605" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C605" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D605" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E605" s="17">
+        <v>44197</v>
+      </c>
+      <c r="F605" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G605" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H605" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A606" s="5">
+        <v>605</v>
+      </c>
+      <c r="B606" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C606" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D606" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E606" s="17">
+        <v>44559</v>
+      </c>
+      <c r="F606" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G606" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H606" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A607" s="5">
+        <v>606</v>
+      </c>
+      <c r="B607" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C607" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D607" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E607" s="17">
+        <v>44560</v>
+      </c>
+      <c r="F607" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G607" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H607" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A608" s="5">
+        <v>607</v>
+      </c>
+      <c r="B608" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D608" s="11">
+        <v>44200</v>
+      </c>
+      <c r="E608" s="17">
+        <v>44198</v>
+      </c>
+      <c r="F608" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G608" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H608" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A609" s="5">
+        <v>608</v>
+      </c>
+      <c r="B609" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C609" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D609" s="11">
+        <v>44201</v>
+      </c>
+      <c r="E609" s="17"/>
+      <c r="F609" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G609" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H609" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A610" s="5">
+        <v>609</v>
+      </c>
+      <c r="B610" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C610" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D610" s="11">
+        <v>44201</v>
+      </c>
+      <c r="E610" s="17"/>
+      <c r="F610" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G610" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H610" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A611" s="5">
+        <v>610</v>
+      </c>
+      <c r="B611" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C611" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D611" s="11">
+        <v>44201</v>
+      </c>
+      <c r="E611" s="17"/>
+      <c r="F611" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G611" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H611" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A612" s="5">
+        <v>611</v>
+      </c>
+      <c r="B612" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D612" s="11">
+        <v>44201</v>
+      </c>
+      <c r="E612" s="17"/>
+      <c r="F612" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G612" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H612" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A613" s="5">
+        <v>612</v>
+      </c>
+      <c r="B613" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C613" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D613" s="11">
+        <v>44201</v>
+      </c>
+      <c r="E613" s="17"/>
+      <c r="F613" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G613" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H613" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A614" s="5">
+        <v>613</v>
+      </c>
+      <c r="B614" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D614" s="11">
+        <v>44201</v>
+      </c>
+      <c r="E614" s="17"/>
+      <c r="F614" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G614" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H614" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A615" s="5">
+        <v>614</v>
+      </c>
+      <c r="B615" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C615" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D615" s="11">
+        <v>44201</v>
+      </c>
+      <c r="E615" s="17"/>
+      <c r="F615" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G615" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H615" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A616" s="5">
+        <v>615</v>
+      </c>
+      <c r="B616" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D616" s="11">
+        <v>44201</v>
+      </c>
+      <c r="E616" s="17"/>
+      <c r="F616" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G616" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H616" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A617" s="5">
+        <v>616</v>
+      </c>
+      <c r="B617" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C617" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D617" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F617" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G617" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H617" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A618" s="5">
+        <v>617</v>
+      </c>
+      <c r="B618" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D618" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F618" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G618" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H618" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A619" s="5">
+        <v>618</v>
+      </c>
+      <c r="B619" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C619" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D619" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F619" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G619" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H619" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A620" s="5">
+        <v>619</v>
+      </c>
+      <c r="B620" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D620" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F620" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G620" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H620" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A621" s="5">
+        <v>620</v>
+      </c>
+      <c r="B621" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C621" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D621" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F621" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G621" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H621" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A622" s="5">
+        <v>621</v>
+      </c>
+      <c r="B622" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D622" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G622" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H622" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A623" s="5">
+        <v>622</v>
+      </c>
+      <c r="B623" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C623" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D623" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F623" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G623" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H623" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A624" s="5">
+        <v>623</v>
+      </c>
+      <c r="B624" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D624" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F624" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G624" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H624" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A625" s="5">
+        <v>624</v>
+      </c>
+      <c r="B625" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C625" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D625" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F625" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G625" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H625" s="6" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00319406\Desktop\コロナ\オープンデータ\0106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\00612_健康増進課\00_新共有フォルダ\03_感染症担当\新型コロナウイルス関連\★報道対応_HP公表(日毎公表、随時更新)\投込み_感染状況（日毎）\◆オープンデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="オープンデータ" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="468">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -3653,6 +3653,157 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲府市、甲斐市、南アルプス市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(富士北麓地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(富士吉田市、忍野村、富士河口湖町)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オシノムラ</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>フジカワグチコ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(笛吹市、甲州市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウシュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲州市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウシュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲斐市、南アルプス市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(甲斐市、北杜市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ホクトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+(富士吉田市、都留市)</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ツルシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>山梨県</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
@@ -3663,6 +3814,65 @@
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4103,29 +4313,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B602" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B625" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F619" sqref="F619"/>
+      <selection pane="bottomRight" activeCell="A609" sqref="A609:H644"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="4"/>
+    <col min="9" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4151,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4177,7 +4387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4203,7 +4413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4229,7 +4439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4255,7 +4465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4281,7 +4491,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4307,7 +4517,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4333,7 +4543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4359,7 +4569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4385,7 +4595,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4411,7 +4621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4437,7 +4647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4463,7 +4673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4489,7 +4699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4515,7 +4725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4541,7 +4751,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4567,7 +4777,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4593,7 +4803,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4619,7 +4829,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4645,7 +4855,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4671,7 +4881,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4697,7 +4907,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4723,7 +4933,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4749,7 +4959,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4775,7 +4985,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4801,7 +5011,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4827,7 +5037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4853,7 +5063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4879,7 +5089,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4905,7 +5115,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4931,7 +5141,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4957,7 +5167,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4983,7 +5193,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5009,7 +5219,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5035,7 +5245,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5061,7 +5271,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5087,7 +5297,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5113,7 +5323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5139,7 +5349,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5165,7 +5375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5191,7 +5401,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5217,7 +5427,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5243,7 +5453,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5269,7 +5479,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5295,7 +5505,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5321,7 +5531,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5347,7 +5557,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5373,7 +5583,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5399,7 +5609,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5425,7 +5635,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5451,7 +5661,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5477,7 +5687,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5503,7 +5713,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5529,7 +5739,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5555,7 +5765,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5581,7 +5791,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5607,7 +5817,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5633,7 +5843,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5659,7 +5869,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5685,7 +5895,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5711,7 +5921,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5737,7 +5947,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5763,7 +5973,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5789,7 +5999,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5815,7 +6025,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -5841,7 +6051,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -5867,7 +6077,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5893,7 +6103,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -5919,7 +6129,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5945,7 +6155,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -5971,7 +6181,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -5997,7 +6207,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6023,7 +6233,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -6049,7 +6259,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6075,7 +6285,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6101,7 +6311,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -6127,7 +6337,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -6153,7 +6363,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -6179,7 +6389,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -6205,7 +6415,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -6231,7 +6441,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -6257,7 +6467,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -6283,7 +6493,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -6309,7 +6519,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -6335,7 +6545,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -6361,7 +6571,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -6387,7 +6597,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -6413,7 +6623,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -6439,7 +6649,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -6465,7 +6675,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -6491,7 +6701,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -6517,7 +6727,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -6543,7 +6753,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -6569,7 +6779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -6595,7 +6805,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -6621,7 +6831,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -6647,7 +6857,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -6673,7 +6883,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -6699,7 +6909,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -6725,7 +6935,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -6751,7 +6961,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -6777,7 +6987,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -6803,7 +7013,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -6829,7 +7039,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -6855,7 +7065,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -6881,7 +7091,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -6907,7 +7117,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -6933,7 +7143,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -6959,7 +7169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -6985,7 +7195,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -7011,7 +7221,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -7037,7 +7247,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -7063,7 +7273,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -7089,7 +7299,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -7115,7 +7325,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -7141,7 +7351,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -7167,7 +7377,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -7193,7 +7403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -7219,7 +7429,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -7245,7 +7455,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -7271,7 +7481,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -7297,7 +7507,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -7323,7 +7533,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -7349,7 +7559,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -7375,7 +7585,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -7401,7 +7611,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -7427,7 +7637,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -7453,7 +7663,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -7479,7 +7689,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -7505,7 +7715,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -7531,7 +7741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -7557,7 +7767,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -7583,7 +7793,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -7609,7 +7819,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -7635,7 +7845,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -7661,7 +7871,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -7687,7 +7897,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -7713,7 +7923,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -7739,7 +7949,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -7765,7 +7975,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -7791,7 +8001,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -7817,7 +8027,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -7843,7 +8053,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -7869,7 +8079,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -7895,7 +8105,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -7921,7 +8131,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -7947,7 +8157,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -7973,7 +8183,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -7999,7 +8209,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -8025,7 +8235,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -8051,7 +8261,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -8077,7 +8287,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -8103,7 +8313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -8129,7 +8339,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -8155,7 +8365,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -8181,7 +8391,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -8207,7 +8417,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -8233,7 +8443,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -8259,7 +8469,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -8285,7 +8495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -8311,7 +8521,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -8337,7 +8547,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -8363,7 +8573,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -8389,7 +8599,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -8415,7 +8625,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -8441,7 +8651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -8467,7 +8677,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -8493,7 +8703,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -8519,7 +8729,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -8545,7 +8755,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -8571,7 +8781,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -8597,7 +8807,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -8623,7 +8833,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -8649,7 +8859,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -8675,7 +8885,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -8701,7 +8911,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -8727,7 +8937,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -8753,7 +8963,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -8779,7 +8989,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -8805,7 +9015,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -8831,7 +9041,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -8857,7 +9067,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -8883,7 +9093,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -8909,7 +9119,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -8935,7 +9145,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -8961,7 +9171,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -8987,7 +9197,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -9013,7 +9223,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -9039,7 +9249,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -9065,7 +9275,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -9091,7 +9301,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -9117,7 +9327,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -9143,7 +9353,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -9169,7 +9379,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -9195,7 +9405,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -9221,7 +9431,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -9247,7 +9457,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -9273,7 +9483,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -9299,7 +9509,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -9325,7 +9535,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -9351,7 +9561,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -9377,7 +9587,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -9403,7 +9613,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -9429,7 +9639,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -9455,7 +9665,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -9481,7 +9691,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -9507,7 +9717,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -9533,7 +9743,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -9559,7 +9769,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -9585,7 +9795,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -9611,7 +9821,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -9637,7 +9847,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -9663,7 +9873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -9689,7 +9899,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -9715,7 +9925,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -9741,7 +9951,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -9767,7 +9977,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -9793,7 +10003,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -9819,7 +10029,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -9845,7 +10055,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -9871,7 +10081,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -9897,7 +10107,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -9923,7 +10133,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -9949,7 +10159,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -9975,7 +10185,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -10001,7 +10211,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -10027,7 +10237,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -10053,7 +10263,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -10079,7 +10289,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -10105,7 +10315,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -10131,7 +10341,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -10157,7 +10367,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -10183,7 +10393,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -10209,7 +10419,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -10235,7 +10445,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -10261,7 +10471,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -10287,7 +10497,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -10313,7 +10523,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -10339,7 +10549,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -10365,7 +10575,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -10391,7 +10601,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -10417,7 +10627,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -10443,7 +10653,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -10469,7 +10679,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -10495,7 +10705,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -10521,7 +10731,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -10547,7 +10757,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -10573,7 +10783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -10599,7 +10809,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -10625,7 +10835,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -10651,7 +10861,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -10677,7 +10887,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -10703,7 +10913,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -10729,7 +10939,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -10755,7 +10965,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -10781,7 +10991,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -10807,7 +11017,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -10833,7 +11043,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -10859,7 +11069,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -10885,7 +11095,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -10911,7 +11121,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -10937,7 +11147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -10963,7 +11173,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -10989,7 +11199,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -11015,7 +11225,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -11041,7 +11251,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -11067,7 +11277,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -11093,7 +11303,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -11119,7 +11329,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -11145,7 +11355,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -11171,7 +11381,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -11197,7 +11407,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -11223,7 +11433,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -11249,7 +11459,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -11275,7 +11485,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -11301,7 +11511,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -11327,7 +11537,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -11353,7 +11563,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -11379,7 +11589,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -11405,7 +11615,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -11431,7 +11641,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -11457,7 +11667,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -11483,7 +11693,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -11509,7 +11719,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -11535,7 +11745,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -11561,7 +11771,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -11587,7 +11797,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -11613,7 +11823,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -11639,7 +11849,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -11665,7 +11875,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -11691,7 +11901,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -11717,7 +11927,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -11743,7 +11953,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -11769,7 +11979,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -11795,7 +12005,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -11821,7 +12031,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -11847,7 +12057,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -11873,7 +12083,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -11899,7 +12109,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -11925,7 +12135,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -11951,7 +12161,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -11977,7 +12187,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -12003,7 +12213,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -12029,7 +12239,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -12055,7 +12265,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -12081,7 +12291,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -12107,7 +12317,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -12133,7 +12343,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12159,7 +12369,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -12185,7 +12395,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -12211,7 +12421,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -12237,7 +12447,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -12263,7 +12473,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -12289,7 +12499,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -12315,7 +12525,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -12341,7 +12551,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -12367,7 +12577,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -12393,7 +12603,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -12419,7 +12629,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -12445,7 +12655,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -12471,7 +12681,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -12497,7 +12707,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A323" s="5">
         <v>322</v>
       </c>
@@ -12523,7 +12733,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A324" s="5">
         <v>323</v>
       </c>
@@ -12549,7 +12759,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A325" s="5">
         <v>324</v>
       </c>
@@ -12575,7 +12785,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A326" s="5">
         <v>325</v>
       </c>
@@ -12601,7 +12811,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A327" s="5">
         <v>326</v>
       </c>
@@ -12627,7 +12837,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A328" s="5">
         <v>327</v>
       </c>
@@ -12653,7 +12863,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A329" s="5">
         <v>328</v>
       </c>
@@ -12679,7 +12889,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A330" s="5">
         <v>329</v>
       </c>
@@ -12705,7 +12915,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A331" s="5">
         <v>330</v>
       </c>
@@ -12731,7 +12941,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A332" s="5">
         <v>331</v>
       </c>
@@ -12757,7 +12967,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A333" s="5">
         <v>332</v>
       </c>
@@ -12783,7 +12993,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A334" s="5">
         <v>333</v>
       </c>
@@ -12809,7 +13019,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A335" s="5">
         <v>334</v>
       </c>
@@ -12835,7 +13045,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A336" s="5">
         <v>335</v>
       </c>
@@ -12861,7 +13071,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A337" s="5">
         <v>336</v>
       </c>
@@ -12887,7 +13097,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A338" s="5">
         <v>337</v>
       </c>
@@ -12913,7 +13123,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A339" s="5">
         <v>338</v>
       </c>
@@ -12939,7 +13149,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -12965,7 +13175,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A341" s="5">
         <v>340</v>
       </c>
@@ -12991,7 +13201,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A342" s="5">
         <v>341</v>
       </c>
@@ -13017,7 +13227,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A343" s="5">
         <v>342</v>
       </c>
@@ -13043,7 +13253,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A344" s="5">
         <v>343</v>
       </c>
@@ -13069,7 +13279,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A345" s="5">
         <v>344</v>
       </c>
@@ -13095,7 +13305,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A346" s="5">
         <v>345</v>
       </c>
@@ -13121,7 +13331,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A347" s="5">
         <v>346</v>
       </c>
@@ -13147,7 +13357,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A348" s="5">
         <v>347</v>
       </c>
@@ -13173,7 +13383,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A349" s="5">
         <v>348</v>
       </c>
@@ -13199,7 +13409,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A350" s="5">
         <v>349</v>
       </c>
@@ -13225,7 +13435,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A351" s="5">
         <v>350</v>
       </c>
@@ -13251,7 +13461,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A352" s="5">
         <v>351</v>
       </c>
@@ -13277,7 +13487,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A353" s="5">
         <v>352</v>
       </c>
@@ -13303,7 +13513,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A354" s="5">
         <v>353</v>
       </c>
@@ -13329,7 +13539,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A355" s="5">
         <v>354</v>
       </c>
@@ -13355,7 +13565,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A356" s="5">
         <v>355</v>
       </c>
@@ -13381,7 +13591,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A357" s="5">
         <v>356</v>
       </c>
@@ -13407,7 +13617,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A358" s="5">
         <v>357</v>
       </c>
@@ -13433,7 +13643,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A359" s="5">
         <v>358</v>
       </c>
@@ -13459,7 +13669,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A360" s="5">
         <v>359</v>
       </c>
@@ -13485,7 +13695,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A361" s="5">
         <v>360</v>
       </c>
@@ -13511,7 +13721,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A362" s="5">
         <v>361</v>
       </c>
@@ -13537,7 +13747,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A363" s="5">
         <v>362</v>
       </c>
@@ -13563,7 +13773,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A364" s="5">
         <v>363</v>
       </c>
@@ -13589,7 +13799,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A365" s="5">
         <v>364</v>
       </c>
@@ -13615,7 +13825,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A366" s="5">
         <v>365</v>
       </c>
@@ -13641,7 +13851,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A367" s="5">
         <v>366</v>
       </c>
@@ -13667,7 +13877,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A368" s="5">
         <v>367</v>
       </c>
@@ -13693,7 +13903,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A369" s="5">
         <v>368</v>
       </c>
@@ -13719,7 +13929,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A370" s="5">
         <v>369</v>
       </c>
@@ -13745,7 +13955,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A371" s="5">
         <v>370</v>
       </c>
@@ -13771,7 +13981,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A372" s="5">
         <v>371</v>
       </c>
@@ -13797,7 +14007,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A373" s="5">
         <v>372</v>
       </c>
@@ -13823,7 +14033,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A374" s="5">
         <v>373</v>
       </c>
@@ -13849,7 +14059,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A375" s="5">
         <v>374</v>
       </c>
@@ -13875,7 +14085,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A376" s="5">
         <v>375</v>
       </c>
@@ -13901,7 +14111,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A377" s="5">
         <v>376</v>
       </c>
@@ -13927,7 +14137,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A378" s="5">
         <v>377</v>
       </c>
@@ -13953,7 +14163,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A379" s="5">
         <v>378</v>
       </c>
@@ -13970,7 +14180,7 @@
         <v>44167</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A380" s="5">
         <v>379</v>
       </c>
@@ -13996,7 +14206,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A381" s="5">
         <v>380</v>
       </c>
@@ -14022,7 +14232,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A382" s="5">
         <v>381</v>
       </c>
@@ -14048,7 +14258,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -14074,7 +14284,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -14100,7 +14310,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -14126,7 +14336,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A386" s="5">
         <v>385</v>
       </c>
@@ -14152,7 +14362,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A387" s="5">
         <v>386</v>
       </c>
@@ -14178,7 +14388,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A388" s="5">
         <v>387</v>
       </c>
@@ -14204,7 +14414,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A389" s="5">
         <v>388</v>
       </c>
@@ -14230,7 +14440,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A390" s="5">
         <v>389</v>
       </c>
@@ -14256,7 +14466,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A391" s="5">
         <v>390</v>
       </c>
@@ -14282,7 +14492,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A392" s="5">
         <v>391</v>
       </c>
@@ -14308,7 +14518,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A393" s="5">
         <v>392</v>
       </c>
@@ -14334,7 +14544,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A394" s="5">
         <v>393</v>
       </c>
@@ -14360,7 +14570,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -14386,7 +14596,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -14412,7 +14622,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -14438,7 +14648,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -14464,7 +14674,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -14490,7 +14700,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -14516,7 +14726,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -14542,7 +14752,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -14568,7 +14778,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -14594,7 +14804,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -14620,7 +14830,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -14646,7 +14856,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -14672,7 +14882,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -14698,7 +14908,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A408" s="5">
         <v>407</v>
       </c>
@@ -14724,7 +14934,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A409" s="5">
         <v>408</v>
       </c>
@@ -14750,7 +14960,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A410" s="5">
         <v>409</v>
       </c>
@@ -14776,7 +14986,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A411" s="5">
         <v>410</v>
       </c>
@@ -14802,7 +15012,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A412" s="5">
         <v>411</v>
       </c>
@@ -14828,7 +15038,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A413" s="5">
         <v>412</v>
       </c>
@@ -14854,7 +15064,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -14880,7 +15090,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A415" s="5">
         <v>414</v>
       </c>
@@ -14906,7 +15116,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A416" s="5">
         <v>415</v>
       </c>
@@ -14932,7 +15142,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -14958,7 +15168,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -14984,7 +15194,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A419" s="5">
         <v>418</v>
       </c>
@@ -15010,7 +15220,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A420" s="5">
         <v>419</v>
       </c>
@@ -15036,7 +15246,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A421" s="5">
         <v>420</v>
       </c>
@@ -15062,7 +15272,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A422" s="5">
         <v>421</v>
       </c>
@@ -15088,7 +15298,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A423" s="5">
         <v>422</v>
       </c>
@@ -15114,7 +15324,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A424" s="5">
         <v>423</v>
       </c>
@@ -15140,7 +15350,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A425" s="5">
         <v>424</v>
       </c>
@@ -15166,7 +15376,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A426" s="5">
         <v>425</v>
       </c>
@@ -15192,7 +15402,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A427" s="5">
         <v>426</v>
       </c>
@@ -15218,7 +15428,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A428" s="5">
         <v>427</v>
       </c>
@@ -15244,7 +15454,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A429" s="5">
         <v>428</v>
       </c>
@@ -15270,7 +15480,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A430" s="5">
         <v>429</v>
       </c>
@@ -15296,7 +15506,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A431" s="5">
         <v>430</v>
       </c>
@@ -15322,7 +15532,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A432" s="5">
         <v>431</v>
       </c>
@@ -15348,7 +15558,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A433" s="5">
         <v>432</v>
       </c>
@@ -15374,7 +15584,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A434" s="5">
         <v>433</v>
       </c>
@@ -15400,7 +15610,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A435" s="5">
         <v>434</v>
       </c>
@@ -15426,7 +15636,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A436" s="5">
         <v>435</v>
       </c>
@@ -15452,7 +15662,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A437" s="5">
         <v>436</v>
       </c>
@@ -15478,7 +15688,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A438" s="5">
         <v>437</v>
       </c>
@@ -15504,7 +15714,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A439" s="5">
         <v>438</v>
       </c>
@@ -15530,7 +15740,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A440" s="5">
         <v>439</v>
       </c>
@@ -15556,7 +15766,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A441" s="5">
         <v>440</v>
       </c>
@@ -15582,7 +15792,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A442" s="5">
         <v>441</v>
       </c>
@@ -15608,7 +15818,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A443" s="5">
         <v>442</v>
       </c>
@@ -15634,7 +15844,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A444" s="5">
         <v>443</v>
       </c>
@@ -15660,7 +15870,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A445" s="5">
         <v>444</v>
       </c>
@@ -15686,7 +15896,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A446" s="5">
         <v>445</v>
       </c>
@@ -15712,7 +15922,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A447" s="5">
         <v>446</v>
       </c>
@@ -15738,7 +15948,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A448" s="5">
         <v>447</v>
       </c>
@@ -15764,7 +15974,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="54" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A449" s="5">
         <v>448</v>
       </c>
@@ -15790,7 +16000,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A450" s="5">
         <v>449</v>
       </c>
@@ -15817,7 +16027,7 @@
       </c>
       <c r="J450" s="16"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A451" s="5">
         <v>450</v>
       </c>
@@ -15843,7 +16053,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A452" s="5">
         <v>451</v>
       </c>
@@ -15869,7 +16079,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A453" s="5">
         <v>452</v>
       </c>
@@ -15895,7 +16105,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A454" s="5">
         <v>453</v>
       </c>
@@ -15921,7 +16131,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="54" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A455" s="5">
         <v>454</v>
       </c>
@@ -15947,7 +16157,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="54" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A456" s="5">
         <v>455</v>
       </c>
@@ -15973,7 +16183,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A457" s="5">
         <v>456</v>
       </c>
@@ -15999,7 +16209,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A458" s="5">
         <v>457</v>
       </c>
@@ -16025,7 +16235,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A459" s="5">
         <v>458</v>
       </c>
@@ -16051,7 +16261,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A460" s="5">
         <v>459</v>
       </c>
@@ -16077,7 +16287,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A461" s="5">
         <v>460</v>
       </c>
@@ -16103,7 +16313,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A462" s="5">
         <v>461</v>
       </c>
@@ -16129,7 +16339,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A463" s="5">
         <v>462</v>
       </c>
@@ -16155,7 +16365,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A464" s="5">
         <v>463</v>
       </c>
@@ -16181,7 +16391,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A465" s="5">
         <v>464</v>
       </c>
@@ -16207,7 +16417,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A466" s="5">
         <v>465</v>
       </c>
@@ -16233,7 +16443,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A467" s="5">
         <v>466</v>
       </c>
@@ -16259,7 +16469,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A468" s="5">
         <v>467</v>
       </c>
@@ -16285,7 +16495,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A469" s="5">
         <v>468</v>
       </c>
@@ -16311,7 +16521,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A470" s="5">
         <v>469</v>
       </c>
@@ -16337,7 +16547,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A471" s="5">
         <v>470</v>
       </c>
@@ -16363,7 +16573,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A472" s="5">
         <v>471</v>
       </c>
@@ -16389,7 +16599,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A473" s="5">
         <v>472</v>
       </c>
@@ -16415,7 +16625,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A474" s="5">
         <v>473</v>
       </c>
@@ -16441,7 +16651,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A475" s="5">
         <v>474</v>
       </c>
@@ -16467,7 +16677,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A476" s="5">
         <v>475</v>
       </c>
@@ -16493,7 +16703,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A477" s="5">
         <v>476</v>
       </c>
@@ -16519,7 +16729,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A478" s="5">
         <v>477</v>
       </c>
@@ -16545,7 +16755,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A479" s="5">
         <v>478</v>
       </c>
@@ -16571,7 +16781,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A480" s="5">
         <v>479</v>
       </c>
@@ -16597,7 +16807,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A481" s="5">
         <v>480</v>
       </c>
@@ -16623,7 +16833,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A482" s="5">
         <v>481</v>
       </c>
@@ -16649,7 +16859,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A483" s="5">
         <v>482</v>
       </c>
@@ -16675,7 +16885,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A484" s="5">
         <v>483</v>
       </c>
@@ -16701,7 +16911,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A485" s="5">
         <v>484</v>
       </c>
@@ -16727,7 +16937,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A486" s="5">
         <v>485</v>
       </c>
@@ -16753,7 +16963,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A487" s="5">
         <v>486</v>
       </c>
@@ -16779,7 +16989,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A488" s="5">
         <v>487</v>
       </c>
@@ -16805,7 +17015,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A489" s="5">
         <v>488</v>
       </c>
@@ -16831,7 +17041,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A490" s="5">
         <v>489</v>
       </c>
@@ -16857,7 +17067,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A491" s="5">
         <v>490</v>
       </c>
@@ -16883,7 +17093,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A492" s="5">
         <v>491</v>
       </c>
@@ -16909,7 +17119,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A493" s="5">
         <v>492</v>
       </c>
@@ -16935,7 +17145,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A494" s="5">
         <v>493</v>
       </c>
@@ -16961,7 +17171,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A495" s="5">
         <v>494</v>
       </c>
@@ -16987,7 +17197,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A496" s="5">
         <v>495</v>
       </c>
@@ -17013,7 +17223,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A497" s="5">
         <v>496</v>
       </c>
@@ -17039,7 +17249,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A498" s="5">
         <v>497</v>
       </c>
@@ -17065,7 +17275,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A499" s="5">
         <v>498</v>
       </c>
@@ -17091,7 +17301,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A500" s="5">
         <v>499</v>
       </c>
@@ -17117,7 +17327,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A501" s="5">
         <v>500</v>
       </c>
@@ -17143,7 +17353,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A502" s="5">
         <v>501</v>
       </c>
@@ -17169,7 +17379,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A503" s="5">
         <v>502</v>
       </c>
@@ -17195,7 +17405,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A504" s="5">
         <v>503</v>
       </c>
@@ -17221,7 +17431,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A505" s="5">
         <v>504</v>
       </c>
@@ -17247,7 +17457,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A506" s="5">
         <v>505</v>
       </c>
@@ -17273,7 +17483,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A507" s="5">
         <v>506</v>
       </c>
@@ -17299,7 +17509,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A508" s="5">
         <v>507</v>
       </c>
@@ -17325,7 +17535,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A509" s="5">
         <v>508</v>
       </c>
@@ -17351,7 +17561,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A510" s="5">
         <v>509</v>
       </c>
@@ -17377,7 +17587,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A511" s="5">
         <v>510</v>
       </c>
@@ -17403,7 +17613,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A512" s="5">
         <v>511</v>
       </c>
@@ -17429,7 +17639,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A513" s="5">
         <v>512</v>
       </c>
@@ -17455,7 +17665,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A514" s="5">
         <v>513</v>
       </c>
@@ -17481,7 +17691,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A515" s="5">
         <v>514</v>
       </c>
@@ -17507,7 +17717,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A516" s="5">
         <v>515</v>
       </c>
@@ -17533,7 +17743,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A517" s="5">
         <v>516</v>
       </c>
@@ -17559,7 +17769,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A518" s="5">
         <v>517</v>
       </c>
@@ -17585,7 +17795,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A519" s="5">
         <v>518</v>
       </c>
@@ -17611,7 +17821,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A520" s="5">
         <v>519</v>
       </c>
@@ -17637,7 +17847,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A521" s="5">
         <v>520</v>
       </c>
@@ -17663,7 +17873,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A522" s="5">
         <v>521</v>
       </c>
@@ -17689,7 +17899,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A523" s="5">
         <v>522</v>
       </c>
@@ -17715,7 +17925,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A524" s="5">
         <v>523</v>
       </c>
@@ -17741,7 +17951,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A525" s="5">
         <v>524</v>
       </c>
@@ -17767,7 +17977,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A526" s="5">
         <v>525</v>
       </c>
@@ -17793,7 +18003,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A527" s="5">
         <v>526</v>
       </c>
@@ -17819,7 +18029,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A528" s="5">
         <v>527</v>
       </c>
@@ -17845,7 +18055,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A529" s="5">
         <v>528</v>
       </c>
@@ -17871,7 +18081,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A530" s="5">
         <v>529</v>
       </c>
@@ -17897,7 +18107,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A531" s="5">
         <v>530</v>
       </c>
@@ -17923,7 +18133,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A532" s="5">
         <v>531</v>
       </c>
@@ -17949,7 +18159,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A533" s="5">
         <v>532</v>
       </c>
@@ -17975,7 +18185,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A534" s="5">
         <v>533</v>
       </c>
@@ -18001,7 +18211,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A535" s="5">
         <v>534</v>
       </c>
@@ -18027,7 +18237,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A536" s="5">
         <v>535</v>
       </c>
@@ -18053,7 +18263,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A537" s="5">
         <v>536</v>
       </c>
@@ -18079,7 +18289,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A538" s="5">
         <v>537</v>
       </c>
@@ -18105,7 +18315,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A539" s="5">
         <v>538</v>
       </c>
@@ -18131,7 +18341,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A540" s="5">
         <v>539</v>
       </c>
@@ -18157,7 +18367,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A541" s="5">
         <v>540</v>
       </c>
@@ -18183,7 +18393,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A542" s="5">
         <v>541</v>
       </c>
@@ -18209,7 +18419,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A543" s="5">
         <v>542</v>
       </c>
@@ -18235,7 +18445,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A544" s="5">
         <v>543</v>
       </c>
@@ -18261,7 +18471,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A545" s="5">
         <v>544</v>
       </c>
@@ -18287,7 +18497,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A546" s="5">
         <v>545</v>
       </c>
@@ -18313,7 +18523,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A547" s="5">
         <v>546</v>
       </c>
@@ -18339,7 +18549,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A548" s="5">
         <v>547</v>
       </c>
@@ -18365,7 +18575,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A549" s="5">
         <v>548</v>
       </c>
@@ -18391,7 +18601,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A550" s="5">
         <v>549</v>
       </c>
@@ -18417,7 +18627,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A551" s="5">
         <v>550</v>
       </c>
@@ -18443,7 +18653,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A552" s="5">
         <v>551</v>
       </c>
@@ -18469,7 +18679,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A553" s="5">
         <v>552</v>
       </c>
@@ -18495,7 +18705,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A554" s="5">
         <v>553</v>
       </c>
@@ -18521,7 +18731,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A555" s="5">
         <v>554</v>
       </c>
@@ -18547,7 +18757,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A556" s="5">
         <v>555</v>
       </c>
@@ -18573,7 +18783,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A557" s="5">
         <v>556</v>
       </c>
@@ -18599,7 +18809,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A558" s="5">
         <v>557</v>
       </c>
@@ -18625,7 +18835,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A559" s="5">
         <v>558</v>
       </c>
@@ -18651,7 +18861,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A560" s="5">
         <v>559</v>
       </c>
@@ -18677,7 +18887,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A561" s="5">
         <v>560</v>
       </c>
@@ -18703,7 +18913,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A562" s="5">
         <v>561</v>
       </c>
@@ -18729,7 +18939,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A563" s="5">
         <v>562</v>
       </c>
@@ -18755,7 +18965,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A564" s="5">
         <v>563</v>
       </c>
@@ -18781,7 +18991,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A565" s="5">
         <v>564</v>
       </c>
@@ -18807,7 +19017,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A566" s="5">
         <v>565</v>
       </c>
@@ -18833,7 +19043,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A567" s="5">
         <v>566</v>
       </c>
@@ -18859,7 +19069,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A568" s="5">
         <v>567</v>
       </c>
@@ -18885,7 +19095,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A569" s="5">
         <v>568</v>
       </c>
@@ -18911,7 +19121,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A570" s="5">
         <v>569</v>
       </c>
@@ -18937,7 +19147,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A571" s="5">
         <v>570</v>
       </c>
@@ -18963,7 +19173,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A572" s="5">
         <v>571</v>
       </c>
@@ -18989,7 +19199,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A573" s="5">
         <v>572</v>
       </c>
@@ -19015,7 +19225,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A574" s="5">
         <v>573</v>
       </c>
@@ -19041,7 +19251,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A575" s="5">
         <v>574</v>
       </c>
@@ -19067,7 +19277,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A576" s="5">
         <v>575</v>
       </c>
@@ -19093,7 +19303,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A577" s="5">
         <v>576</v>
       </c>
@@ -19119,7 +19329,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A578" s="5">
         <v>577</v>
       </c>
@@ -19145,7 +19355,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A579" s="5">
         <v>578</v>
       </c>
@@ -19171,7 +19381,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A580" s="5">
         <v>579</v>
       </c>
@@ -19197,7 +19407,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A581" s="5">
         <v>580</v>
       </c>
@@ -19223,7 +19433,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A582" s="5">
         <v>581</v>
       </c>
@@ -19249,7 +19459,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A583" s="5">
         <v>582</v>
       </c>
@@ -19275,7 +19485,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A584" s="5">
         <v>583</v>
       </c>
@@ -19301,7 +19511,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A585" s="5">
         <v>584</v>
       </c>
@@ -19327,7 +19537,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A586" s="5">
         <v>585</v>
       </c>
@@ -19353,7 +19563,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A587" s="5">
         <v>586</v>
       </c>
@@ -19379,7 +19589,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A588" s="5">
         <v>587</v>
       </c>
@@ -19405,7 +19615,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A589" s="5">
         <v>588</v>
       </c>
@@ -19431,7 +19641,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A590" s="5">
         <v>589</v>
       </c>
@@ -19457,7 +19667,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A591" s="5">
         <v>590</v>
       </c>
@@ -19483,7 +19693,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A592" s="5">
         <v>591</v>
       </c>
@@ -19509,7 +19719,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A593" s="5">
         <v>592</v>
       </c>
@@ -19535,7 +19745,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A594" s="5">
         <v>593</v>
       </c>
@@ -19561,7 +19771,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A595" s="5">
         <v>594</v>
       </c>
@@ -19587,7 +19797,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A596" s="5">
         <v>595</v>
       </c>
@@ -19613,7 +19823,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A597" s="5">
         <v>596</v>
       </c>
@@ -19639,7 +19849,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A598" s="5">
         <v>597</v>
       </c>
@@ -19665,7 +19875,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A599" s="5">
         <v>598</v>
       </c>
@@ -19691,7 +19901,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A600" s="5">
         <v>599</v>
       </c>
@@ -19717,7 +19927,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A601" s="5">
         <v>600</v>
       </c>
@@ -19743,7 +19953,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A602" s="5">
         <v>601</v>
       </c>
@@ -19769,7 +19979,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A603" s="5">
         <v>602</v>
       </c>
@@ -19795,7 +20005,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A604" s="5">
         <v>603</v>
       </c>
@@ -19821,7 +20031,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A605" s="5">
         <v>604</v>
       </c>
@@ -19847,7 +20057,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A606" s="5">
         <v>605</v>
       </c>
@@ -19873,7 +20083,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A607" s="5">
         <v>606</v>
       </c>
@@ -19899,7 +20109,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A608" s="5">
         <v>607</v>
       </c>
@@ -19925,7 +20135,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A609" s="5">
         <v>608</v>
       </c>
@@ -19938,18 +20148,20 @@
       <c r="D609" s="11">
         <v>44201</v>
       </c>
-      <c r="E609" s="17"/>
+      <c r="E609" s="17">
+        <v>44197</v>
+      </c>
       <c r="F609" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G609" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H609" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H609" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A610" s="5">
         <v>609</v>
       </c>
@@ -19969,11 +20181,11 @@
       <c r="G610" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H610" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H610" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A611" s="5">
         <v>610</v>
       </c>
@@ -19993,11 +20205,11 @@
       <c r="G611" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H611" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H611" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A612" s="5">
         <v>611</v>
       </c>
@@ -20010,18 +20222,20 @@
       <c r="D612" s="11">
         <v>44201</v>
       </c>
-      <c r="E612" s="17"/>
+      <c r="E612" s="17">
+        <v>44555</v>
+      </c>
       <c r="F612" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G612" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H612" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H612" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A613" s="5">
         <v>612</v>
       </c>
@@ -20034,18 +20248,20 @@
       <c r="D613" s="11">
         <v>44201</v>
       </c>
-      <c r="E613" s="17"/>
+      <c r="E613" s="17">
+        <v>44550</v>
+      </c>
       <c r="F613" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G613" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H613" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H613" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A614" s="5">
         <v>613</v>
       </c>
@@ -20058,18 +20274,20 @@
       <c r="D614" s="11">
         <v>44201</v>
       </c>
-      <c r="E614" s="17"/>
+      <c r="E614" s="17">
+        <v>44200</v>
+      </c>
       <c r="F614" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G614" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H614" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H614" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A615" s="5">
         <v>614</v>
       </c>
@@ -20082,18 +20300,20 @@
       <c r="D615" s="11">
         <v>44201</v>
       </c>
-      <c r="E615" s="17"/>
+      <c r="E615" s="17">
+        <v>44560</v>
+      </c>
       <c r="F615" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G615" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H615" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H615" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A616" s="5">
         <v>615</v>
       </c>
@@ -20113,11 +20333,11 @@
       <c r="G616" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H616" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H616" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A617" s="5">
         <v>616</v>
       </c>
@@ -20130,17 +20350,20 @@
       <c r="D617" s="11">
         <v>44201</v>
       </c>
+      <c r="E617" s="11">
+        <v>44199</v>
+      </c>
       <c r="F617" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G617" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H617" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H617" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A618" s="5">
         <v>617</v>
       </c>
@@ -20153,6 +20376,9 @@
       <c r="D618" s="11">
         <v>44201</v>
       </c>
+      <c r="E618" s="11">
+        <v>44561</v>
+      </c>
       <c r="F618" s="5" t="s">
         <v>25</v>
       </c>
@@ -20160,10 +20386,10 @@
         <v>446</v>
       </c>
       <c r="H618" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A619" s="5">
         <v>618</v>
       </c>
@@ -20176,17 +20402,20 @@
       <c r="D619" s="11">
         <v>44201</v>
       </c>
+      <c r="E619" s="11">
+        <v>44200</v>
+      </c>
       <c r="F619" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G619" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="H619" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H619" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A620" s="5">
         <v>619</v>
       </c>
@@ -20205,11 +20434,11 @@
       <c r="G620" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="H620" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H620" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A621" s="5">
         <v>620</v>
       </c>
@@ -20222,17 +20451,20 @@
       <c r="D621" s="11">
         <v>44201</v>
       </c>
+      <c r="E621" s="11">
+        <v>44201</v>
+      </c>
       <c r="F621" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G621" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="H621" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H621" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A622" s="5">
         <v>621</v>
       </c>
@@ -20245,17 +20477,20 @@
       <c r="D622" s="11">
         <v>44201</v>
       </c>
+      <c r="E622" s="11">
+        <v>44199</v>
+      </c>
       <c r="F622" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G622" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="H622" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H622" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A623" s="5">
         <v>622</v>
       </c>
@@ -20268,17 +20503,20 @@
       <c r="D623" s="11">
         <v>44201</v>
       </c>
+      <c r="E623" s="11">
+        <v>44561</v>
+      </c>
       <c r="F623" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G623" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="H623" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H623" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A624" s="5">
         <v>623</v>
       </c>
@@ -20291,17 +20529,20 @@
       <c r="D624" s="11">
         <v>44201</v>
       </c>
+      <c r="E624" s="11">
+        <v>44200</v>
+      </c>
       <c r="F624" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G624" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="H624" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H624" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A625" s="5">
         <v>624</v>
       </c>
@@ -20314,6 +20555,9 @@
       <c r="D625" s="11">
         <v>44201</v>
       </c>
+      <c r="E625" s="11">
+        <v>44200</v>
+      </c>
       <c r="F625" s="5" t="s">
         <v>27</v>
       </c>
@@ -20321,7 +20565,444 @@
         <v>445</v>
       </c>
       <c r="H625" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A626" s="5">
+        <v>625</v>
+      </c>
+      <c r="B626" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D626" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F626" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G626" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H626" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A627" s="5">
+        <v>626</v>
+      </c>
+      <c r="B627" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C627" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D627" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F627" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G627" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H627" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A628" s="5">
+        <v>627</v>
+      </c>
+      <c r="B628" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C628" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D628" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F628" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G628" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H628" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A629" s="5">
+        <v>628</v>
+      </c>
+      <c r="B629" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C629" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D629" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F629" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G629" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H629" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A630" s="5">
+        <v>629</v>
+      </c>
+      <c r="B630" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D630" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F630" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G630" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H630" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A631" s="5">
+        <v>630</v>
+      </c>
+      <c r="B631" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C631" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D631" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F631" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G631" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H631" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A632" s="5">
+        <v>631</v>
+      </c>
+      <c r="B632" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D632" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F632" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G632" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H632" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A633" s="5">
+        <v>632</v>
+      </c>
+      <c r="B633" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C633" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D633" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F633" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G633" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H633" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A634" s="5">
+        <v>633</v>
+      </c>
+      <c r="B634" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D634" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F634" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G634" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H634" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A635" s="5">
+        <v>634</v>
+      </c>
+      <c r="B635" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C635" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D635" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F635" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G635" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H635" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A636" s="5">
+        <v>635</v>
+      </c>
+      <c r="B636" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C636" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D636" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F636" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G636" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H636" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A637" s="5">
+        <v>636</v>
+      </c>
+      <c r="B637" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C637" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D637" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F637" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G637" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H637" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A638" s="5">
+        <v>637</v>
+      </c>
+      <c r="B638" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C638" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D638" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F638" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G638" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H638" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A639" s="5">
+        <v>638</v>
+      </c>
+      <c r="B639" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C639" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D639" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F639" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G639" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H639" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A640" s="5">
+        <v>639</v>
+      </c>
+      <c r="B640" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C640" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D640" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F640" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G640" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H640" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A641" s="5">
+        <v>640</v>
+      </c>
+      <c r="B641" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C641" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D641" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F641" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G641" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H641" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A642" s="5">
+        <v>641</v>
+      </c>
+      <c r="B642" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C642" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D642" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F642" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G642" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H642" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A643" s="5">
+        <v>642</v>
+      </c>
+      <c r="B643" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C643" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D643" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F643" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G643" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H643" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A644" s="5">
+        <v>643</v>
+      </c>
+      <c r="B644" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D644" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F644" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G644" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H644" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -15,7 +15,7 @@
     <sheet name="オープンデータ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">オープンデータ!$A$1:$H$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">オープンデータ!$A$1:$H$679</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="473">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -3873,6 +3873,53 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京都
+（北杜市）</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホクトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（北杜市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホクトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士河口湖町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>フジカワグチコマチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3884,7 +3931,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3946,14 +3993,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3972,11 +4011,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4023,15 +4061,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4313,13 +4347,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J644"/>
+  <dimension ref="A1:H679"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B625" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B662" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A609" sqref="A609:H644"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15974,7 +16008,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A449" s="5">
         <v>448</v>
       </c>
@@ -16000,7 +16034,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A450" s="5">
         <v>449</v>
       </c>
@@ -16025,9 +16059,8 @@
       <c r="H450" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="J450" s="16"/>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A451" s="5">
         <v>450</v>
       </c>
@@ -16053,7 +16086,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A452" s="5">
         <v>451</v>
       </c>
@@ -16079,7 +16112,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A453" s="5">
         <v>452</v>
       </c>
@@ -16105,7 +16138,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A454" s="5">
         <v>453</v>
       </c>
@@ -16131,7 +16164,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A455" s="5">
         <v>454</v>
       </c>
@@ -16157,7 +16190,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A456" s="5">
         <v>455</v>
       </c>
@@ -16183,7 +16216,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A457" s="5">
         <v>456</v>
       </c>
@@ -16209,7 +16242,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A458" s="5">
         <v>457</v>
       </c>
@@ -16235,7 +16268,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A459" s="5">
         <v>458</v>
       </c>
@@ -16261,7 +16294,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A460" s="5">
         <v>459</v>
       </c>
@@ -16287,7 +16320,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A461" s="5">
         <v>460</v>
       </c>
@@ -16313,7 +16346,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A462" s="5">
         <v>461</v>
       </c>
@@ -16339,7 +16372,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A463" s="5">
         <v>462</v>
       </c>
@@ -16365,7 +16398,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A464" s="5">
         <v>463</v>
       </c>
@@ -19706,7 +19739,7 @@
       <c r="D592" s="11">
         <v>44200</v>
       </c>
-      <c r="E592" s="17">
+      <c r="E592" s="16">
         <v>44199</v>
       </c>
       <c r="F592" s="5" t="s">
@@ -19732,7 +19765,7 @@
       <c r="D593" s="11">
         <v>44200</v>
       </c>
-      <c r="E593" s="17">
+      <c r="E593" s="16">
         <v>44198</v>
       </c>
       <c r="F593" s="5" t="s">
@@ -19758,7 +19791,7 @@
       <c r="D594" s="11">
         <v>44200</v>
       </c>
-      <c r="E594" s="17" t="s">
+      <c r="E594" s="16" t="s">
         <v>442</v>
       </c>
       <c r="F594" s="5" t="s">
@@ -19784,7 +19817,7 @@
       <c r="D595" s="11">
         <v>44200</v>
       </c>
-      <c r="E595" s="17" t="s">
+      <c r="E595" s="16" t="s">
         <v>442</v>
       </c>
       <c r="F595" s="5" t="s">
@@ -19810,7 +19843,7 @@
       <c r="D596" s="11">
         <v>44200</v>
       </c>
-      <c r="E596" s="17">
+      <c r="E596" s="16">
         <v>44559</v>
       </c>
       <c r="F596" s="5" t="s">
@@ -19836,7 +19869,7 @@
       <c r="D597" s="11">
         <v>44200</v>
       </c>
-      <c r="E597" s="17">
+      <c r="E597" s="16">
         <v>44199</v>
       </c>
       <c r="F597" s="5" t="s">
@@ -19862,7 +19895,7 @@
       <c r="D598" s="11">
         <v>44200</v>
       </c>
-      <c r="E598" s="17">
+      <c r="E598" s="16">
         <v>44199</v>
       </c>
       <c r="F598" s="5" t="s">
@@ -19888,7 +19921,7 @@
       <c r="D599" s="11">
         <v>44200</v>
       </c>
-      <c r="E599" s="17">
+      <c r="E599" s="16">
         <v>44199</v>
       </c>
       <c r="F599" s="5" t="s">
@@ -19914,7 +19947,7 @@
       <c r="D600" s="11">
         <v>44200</v>
       </c>
-      <c r="E600" s="17">
+      <c r="E600" s="16">
         <v>44555</v>
       </c>
       <c r="F600" s="5" t="s">
@@ -19940,7 +19973,7 @@
       <c r="D601" s="11">
         <v>44200</v>
       </c>
-      <c r="E601" s="17">
+      <c r="E601" s="16">
         <v>44198</v>
       </c>
       <c r="F601" s="5" t="s">
@@ -19966,7 +19999,7 @@
       <c r="D602" s="11">
         <v>44200</v>
       </c>
-      <c r="E602" s="17">
+      <c r="E602" s="16">
         <v>44560</v>
       </c>
       <c r="F602" s="5" t="s">
@@ -19992,7 +20025,7 @@
       <c r="D603" s="11">
         <v>44200</v>
       </c>
-      <c r="E603" s="17">
+      <c r="E603" s="16">
         <v>44197</v>
       </c>
       <c r="F603" s="5" t="s">
@@ -20018,7 +20051,7 @@
       <c r="D604" s="11">
         <v>44200</v>
       </c>
-      <c r="E604" s="17">
+      <c r="E604" s="16">
         <v>44561</v>
       </c>
       <c r="F604" s="5" t="s">
@@ -20044,7 +20077,7 @@
       <c r="D605" s="11">
         <v>44200</v>
       </c>
-      <c r="E605" s="17">
+      <c r="E605" s="16">
         <v>44197</v>
       </c>
       <c r="F605" s="5" t="s">
@@ -20070,7 +20103,7 @@
       <c r="D606" s="11">
         <v>44200</v>
       </c>
-      <c r="E606" s="17">
+      <c r="E606" s="16">
         <v>44559</v>
       </c>
       <c r="F606" s="5" t="s">
@@ -20096,7 +20129,7 @@
       <c r="D607" s="11">
         <v>44200</v>
       </c>
-      <c r="E607" s="17">
+      <c r="E607" s="16">
         <v>44560</v>
       </c>
       <c r="F607" s="5" t="s">
@@ -20122,7 +20155,7 @@
       <c r="D608" s="11">
         <v>44200</v>
       </c>
-      <c r="E608" s="17">
+      <c r="E608" s="16">
         <v>44198</v>
       </c>
       <c r="F608" s="5" t="s">
@@ -20148,7 +20181,7 @@
       <c r="D609" s="11">
         <v>44201</v>
       </c>
-      <c r="E609" s="17">
+      <c r="E609" s="16">
         <v>44197</v>
       </c>
       <c r="F609" s="5" t="s">
@@ -20174,7 +20207,9 @@
       <c r="D610" s="11">
         <v>44201</v>
       </c>
-      <c r="E610" s="17"/>
+      <c r="E610" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="F610" s="5" t="s">
         <v>39</v>
       </c>
@@ -20198,7 +20233,9 @@
       <c r="D611" s="11">
         <v>44201</v>
       </c>
-      <c r="E611" s="17"/>
+      <c r="E611" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="F611" s="5" t="s">
         <v>39</v>
       </c>
@@ -20222,7 +20259,7 @@
       <c r="D612" s="11">
         <v>44201</v>
       </c>
-      <c r="E612" s="17">
+      <c r="E612" s="16">
         <v>44555</v>
       </c>
       <c r="F612" s="5" t="s">
@@ -20248,7 +20285,7 @@
       <c r="D613" s="11">
         <v>44201</v>
       </c>
-      <c r="E613" s="17">
+      <c r="E613" s="16">
         <v>44550</v>
       </c>
       <c r="F613" s="5" t="s">
@@ -20274,7 +20311,7 @@
       <c r="D614" s="11">
         <v>44201</v>
       </c>
-      <c r="E614" s="17">
+      <c r="E614" s="16">
         <v>44200</v>
       </c>
       <c r="F614" s="5" t="s">
@@ -20300,7 +20337,7 @@
       <c r="D615" s="11">
         <v>44201</v>
       </c>
-      <c r="E615" s="17">
+      <c r="E615" s="16">
         <v>44560</v>
       </c>
       <c r="F615" s="5" t="s">
@@ -20326,7 +20363,9 @@
       <c r="D616" s="11">
         <v>44201</v>
       </c>
-      <c r="E616" s="17"/>
+      <c r="E616" s="16" t="s">
+        <v>331</v>
+      </c>
       <c r="F616" s="5" t="s">
         <v>37</v>
       </c>
@@ -20428,6 +20467,9 @@
       <c r="D620" s="11">
         <v>44201</v>
       </c>
+      <c r="E620" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="F620" s="5" t="s">
         <v>115</v>
       </c>
@@ -20568,7 +20610,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A626" s="5">
         <v>625</v>
       </c>
@@ -20581,17 +20623,20 @@
       <c r="D626" s="11">
         <v>44202</v>
       </c>
+      <c r="E626" s="11">
+        <v>44200</v>
+      </c>
       <c r="F626" s="5" t="s">
         <v>456</v>
       </c>
       <c r="G626" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H626" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H626" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A627" s="5">
         <v>626</v>
       </c>
@@ -20604,14 +20649,17 @@
       <c r="D627" s="11">
         <v>44202</v>
       </c>
+      <c r="E627" s="11">
+        <v>44561</v>
+      </c>
       <c r="F627" s="5" t="s">
         <v>460</v>
       </c>
       <c r="G627" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H627" s="6" t="s">
-        <v>458</v>
+      <c r="H627" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.4">
@@ -20627,6 +20675,9 @@
       <c r="D628" s="11">
         <v>44202</v>
       </c>
+      <c r="E628" s="11">
+        <v>44201</v>
+      </c>
       <c r="F628" s="5" t="s">
         <v>460</v>
       </c>
@@ -20650,6 +20701,9 @@
       <c r="D629" s="11">
         <v>44202</v>
       </c>
+      <c r="E629" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="F629" s="5" t="s">
         <v>456</v>
       </c>
@@ -20673,6 +20727,9 @@
       <c r="D630" s="11">
         <v>44202</v>
       </c>
+      <c r="E630" s="11">
+        <v>44201</v>
+      </c>
       <c r="F630" s="5" t="s">
         <v>462</v>
       </c>
@@ -20683,7 +20740,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A631" s="5">
         <v>630</v>
       </c>
@@ -20696,17 +20753,20 @@
       <c r="D631" s="11">
         <v>44202</v>
       </c>
+      <c r="E631" s="11">
+        <v>44201</v>
+      </c>
       <c r="F631" s="5" t="s">
         <v>463</v>
       </c>
       <c r="G631" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="H631" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H631" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A632" s="5">
         <v>631</v>
       </c>
@@ -20719,17 +20779,20 @@
       <c r="D632" s="11">
         <v>44202</v>
       </c>
+      <c r="E632" s="11">
+        <v>44199</v>
+      </c>
       <c r="F632" s="5" t="s">
         <v>464</v>
       </c>
       <c r="G632" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="H632" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H632" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A633" s="5">
         <v>632</v>
       </c>
@@ -20742,17 +20805,20 @@
       <c r="D633" s="11">
         <v>44202</v>
       </c>
+      <c r="E633" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="F633" s="5" t="s">
         <v>463</v>
       </c>
       <c r="G633" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="H633" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H633" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A634" s="5">
         <v>633</v>
       </c>
@@ -20765,17 +20831,20 @@
       <c r="D634" s="11">
         <v>44202</v>
       </c>
+      <c r="E634" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="F634" s="5" t="s">
         <v>465</v>
       </c>
       <c r="G634" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="H634" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H634" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A635" s="5">
         <v>634</v>
       </c>
@@ -20788,17 +20857,20 @@
       <c r="D635" s="11">
         <v>44202</v>
       </c>
+      <c r="E635" s="11">
+        <v>44557</v>
+      </c>
       <c r="F635" s="5" t="s">
         <v>466</v>
       </c>
       <c r="G635" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H635" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H635" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A636" s="5">
         <v>635</v>
       </c>
@@ -20811,17 +20883,20 @@
       <c r="D636" s="11">
         <v>44202</v>
       </c>
+      <c r="E636" s="11">
+        <v>44200</v>
+      </c>
       <c r="F636" s="5" t="s">
         <v>463</v>
       </c>
       <c r="G636" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="H636" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H636" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A637" s="5">
         <v>636</v>
       </c>
@@ -20834,17 +20909,20 @@
       <c r="D637" s="11">
         <v>44202</v>
       </c>
+      <c r="E637" s="11">
+        <v>44201</v>
+      </c>
       <c r="F637" s="5" t="s">
         <v>464</v>
       </c>
       <c r="G637" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H637" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H637" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A638" s="5">
         <v>637</v>
       </c>
@@ -20857,17 +20935,20 @@
       <c r="D638" s="11">
         <v>44202</v>
       </c>
+      <c r="E638" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="F638" s="5" t="s">
         <v>467</v>
       </c>
       <c r="G638" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H638" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H638" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A639" s="5">
         <v>638</v>
       </c>
@@ -20880,17 +20961,20 @@
       <c r="D639" s="11">
         <v>44202</v>
       </c>
+      <c r="E639" s="11">
+        <v>44201</v>
+      </c>
       <c r="F639" s="5" t="s">
         <v>456</v>
       </c>
       <c r="G639" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="H639" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H639" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A640" s="5">
         <v>639</v>
       </c>
@@ -20903,17 +20987,20 @@
       <c r="D640" s="11">
         <v>44202</v>
       </c>
+      <c r="E640" s="11">
+        <v>44201</v>
+      </c>
       <c r="F640" s="5" t="s">
         <v>462</v>
       </c>
       <c r="G640" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H640" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H640" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A641" s="5">
         <v>640</v>
       </c>
@@ -20926,17 +21013,20 @@
       <c r="D641" s="11">
         <v>44202</v>
       </c>
+      <c r="E641" s="11">
+        <v>44200</v>
+      </c>
       <c r="F641" s="5" t="s">
         <v>462</v>
       </c>
       <c r="G641" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H641" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H641" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A642" s="5">
         <v>641</v>
       </c>
@@ -20949,17 +21039,20 @@
       <c r="D642" s="11">
         <v>44202</v>
       </c>
+      <c r="E642" s="11">
+        <v>44197</v>
+      </c>
       <c r="F642" s="5" t="s">
         <v>460</v>
       </c>
       <c r="G642" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H642" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H642" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A643" s="5">
         <v>642</v>
       </c>
@@ -20972,14 +21065,17 @@
       <c r="D643" s="11">
         <v>44202</v>
       </c>
+      <c r="E643" s="11">
+        <v>44201</v>
+      </c>
       <c r="F643" s="5" t="s">
         <v>466</v>
       </c>
       <c r="G643" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H643" s="6" t="s">
-        <v>458</v>
+      <c r="H643" s="7" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.4">
@@ -21005,8 +21101,768 @@
         <v>458</v>
       </c>
     </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A645" s="5">
+        <v>644</v>
+      </c>
+      <c r="B645" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C645" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D645" s="11">
+        <v>44203</v>
+      </c>
+      <c r="E645" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F645" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G645" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H645" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A646" s="5">
+        <v>645</v>
+      </c>
+      <c r="B646" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C646" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D646" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F646" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G646" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A647" s="5">
+        <v>646</v>
+      </c>
+      <c r="B647" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C647" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D647" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F647" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G647" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A648" s="5">
+        <v>647</v>
+      </c>
+      <c r="B648" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C648" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D648" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F648" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G648" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A649" s="5">
+        <v>648</v>
+      </c>
+      <c r="B649" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C649" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D649" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F649" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G649" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A650" s="5">
+        <v>649</v>
+      </c>
+      <c r="B650" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C650" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D650" s="11">
+        <v>44203</v>
+      </c>
+      <c r="E650" s="11">
+        <v>44560</v>
+      </c>
+      <c r="F650" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G650" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H650" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A651" s="5">
+        <v>650</v>
+      </c>
+      <c r="B651" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C651" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D651" s="11">
+        <v>44203</v>
+      </c>
+      <c r="E651" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F651" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G651" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H651" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A652" s="5">
+        <v>651</v>
+      </c>
+      <c r="B652" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C652" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D652" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F652" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G652" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A653" s="5">
+        <v>652</v>
+      </c>
+      <c r="B653" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C653" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D653" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F653" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G653" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H653" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A654" s="5">
+        <v>653</v>
+      </c>
+      <c r="B654" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C654" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D654" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F654" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G654" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A655" s="5">
+        <v>654</v>
+      </c>
+      <c r="B655" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C655" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D655" s="11">
+        <v>44203</v>
+      </c>
+      <c r="E655" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F655" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G655" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A656" s="5">
+        <v>655</v>
+      </c>
+      <c r="B656" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C656" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D656" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F656" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G656" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A657" s="5">
+        <v>656</v>
+      </c>
+      <c r="B657" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C657" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D657" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F657" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G657" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A658" s="5">
+        <v>657</v>
+      </c>
+      <c r="B658" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C658" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D658" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F658" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G658" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H658" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A659" s="5">
+        <v>658</v>
+      </c>
+      <c r="B659" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C659" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D659" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F659" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G659" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H659" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A660" s="5">
+        <v>659</v>
+      </c>
+      <c r="B660" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D660" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F660" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G660" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H660" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A661" s="5">
+        <v>660</v>
+      </c>
+      <c r="B661" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C661" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D661" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F661" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G661" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H661" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A662" s="5">
+        <v>661</v>
+      </c>
+      <c r="B662" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C662" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D662" s="11">
+        <v>44203</v>
+      </c>
+      <c r="E662" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F662" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G662" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H662" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A663" s="5">
+        <v>662</v>
+      </c>
+      <c r="B663" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C663" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D663" s="11">
+        <v>44203</v>
+      </c>
+      <c r="E663" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F663" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G663" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H663" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A664" s="5">
+        <v>663</v>
+      </c>
+      <c r="B664" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C664" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D664" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F664" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G664" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H664" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A665" s="5">
+        <v>664</v>
+      </c>
+      <c r="B665" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C665" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D665" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F665" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G665" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A666" s="5">
+        <v>665</v>
+      </c>
+      <c r="B666" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D666" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F666" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G666" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A667" s="5">
+        <v>666</v>
+      </c>
+      <c r="B667" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C667" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D667" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F667" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G667" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A668" s="5">
+        <v>667</v>
+      </c>
+      <c r="B668" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D668" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F668" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G668" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A669" s="5">
+        <v>668</v>
+      </c>
+      <c r="B669" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C669" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D669" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F669" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G669" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A670" s="5">
+        <v>669</v>
+      </c>
+      <c r="B670" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D670" s="11">
+        <v>44203</v>
+      </c>
+      <c r="E670" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F670" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G670" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A671" s="5">
+        <v>670</v>
+      </c>
+      <c r="B671" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C671" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D671" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F671" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G671" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A672" s="5">
+        <v>671</v>
+      </c>
+      <c r="B672" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C672" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D672" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F672" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G672" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A673" s="5">
+        <v>672</v>
+      </c>
+      <c r="B673" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C673" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D673" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F673" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G673" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A674" s="5">
+        <v>673</v>
+      </c>
+      <c r="B674" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C674" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D674" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F674" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G674" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A675" s="5">
+        <v>674</v>
+      </c>
+      <c r="B675" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C675" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D675" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F675" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G675" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A676" s="5">
+        <v>675</v>
+      </c>
+      <c r="B676" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C676" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D676" s="11">
+        <v>44203</v>
+      </c>
+      <c r="E676" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F676" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G676" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A677" s="5">
+        <v>676</v>
+      </c>
+      <c r="B677" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C677" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D677" s="11">
+        <v>44203</v>
+      </c>
+      <c r="E677" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F677" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G677" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A678" s="5">
+        <v>677</v>
+      </c>
+      <c r="B678" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C678" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D678" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F678" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G678" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A679" s="5">
+        <v>678</v>
+      </c>
+      <c r="B679" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C679" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D679" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F679" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G679" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H293"/>
+  <autoFilter ref="A1:H679"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/work/19_yamanashi.xlsx
+++ b/work/19_yamanashi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="547">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -3804,13 +3804,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山梨県</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマナシケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>甲府市</t>
     <rPh sb="0" eb="3">
       <t>コウフシ</t>
@@ -3920,6 +3913,792 @@
     </rPh>
     <rPh sb="5" eb="11">
       <t>フジカワグチコマチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士吉田市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士吉田市、忍野村）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オシノムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（峡南地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウナン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（山梨市、大月市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヤマナシシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>オオツキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（笛吹市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フエフキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（都留市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ツルシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（大月市、上野原市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>オオツキシ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ウエノハラシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、北杜市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ホクトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、南アルプス市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲斐市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、昭和町、富士川町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>フジカワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、南アルプス市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、甲斐市、韮崎市、富士吉田市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ニラサキシ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、甲斐市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、甲斐市、富士吉田市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、韮崎市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニラサキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、峡南地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウナン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士北麓地域）</t>
+    <rPh sb="5" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（富士吉田市、山中湖村）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>フジヨシダシ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ヤマナカコムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（南アルプス市、中央市、身延町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>チュウオウシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ミノブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、甲州市、富士・東部地域）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウシュウシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、韮崎市、南アルプス市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニラサキシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、韮崎市、南アルプス市、甲斐市、昭和町）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニラサキシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ショウワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、山梨市、甲州市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヤマナシシ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウシュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県
+（甲府市、甲州市）</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウフシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウシュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲府市</t>
+    <rPh sb="0" eb="3">
+      <t>コウフシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4347,13 +5126,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H679"/>
+  <dimension ref="A1:H820"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B662" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B799" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="H820" sqref="H820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20653,7 +21432,7 @@
         <v>44561</v>
       </c>
       <c r="F627" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G627" s="5" t="s">
         <v>457</v>
@@ -20679,13 +21458,13 @@
         <v>44201</v>
       </c>
       <c r="F628" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G628" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="G628" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="H628" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.4">
@@ -20711,7 +21490,7 @@
         <v>457</v>
       </c>
       <c r="H629" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.4">
@@ -20731,13 +21510,13 @@
         <v>44201</v>
       </c>
       <c r="F630" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G630" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H630" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="631" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -20757,10 +21536,10 @@
         <v>44201</v>
       </c>
       <c r="F631" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G631" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H631" s="7" t="s">
         <v>334</v>
@@ -20783,10 +21562,10 @@
         <v>44199</v>
       </c>
       <c r="F632" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G632" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H632" s="7" t="s">
         <v>315</v>
@@ -20809,10 +21588,10 @@
         <v>331</v>
       </c>
       <c r="F633" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G633" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H633" s="7" t="s">
         <v>315</v>
@@ -20835,10 +21614,10 @@
         <v>331</v>
       </c>
       <c r="F634" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G634" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H634" s="7" t="s">
         <v>334</v>
@@ -20861,13 +21640,13 @@
         <v>44557</v>
       </c>
       <c r="F635" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G635" s="5" t="s">
         <v>457</v>
       </c>
       <c r="H635" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="636" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -20887,10 +21666,10 @@
         <v>44200</v>
       </c>
       <c r="F636" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G636" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H636" s="7" t="s">
         <v>317</v>
@@ -20913,7 +21692,7 @@
         <v>44201</v>
       </c>
       <c r="F637" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G637" s="5" t="s">
         <v>457</v>
@@ -20939,7 +21718,7 @@
         <v>331</v>
       </c>
       <c r="F638" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G638" s="5" t="s">
         <v>457</v>
@@ -20968,7 +21747,7 @@
         <v>456</v>
       </c>
       <c r="G639" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H639" s="7" t="s">
         <v>334</v>
@@ -20991,7 +21770,7 @@
         <v>44201</v>
       </c>
       <c r="F640" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G640" s="5" t="s">
         <v>457</v>
@@ -21017,7 +21796,7 @@
         <v>44200</v>
       </c>
       <c r="F641" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G641" s="5" t="s">
         <v>457</v>
@@ -21043,13 +21822,13 @@
         <v>44197</v>
       </c>
       <c r="F642" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G642" s="5" t="s">
         <v>457</v>
       </c>
       <c r="H642" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="643" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -21069,16 +21848,16 @@
         <v>44201</v>
       </c>
       <c r="F643" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G643" s="5" t="s">
         <v>457</v>
       </c>
       <c r="H643" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A644" s="5">
         <v>643</v>
       </c>
@@ -21091,14 +21870,17 @@
       <c r="D644" s="11">
         <v>44202</v>
       </c>
+      <c r="E644" s="11">
+        <v>44201</v>
+      </c>
       <c r="F644" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G644" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="H644" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
+      </c>
+      <c r="H644" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.4">
@@ -21127,7 +21909,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A646" s="5">
         <v>645</v>
       </c>
@@ -21140,14 +21922,20 @@
       <c r="D646" s="11">
         <v>44203</v>
       </c>
+      <c r="E646" s="11">
+        <v>44201</v>
+      </c>
       <c r="F646" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G646" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H646" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A647" s="5">
         <v>646</v>
       </c>
@@ -21160,14 +21948,20 @@
       <c r="D647" s="11">
         <v>44203</v>
       </c>
+      <c r="E647" s="11">
+        <v>44201</v>
+      </c>
       <c r="F647" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G647" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H647" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A648" s="5">
         <v>647</v>
       </c>
@@ -21180,14 +21974,20 @@
       <c r="D648" s="11">
         <v>44203</v>
       </c>
+      <c r="E648" s="11">
+        <v>44202</v>
+      </c>
       <c r="F648" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G648" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H648" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A649" s="5">
         <v>648</v>
       </c>
@@ -21200,11 +22000,17 @@
       <c r="D649" s="11">
         <v>44203</v>
       </c>
+      <c r="E649" s="11">
+        <v>44201</v>
+      </c>
       <c r="F649" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G649" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="H649" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.4">
@@ -21259,7 +22065,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A652" s="5">
         <v>651</v>
       </c>
@@ -21272,11 +22078,17 @@
       <c r="D652" s="11">
         <v>44203</v>
       </c>
+      <c r="E652" s="11">
+        <v>44202</v>
+      </c>
       <c r="F652" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G652" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H652" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.4">
@@ -21292,6 +22104,9 @@
       <c r="D653" s="11">
         <v>44203</v>
       </c>
+      <c r="E653" s="11">
+        <v>44202</v>
+      </c>
       <c r="F653" s="5" t="s">
         <v>33</v>
       </c>
@@ -21299,10 +22114,10 @@
         <v>31</v>
       </c>
       <c r="H653" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A654" s="5">
         <v>653</v>
       </c>
@@ -21315,14 +22130,20 @@
       <c r="D654" s="11">
         <v>44203</v>
       </c>
+      <c r="E654" s="11">
+        <v>44199</v>
+      </c>
       <c r="F654" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G654" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H654" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A655" s="5">
         <v>654</v>
       </c>
@@ -21344,8 +22165,11 @@
       <c r="G655" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H655" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A656" s="5">
         <v>655</v>
       </c>
@@ -21358,14 +22182,20 @@
       <c r="D656" s="11">
         <v>44203</v>
       </c>
+      <c r="E656" s="11">
+        <v>44198</v>
+      </c>
       <c r="F656" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G656" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H656" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A657" s="5">
         <v>656</v>
       </c>
@@ -21378,11 +22208,17 @@
       <c r="D657" s="11">
         <v>44203</v>
       </c>
+      <c r="E657" s="11">
+        <v>44202</v>
+      </c>
       <c r="F657" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G657" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H657" s="7" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.4">
@@ -21398,6 +22234,9 @@
       <c r="D658" s="11">
         <v>44203</v>
       </c>
+      <c r="E658" s="11">
+        <v>44198</v>
+      </c>
       <c r="F658" s="5" t="s">
         <v>39</v>
       </c>
@@ -21421,6 +22260,9 @@
       <c r="D659" s="11">
         <v>44203</v>
       </c>
+      <c r="E659" s="11">
+        <v>44199</v>
+      </c>
       <c r="F659" s="5" t="s">
         <v>27</v>
       </c>
@@ -21444,6 +22286,9 @@
       <c r="D660" s="11">
         <v>44203</v>
       </c>
+      <c r="E660" s="11">
+        <v>44201</v>
+      </c>
       <c r="F660" s="5" t="s">
         <v>27</v>
       </c>
@@ -21451,7 +22296,7 @@
         <v>28</v>
       </c>
       <c r="H660" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.4">
@@ -21467,6 +22312,9 @@
       <c r="D661" s="11">
         <v>44203</v>
       </c>
+      <c r="E661" s="11">
+        <v>44198</v>
+      </c>
       <c r="F661" s="5" t="s">
         <v>36</v>
       </c>
@@ -21490,8 +22338,8 @@
       <c r="D662" s="11">
         <v>44203</v>
       </c>
-      <c r="E662" s="11" t="s">
-        <v>331</v>
+      <c r="E662" s="11">
+        <v>44198</v>
       </c>
       <c r="F662" s="5" t="s">
         <v>25</v>
@@ -21500,7 +22348,7 @@
         <v>31</v>
       </c>
       <c r="H662" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.4">
@@ -21542,6 +22390,9 @@
       <c r="D664" s="11">
         <v>44203</v>
       </c>
+      <c r="E664" s="11">
+        <v>44202</v>
+      </c>
       <c r="F664" s="5" t="s">
         <v>27</v>
       </c>
@@ -21549,10 +22400,10 @@
         <v>31</v>
       </c>
       <c r="H664" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A665" s="5">
         <v>664</v>
       </c>
@@ -21565,14 +22416,20 @@
       <c r="D665" s="11">
         <v>44203</v>
       </c>
+      <c r="E665" s="11">
+        <v>44201</v>
+      </c>
       <c r="F665" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G665" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H665" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A666" s="5">
         <v>665</v>
       </c>
@@ -21585,14 +22442,20 @@
       <c r="D666" s="11">
         <v>44203</v>
       </c>
+      <c r="E666" s="11">
+        <v>44202</v>
+      </c>
       <c r="F666" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G666" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H666" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A667" s="5">
         <v>666</v>
       </c>
@@ -21605,14 +22468,20 @@
       <c r="D667" s="11">
         <v>44203</v>
       </c>
+      <c r="E667" s="11">
+        <v>44203</v>
+      </c>
       <c r="F667" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G667" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H667" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A668" s="5">
         <v>667</v>
       </c>
@@ -21625,14 +22494,20 @@
       <c r="D668" s="11">
         <v>44203</v>
       </c>
+      <c r="E668" s="11">
+        <v>44201</v>
+      </c>
       <c r="F668" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G668" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H668" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A669" s="5">
         <v>668</v>
       </c>
@@ -21645,14 +22520,20 @@
       <c r="D669" s="11">
         <v>44203</v>
       </c>
+      <c r="E669" s="11">
+        <v>44202</v>
+      </c>
       <c r="F669" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G669" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H669" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A670" s="5">
         <v>669</v>
       </c>
@@ -21674,8 +22555,11 @@
       <c r="G670" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H670" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A671" s="5">
         <v>670</v>
       </c>
@@ -21688,14 +22572,20 @@
       <c r="D671" s="11">
         <v>44203</v>
       </c>
+      <c r="E671" s="11">
+        <v>44201</v>
+      </c>
       <c r="F671" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G671" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H671" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A672" s="5">
         <v>671</v>
       </c>
@@ -21708,14 +22598,20 @@
       <c r="D672" s="11">
         <v>44203</v>
       </c>
+      <c r="E672" s="11">
+        <v>44201</v>
+      </c>
       <c r="F672" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G672" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H672" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A673" s="5">
         <v>672</v>
       </c>
@@ -21728,14 +22624,20 @@
       <c r="D673" s="11">
         <v>44203</v>
       </c>
+      <c r="E673" s="11">
+        <v>44200</v>
+      </c>
       <c r="F673" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G673" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H673" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A674" s="5">
         <v>673</v>
       </c>
@@ -21748,14 +22650,20 @@
       <c r="D674" s="11">
         <v>44203</v>
       </c>
+      <c r="E674" s="11">
+        <v>44199</v>
+      </c>
       <c r="F674" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G674" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H674" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A675" s="5">
         <v>674</v>
       </c>
@@ -21768,14 +22676,20 @@
       <c r="D675" s="11">
         <v>44203</v>
       </c>
+      <c r="E675" s="11">
+        <v>44198</v>
+      </c>
       <c r="F675" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G675" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H675" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A676" s="5">
         <v>675</v>
       </c>
@@ -21797,8 +22711,11 @@
       <c r="G676" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H676" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A677" s="5">
         <v>676</v>
       </c>
@@ -21815,13 +22732,16 @@
         <v>331</v>
       </c>
       <c r="F677" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G677" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H677" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A678" s="5">
         <v>677</v>
       </c>
@@ -21834,14 +22754,20 @@
       <c r="D678" s="11">
         <v>44203</v>
       </c>
+      <c r="E678" s="11">
+        <v>44560</v>
+      </c>
       <c r="F678" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G678" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H678" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A679" s="5">
         <v>678</v>
       </c>
@@ -21854,11 +22780,3611 @@
       <c r="D679" s="11">
         <v>44203</v>
       </c>
+      <c r="E679" s="11">
+        <v>44202</v>
+      </c>
       <c r="F679" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G679" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="H679" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A680" s="5">
+        <v>679</v>
+      </c>
+      <c r="B680" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C680" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D680" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E680" s="11">
+        <v>44198</v>
+      </c>
+      <c r="F680" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G680" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H680" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A681" s="5">
+        <v>680</v>
+      </c>
+      <c r="B681" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C681" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D681" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E681" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F681" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G681" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H681" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A682" s="5">
+        <v>681</v>
+      </c>
+      <c r="B682" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C682" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D682" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E682" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F682" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G682" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H682" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A683" s="5">
+        <v>682</v>
+      </c>
+      <c r="B683" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C683" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D683" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E683" s="11">
+        <v>44560</v>
+      </c>
+      <c r="F683" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="G683" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H683" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A684" s="5">
+        <v>683</v>
+      </c>
+      <c r="B684" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D684" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E684" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F684" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G684" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H684" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A685" s="5">
+        <v>684</v>
+      </c>
+      <c r="B685" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C685" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D685" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E685" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F685" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G685" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H685" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A686" s="5">
+        <v>685</v>
+      </c>
+      <c r="B686" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D686" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E686" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F686" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G686" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H686" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A687" s="5">
+        <v>686</v>
+      </c>
+      <c r="B687" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D687" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E687" s="11">
+        <v>44198</v>
+      </c>
+      <c r="F687" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G687" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H687" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A688" s="5">
+        <v>687</v>
+      </c>
+      <c r="B688" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C688" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D688" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E688" s="11">
+        <v>44560</v>
+      </c>
+      <c r="F688" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G688" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H688" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A689" s="5">
+        <v>688</v>
+      </c>
+      <c r="B689" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C689" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D689" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E689" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F689" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G689" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H689" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A690" s="5">
+        <v>689</v>
+      </c>
+      <c r="B690" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C690" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D690" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E690" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F690" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G690" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H690" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A691" s="5">
+        <v>690</v>
+      </c>
+      <c r="B691" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C691" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D691" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E691" s="11">
+        <v>44200</v>
+      </c>
+      <c r="F691" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G691" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H691" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A692" s="5">
+        <v>691</v>
+      </c>
+      <c r="B692" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D692" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E692" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F692" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G692" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H692" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A693" s="5">
+        <v>692</v>
+      </c>
+      <c r="B693" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D693" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E693" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F693" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G693" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H693" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A694" s="5">
+        <v>693</v>
+      </c>
+      <c r="B694" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D694" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E694" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F694" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G694" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H694" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A695" s="5">
+        <v>694</v>
+      </c>
+      <c r="B695" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C695" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D695" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E695" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F695" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G695" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H695" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A696" s="5">
+        <v>695</v>
+      </c>
+      <c r="B696" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C696" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D696" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E696" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F696" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G696" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H696" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A697" s="5">
+        <v>696</v>
+      </c>
+      <c r="B697" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C697" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D697" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E697" s="11">
+        <v>44199</v>
+      </c>
+      <c r="F697" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G697" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H697" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A698" s="5">
+        <v>697</v>
+      </c>
+      <c r="B698" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C698" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D698" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E698" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F698" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G698" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H698" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A699" s="5">
+        <v>698</v>
+      </c>
+      <c r="B699" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C699" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D699" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E699" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F699" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G699" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H699" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A700" s="5">
+        <v>699</v>
+      </c>
+      <c r="B700" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D700" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E700" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F700" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G700" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H700" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A701" s="5">
+        <v>700</v>
+      </c>
+      <c r="B701" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C701" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D701" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E701" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F701" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G701" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H701" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A702" s="5">
+        <v>701</v>
+      </c>
+      <c r="B702" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C702" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D702" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E702" s="11">
+        <v>44561</v>
+      </c>
+      <c r="F702" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G702" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H702" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A703" s="5">
+        <v>702</v>
+      </c>
+      <c r="B703" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C703" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D703" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E703" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F703" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G703" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H703" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A704" s="5">
+        <v>703</v>
+      </c>
+      <c r="B704" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C704" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D704" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E704" s="11">
+        <v>44204</v>
+      </c>
+      <c r="F704" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G704" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H704" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A705" s="5">
+        <v>704</v>
+      </c>
+      <c r="B705" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C705" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D705" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E705" s="11">
+        <v>44204</v>
+      </c>
+      <c r="F705" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G705" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H705" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A706" s="5">
+        <v>705</v>
+      </c>
+      <c r="B706" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D706" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E706" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F706" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G706" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H706" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A707" s="5">
+        <v>706</v>
+      </c>
+      <c r="B707" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C707" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D707" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E707" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F707" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G707" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H707" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A708" s="5">
+        <v>707</v>
+      </c>
+      <c r="B708" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D708" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E708" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F708" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G708" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H708" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A709" s="5">
+        <v>708</v>
+      </c>
+      <c r="B709" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C709" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D709" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E709" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F709" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G709" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H709" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A710" s="5">
+        <v>709</v>
+      </c>
+      <c r="B710" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D710" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E710" s="11">
+        <v>44198</v>
+      </c>
+      <c r="F710" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G710" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H710" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A711" s="5">
+        <v>710</v>
+      </c>
+      <c r="B711" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C711" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D711" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E711" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F711" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G711" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H711" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A712" s="5">
+        <v>711</v>
+      </c>
+      <c r="B712" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D712" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E712" s="11">
+        <v>44199</v>
+      </c>
+      <c r="F712" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G712" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H712" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A713" s="5">
+        <v>712</v>
+      </c>
+      <c r="B713" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C713" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D713" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E713" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F713" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G713" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H713" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A714" s="5">
+        <v>713</v>
+      </c>
+      <c r="B714" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D714" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E714" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F714" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G714" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H714" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A715" s="5">
+        <v>714</v>
+      </c>
+      <c r="B715" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C715" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D715" s="11">
+        <v>44204</v>
+      </c>
+      <c r="E715" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F715" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G715" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H715" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A716" s="5">
+        <v>715</v>
+      </c>
+      <c r="B716" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D716" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E716" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F716" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G716" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H716" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A717" s="5">
+        <v>716</v>
+      </c>
+      <c r="B717" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C717" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D717" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E717" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F717" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G717" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H717" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A718" s="5">
+        <v>717</v>
+      </c>
+      <c r="B718" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C718" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D718" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E718" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F718" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G718" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H718" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A719" s="5">
+        <v>718</v>
+      </c>
+      <c r="B719" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C719" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D719" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E719" s="11">
+        <v>44204</v>
+      </c>
+      <c r="F719" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G719" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H719" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A720" s="5">
+        <v>719</v>
+      </c>
+      <c r="B720" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C720" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D720" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E720" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F720" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G720" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H720" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A721" s="5">
+        <v>720</v>
+      </c>
+      <c r="B721" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C721" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D721" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E721" s="11">
+        <v>44205</v>
+      </c>
+      <c r="F721" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G721" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H721" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A722" s="5">
+        <v>721</v>
+      </c>
+      <c r="B722" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C722" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D722" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E722" s="11">
+        <v>44204</v>
+      </c>
+      <c r="F722" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G722" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H722" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A723" s="5">
+        <v>722</v>
+      </c>
+      <c r="B723" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C723" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D723" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E723" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F723" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G723" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H723" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A724" s="5">
+        <v>723</v>
+      </c>
+      <c r="B724" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C724" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D724" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E724" s="11">
+        <v>44205</v>
+      </c>
+      <c r="F724" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G724" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H724" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A725" s="5">
+        <v>724</v>
+      </c>
+      <c r="B725" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C725" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D725" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E725" s="11">
+        <v>44204</v>
+      </c>
+      <c r="F725" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G725" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H725" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A726" s="5">
+        <v>725</v>
+      </c>
+      <c r="B726" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C726" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D726" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E726" s="11">
+        <v>44202</v>
+      </c>
+      <c r="F726" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G726" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H726" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A727" s="5">
+        <v>726</v>
+      </c>
+      <c r="B727" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C727" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D727" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E727" s="11">
+        <v>44204</v>
+      </c>
+      <c r="F727" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G727" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H727" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A728" s="5">
+        <v>727</v>
+      </c>
+      <c r="B728" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C728" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D728" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E728" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F728" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G728" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H728" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A729" s="5">
+        <v>728</v>
+      </c>
+      <c r="B729" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C729" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D729" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E729" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F729" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G729" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H729" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A730" s="5">
+        <v>729</v>
+      </c>
+      <c r="B730" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C730" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D730" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E730" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F730" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G730" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H730" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A731" s="5">
+        <v>730</v>
+      </c>
+      <c r="B731" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C731" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D731" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E731" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F731" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G731" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H731" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A732" s="5">
+        <v>731</v>
+      </c>
+      <c r="B732" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C732" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D732" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E732" s="11">
+        <v>44205</v>
+      </c>
+      <c r="F732" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G732" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H732" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A733" s="5">
+        <v>732</v>
+      </c>
+      <c r="B733" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C733" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D733" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E733" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F733" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G733" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H733" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A734" s="5">
+        <v>733</v>
+      </c>
+      <c r="B734" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C734" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D734" s="11">
+        <v>44205</v>
+      </c>
+      <c r="F734" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G734" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H734" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A735" s="5">
+        <v>734</v>
+      </c>
+      <c r="B735" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C735" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D735" s="11">
+        <v>44205</v>
+      </c>
+      <c r="E735" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F735" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G735" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H735" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A736" s="5">
+        <v>735</v>
+      </c>
+      <c r="B736" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C736" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D736" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E736" s="11">
+        <v>44200</v>
+      </c>
+      <c r="F736" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G736" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H736" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A737" s="13">
+        <v>736</v>
+      </c>
+      <c r="B737" s="13">
+        <v>190004</v>
+      </c>
+      <c r="C737" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D737" s="14">
+        <v>44206</v>
+      </c>
+      <c r="E737" s="14">
+        <v>44203</v>
+      </c>
+      <c r="F737" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G737" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H737" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A738" s="5">
+        <v>737</v>
+      </c>
+      <c r="B738" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C738" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D738" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E738" s="11">
+        <v>44204</v>
+      </c>
+      <c r="F738" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G738" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H738" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A739" s="5">
+        <v>738</v>
+      </c>
+      <c r="B739" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C739" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D739" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E739" s="11">
+        <v>44200</v>
+      </c>
+      <c r="F739" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G739" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H739" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A740" s="5">
+        <v>739</v>
+      </c>
+      <c r="B740" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C740" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D740" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E740" s="11">
+        <v>44200</v>
+      </c>
+      <c r="F740" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G740" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H740" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A741" s="5">
+        <v>740</v>
+      </c>
+      <c r="B741" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C741" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D741" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E741" s="11">
+        <v>44200</v>
+      </c>
+      <c r="F741" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G741" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H741" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A742" s="5">
+        <v>741</v>
+      </c>
+      <c r="B742" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C742" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D742" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E742" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F742" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G742" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H742" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A743" s="5">
+        <v>742</v>
+      </c>
+      <c r="B743" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C743" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D743" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E743" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F743" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G743" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H743" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A744" s="5">
+        <v>743</v>
+      </c>
+      <c r="B744" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C744" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D744" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E744" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F744" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G744" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H744" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A745" s="5">
+        <v>744</v>
+      </c>
+      <c r="B745" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C745" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D745" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E745" s="11">
+        <v>44199</v>
+      </c>
+      <c r="F745" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G745" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H745" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A746" s="5">
+        <v>745</v>
+      </c>
+      <c r="B746" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C746" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D746" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E746" s="11">
+        <v>44204</v>
+      </c>
+      <c r="F746" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G746" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H746" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A747" s="5">
+        <v>746</v>
+      </c>
+      <c r="B747" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D747" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E747" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F747" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G747" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H747" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A748" s="5">
+        <v>747</v>
+      </c>
+      <c r="B748" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C748" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D748" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E748" s="11">
+        <v>44203</v>
+      </c>
+      <c r="F748" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G748" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H748" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A749" s="5">
+        <v>748</v>
+      </c>
+      <c r="B749" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C749" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D749" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E749" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F749" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G749" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H749" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A750" s="5">
+        <v>749</v>
+      </c>
+      <c r="B750" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D750" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E750" s="11">
+        <v>44204</v>
+      </c>
+      <c r="F750" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G750" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H750" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A751" s="5">
+        <v>750</v>
+      </c>
+      <c r="B751" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C751" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D751" s="11">
+        <v>44206</v>
+      </c>
+      <c r="E751" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F751" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G751" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H751" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A752" s="5">
+        <v>751</v>
+      </c>
+      <c r="B752" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C752" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D752" s="11">
+        <v>44207</v>
+      </c>
+      <c r="E752" s="11">
+        <v>44199</v>
+      </c>
+      <c r="F752" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G752" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H752" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A753" s="5">
+        <v>752</v>
+      </c>
+      <c r="B753" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C753" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D753" s="11">
+        <v>44207</v>
+      </c>
+      <c r="E753" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F753" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G753" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H753" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A754" s="5">
+        <v>753</v>
+      </c>
+      <c r="B754" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C754" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D754" s="11">
+        <v>44207</v>
+      </c>
+      <c r="E754" s="11">
+        <v>44206</v>
+      </c>
+      <c r="F754" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G754" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H754" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A755" s="5">
+        <v>754</v>
+      </c>
+      <c r="B755" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C755" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D755" s="11">
+        <v>44207</v>
+      </c>
+      <c r="E755" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F755" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G755" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H755" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A756" s="5">
+        <v>755</v>
+      </c>
+      <c r="B756" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C756" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D756" s="11">
+        <v>44207</v>
+      </c>
+      <c r="E756" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F756" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G756" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H756" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A757" s="5">
+        <v>756</v>
+      </c>
+      <c r="B757" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C757" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D757" s="11">
+        <v>44207</v>
+      </c>
+      <c r="E757" s="11">
+        <v>44206</v>
+      </c>
+      <c r="F757" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G757" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H757" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A758" s="5">
+        <v>757</v>
+      </c>
+      <c r="B758" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C758" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D758" s="11">
+        <v>44207</v>
+      </c>
+      <c r="E758" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F758" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G758" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="H758" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A759" s="5">
+        <v>758</v>
+      </c>
+      <c r="B759" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C759" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D759" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E759" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F759" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G759" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H759" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A760" s="5">
+        <v>759</v>
+      </c>
+      <c r="B760" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C760" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D760" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E760" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F760" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G760" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H760" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A761" s="5">
+        <v>760</v>
+      </c>
+      <c r="B761" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C761" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D761" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E761" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F761" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G761" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H761" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A762" s="5">
+        <v>761</v>
+      </c>
+      <c r="B762" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C762" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D762" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E762" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F762" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G762" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H762" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A763" s="5">
+        <v>762</v>
+      </c>
+      <c r="B763" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C763" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D763" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E763" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F763" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G763" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H763" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A764" s="5">
+        <v>763</v>
+      </c>
+      <c r="B764" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C764" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D764" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E764" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F764" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G764" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H764" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A765" s="5">
+        <v>764</v>
+      </c>
+      <c r="B765" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C765" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D765" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E765" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F765" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G765" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H765" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A766" s="5">
+        <v>765</v>
+      </c>
+      <c r="B766" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C766" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D766" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E766" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F766" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G766" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H766" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A767" s="5">
+        <v>766</v>
+      </c>
+      <c r="B767" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C767" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D767" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E767" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F767" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="G767" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H767" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A768" s="5">
+        <v>767</v>
+      </c>
+      <c r="B768" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C768" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D768" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E768" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F768" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G768" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H768" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A769" s="5">
+        <v>768</v>
+      </c>
+      <c r="B769" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C769" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D769" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E769" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F769" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G769" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H769" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A770" s="5">
+        <v>769</v>
+      </c>
+      <c r="B770" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C770" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D770" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E770" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F770" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="G770" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H770" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A771" s="5">
+        <v>770</v>
+      </c>
+      <c r="B771" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C771" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D771" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E771" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F771" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G771" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H771" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A772" s="5">
+        <v>771</v>
+      </c>
+      <c r="B772" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C772" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D772" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E772" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F772" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G772" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H772" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A773" s="5">
+        <v>772</v>
+      </c>
+      <c r="B773" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C773" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D773" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E773" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F773" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G773" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H773" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A774" s="5">
+        <v>773</v>
+      </c>
+      <c r="B774" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C774" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D774" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E774" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F774" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G774" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H774" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A775" s="5">
+        <v>774</v>
+      </c>
+      <c r="B775" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C775" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D775" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E775" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F775" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G775" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H775" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A776" s="5">
+        <v>775</v>
+      </c>
+      <c r="B776" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C776" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D776" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E776" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F776" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G776" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H776" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A777" s="5">
+        <v>776</v>
+      </c>
+      <c r="B777" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C777" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D777" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E777" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F777" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G777" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H777" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A778" s="5">
+        <v>777</v>
+      </c>
+      <c r="B778" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C778" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D778" s="11">
+        <v>44208</v>
+      </c>
+      <c r="E778" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F778" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G778" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H778" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A779" s="5">
+        <v>778</v>
+      </c>
+      <c r="B779" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C779" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D779" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E779" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F779" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G779" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="H779" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A780" s="5">
+        <v>779</v>
+      </c>
+      <c r="B780" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C780" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D780" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E780" s="11">
+        <v>44208</v>
+      </c>
+      <c r="F780" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G780" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H780" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A781" s="5">
+        <v>780</v>
+      </c>
+      <c r="B781" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C781" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D781" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E781" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F781" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G781" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H781" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A782" s="5">
+        <v>781</v>
+      </c>
+      <c r="B782" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C782" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D782" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E782" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F782" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G782" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H782" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A783" s="5">
+        <v>782</v>
+      </c>
+      <c r="B783" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C783" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D783" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E783" s="11">
+        <v>44206</v>
+      </c>
+      <c r="F783" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G783" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H783" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A784" s="5">
+        <v>783</v>
+      </c>
+      <c r="B784" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C784" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D784" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E784" s="11">
+        <v>44207</v>
+      </c>
+      <c r="F784" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G784" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H784" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A785" s="5">
+        <v>784</v>
+      </c>
+      <c r="B785" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C785" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D785" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E785" s="11">
+        <v>44209</v>
+      </c>
+      <c r="F785" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G785" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H785" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A786" s="5">
+        <v>785</v>
+      </c>
+      <c r="B786" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C786" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D786" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E786" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F786" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="G786" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H786" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A787" s="5">
+        <v>786</v>
+      </c>
+      <c r="B787" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C787" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D787" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E787" s="11">
+        <v>44205</v>
+      </c>
+      <c r="F787" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G787" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H787" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="A788" s="5">
+        <v>787</v>
+      </c>
+      <c r="B788" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C788" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D788" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E788" s="11">
+        <v>44200</v>
+      </c>
+      <c r="F788" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G788" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H788" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A789" s="5">
+        <v>788</v>
+      </c>
+      <c r="B789" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C789" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D789" s="11">
+        <v>44209</v>
+      </c>
+      <c r="F789" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G789" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H789" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A790" s="5">
+        <v>789</v>
+      </c>
+      <c r="B790" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C790" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D790" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E790" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F790" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G790" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="H790" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A791" s="5">
+        <v>790</v>
+      </c>
+      <c r="B791" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C791" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D791" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E791" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F791" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G791" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H791" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A792" s="5">
+        <v>791</v>
+      </c>
+      <c r="B792" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C792" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D792" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E792" s="11">
+        <v>44560</v>
+      </c>
+      <c r="F792" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G792" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H792" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A793" s="5">
+        <v>792</v>
+      </c>
+      <c r="B793" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C793" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D793" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E793" s="11">
+        <v>44205</v>
+      </c>
+      <c r="F793" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G793" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H793" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A794" s="5">
+        <v>793</v>
+      </c>
+      <c r="B794" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C794" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D794" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E794" s="11">
+        <v>44206</v>
+      </c>
+      <c r="F794" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G794" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H794" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A795" s="5">
+        <v>794</v>
+      </c>
+      <c r="B795" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C795" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D795" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E795" s="11">
+        <v>44206</v>
+      </c>
+      <c r="F795" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G795" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H795" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A796" s="5">
+        <v>795</v>
+      </c>
+      <c r="B796" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C796" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D796" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E796" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F796" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G796" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H796" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A797" s="5">
+        <v>796</v>
+      </c>
+      <c r="B797" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C797" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D797" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E797" s="11">
+        <v>44201</v>
+      </c>
+      <c r="F797" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G797" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H797" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A798" s="5">
+        <v>797</v>
+      </c>
+      <c r="B798" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C798" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D798" s="11">
+        <v>44209</v>
+      </c>
+      <c r="F798" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G798" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H798" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A799" s="5">
+        <v>798</v>
+      </c>
+      <c r="B799" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C799" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D799" s="11">
+        <v>44209</v>
+      </c>
+      <c r="E799" s="11">
+        <v>44205</v>
+      </c>
+      <c r="F799" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G799" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H799" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A800" s="5">
+        <v>799</v>
+      </c>
+      <c r="B800" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C800" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D800" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F800" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G800" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H800" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A801" s="5">
+        <v>800</v>
+      </c>
+      <c r="B801" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C801" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D801" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F801" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G801" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H801" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A802" s="5">
+        <v>801</v>
+      </c>
+      <c r="B802" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C802" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D802" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F802" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G802" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H802" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A803" s="5">
+        <v>802</v>
+      </c>
+      <c r="B803" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C803" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D803" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F803" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G803" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="H803" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A804" s="5">
+        <v>803</v>
+      </c>
+      <c r="B804" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C804" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D804" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F804" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G804" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H804" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A805" s="5">
+        <v>804</v>
+      </c>
+      <c r="B805" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C805" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D805" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F805" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="G805" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H805" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A806" s="5">
+        <v>805</v>
+      </c>
+      <c r="B806" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C806" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D806" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F806" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G806" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="H806" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A807" s="5">
+        <v>806</v>
+      </c>
+      <c r="B807" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C807" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D807" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F807" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G807" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H807" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A808" s="5">
+        <v>807</v>
+      </c>
+      <c r="B808" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C808" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D808" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F808" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G808" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H808" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A809" s="5">
+        <v>808</v>
+      </c>
+      <c r="B809" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C809" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D809" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F809" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G809" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H809" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A810" s="5">
+        <v>809</v>
+      </c>
+      <c r="B810" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C810" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D810" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F810" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G810" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H810" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A811" s="5">
+        <v>810</v>
+      </c>
+      <c r="B811" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C811" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D811" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F811" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G811" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H811" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A812" s="5">
+        <v>811</v>
+      </c>
+      <c r="B812" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C812" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D812" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F812" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G812" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H812" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A813" s="5">
+        <v>812</v>
+      </c>
+      <c r="B813" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C813" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D813" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F813" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G813" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H813" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A814" s="5">
+        <v>813</v>
+      </c>
+      <c r="B814" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C814" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D814" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F814" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G814" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H814" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A815" s="5">
+        <v>814</v>
+      </c>
+      <c r="B815" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C815" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D815" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F815" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G815" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H815" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A816" s="5">
+        <v>815</v>
+      </c>
+      <c r="B816" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C816" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D816" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F816" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G816" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H816" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A817" s="5">
+        <v>816</v>
+      </c>
+      <c r="B817" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C817" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D817" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F817" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G817" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H817" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A818" s="5">
+        <v>817</v>
+      </c>
+      <c r="B818" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C818" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D818" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F818" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G818" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H818" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A819" s="5">
+        <v>818</v>
+      </c>
+      <c r="B819" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C819" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D819" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F819" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G819" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H819" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A820" s="5">
+        <v>819</v>
+      </c>
+      <c r="B820" s="5">
+        <v>190004</v>
+      </c>
+      <c r="C820" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D820" s="11">
+        <v>44210</v>
+      </c>
+      <c r="F820" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G820" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H820" s="6" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
